--- a/Sem/Sem_001.xlsx
+++ b/Sem/Sem_001.xlsx
@@ -14,27 +14,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Sales Date</t>
-  </si>
-  <si>
-    <t>Sales Person</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>Sila Ahmed</t>
-  </si>
-  <si>
-    <t>Mir Hossain</t>
-  </si>
-  <si>
-    <t>Sarmin Jahan</t>
-  </si>
-  <si>
-    <t>Mahmudul Hasan</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+  <si>
+    <t>phone:</t>
+  </si>
+  <si>
+    <t>surname:</t>
+  </si>
+  <si>
+    <t>name:</t>
+  </si>
+  <si>
+    <t>patronymic:</t>
+  </si>
+  <si>
+    <t>UID</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>+79131111111</t>
+  </si>
+  <si>
+    <t>+79132222222</t>
+  </si>
+  <si>
+    <t>+79062222222</t>
+  </si>
+  <si>
+    <t>+79061111111</t>
+  </si>
+  <si>
+    <t>Иванов</t>
+  </si>
+  <si>
+    <t>Петров</t>
+  </si>
+  <si>
+    <t>Сидоров</t>
+  </si>
+  <si>
+    <t>Смирнов</t>
+  </si>
+  <si>
+    <t>Иван</t>
+  </si>
+  <si>
+    <t>Иванович</t>
+  </si>
+  <si>
+    <t>Петрович</t>
+  </si>
+  <si>
+    <t>Сидорович</t>
+  </si>
+  <si>
+    <t>Петр</t>
+  </si>
+  <si>
+    <t>Сидор</t>
+  </si>
+  <si>
+    <t>Сергей</t>
+  </si>
+  <si>
+    <t>Сергееыич</t>
   </si>
 </sst>
 </file>
@@ -72,7 +126,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -377,75 +431,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C5"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>43232</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>60000</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43805</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>50000</v>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>44052</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>45000</v>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>44293</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>30000</v>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Sem/Sem_001.xlsx
+++ b/Sem/Sem_001.xlsx
@@ -2471,571 +2471,571 @@
     <t>+79135625492</t>
   </si>
   <si>
-    <t>,Номер телефона: +7 9065350252 Фамилия: Ложников Имя: Михаил Отчество: Михайлович</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9065350253 Фамилия: Чувиляев Имя: Сергей Отчество: Валерьевич</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9065513827 Фамилия: Соловьева Имя: Елена Отчество: Николаевна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9065356644 Фамилия: Кремешкова Имя: Ирина Отчество: Валентиновна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9065391909 Фамилия: Шичкина Имя: Ольга Отчество: Алексеевна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391910 Фамилия: Мадрахимов Имя: Бахтияр Отчество: Тургунбаевич</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391911 Фамилия: Тарасова Имя: Елена Отчество: Николаевна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391915 Фамилия: Швецова Имя: Ольга Отчество: Петровна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391948 Фамилия: Мальцева Имя: Жанна Отчество: Викторовна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391913 Фамилия: Луговкина Имя: Елена Отчество: Владимировна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391914 Фамилия: Логинов Имя: Александр Отчество: Александрович</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391919 Фамилия: Старкова Имя: Елена Отчество: Львовна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391907 Фамилия: Семенов Имя: Андрей Отчество: Геннадьевич</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391925 Фамилия: Волкова Имя: Ольга Отчество: Валерьевна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391920 Фамилия: Васильева Имя: Ольга Отчество: Владимировна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391921 Фамилия: Антипина Имя: Ирина Отчество: Владимировна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391922 Фамилия: Кустова Имя: Ольга Отчество: Александровна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391924 Фамилия: Капустина Имя: Ольга Отчество: Викторовна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391908 Фамилия: Веселова Имя: Ольга Отчество: Владимировна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391927 Фамилия: Максимова Имя: Ольга Отчество: Вячеславовна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391926 Фамилия: Малышева Имя: Фаина Отчество: Павловна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391928 Фамилия: Волина Имя: Ирина Отчество: Александровна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391929 Фамилия: Фролова Имя: Мария Отчество: Николаевна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391906 Фамилия: Семенова Имя: Елена Отчество: Валерьевна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391923 Фамилия: Суворова Имя: Эльвира Отчество: Федоровна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391916 Фамилия: Панкратова Имя: Ирина Отчество: Владимировна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391918 Фамилия: Смирнова Имя: Лариса Отчество: Валентиновна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391912 Фамилия: Виноградова Имя: Наталья Отчество: Васильевна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391917 Фамилия: Сафронова Имя: Галина Отчество: Анатольевна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391918 Фамилия: Кудрякова Имя: Ольга Отчество: Владимировна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391930 Фамилия: Кочнева Имя: Вера Отчество: Николаевна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391933 Фамилия: Кошелева Имя: Елена Отчество: Владимировна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391932 Фамилия: Белякова Имя: Ольга Отчество: Анатольевна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391931 Фамилия: Дружинина Имя: Татьяна Отчество: Александровна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391995 Фамилия: Ипатова Имя: Катерина Отчество: Андреевна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391935 Фамилия: Григорьева Имя: Светлана Отчество: Владимировна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391936 Фамилия: Нищёва Имя: Ольга Отчество: Николаевна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391938 Фамилия: Коростель Имя: Елена Отчество: Юрьевна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391939 Фамилия: Николаева Имя: Ирина Отчество: Николаевна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391991 Фамилия: Турова Имя: Наталия Отчество: Борисовна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391937 Фамилия: Довгань Имя: Ирина Отчество: Борисовна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391993 Фамилия: Воробьева Имя: Елена Отчество: Владимировна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391994 Фамилия: Бойкова Имя: Ольга Отчество: Петровна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391995 Фамилия: Новожилова Имя: Анна Отчество: Сергеевна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391940 Фамилия: Павлова Имя: Ольга Отчество: Владимировна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391941 Фамилия: Севина Имя: Виктория Отчество: Владимировна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391942 Фамилия: Пенушкова Имя: Надежда Отчество: Львовна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391943 Фамилия: Волкова Имя: Ольга Отчество: Евгеньевна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391943 Фамилия: Власова Имя: Анна Отчество: Витальевна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391947 Фамилия: Скрябина Имя: Наталья Отчество: Дмитриевна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391959 Фамилия: Коваль Имя: Наталья Отчество: Игоревна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391950 Фамилия: Белоусова Имя: Татьяна Отчество: Анатольевна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391951 Фамилия: Волкова Имя: Вера Отчество: Сергеевна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391989 Фамилия: Мишенева Имя: Елена Отчество: Александровна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391957 Фамилия: Константинова Имя: Ирина Отчество: Вадимовна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391956 Фамилия: Челябова Имя: Татьяна Отчество: Сергеевна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391958 Фамилия: Полякова Имя: Ольга Отчество: Николаевна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391961 Фамилия: Николаев Имя: Андрей Отчество: Вячеславович</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391999 Фамилия: Смирнов Имя: Андрей Отчество: Николаевич</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391967 Фамилия: Кондратьев Имя: Андрей Отчество: Сергеевич</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391963 Фамилия: Цветкова Имя: Виктория Отчество: Анатольевна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391964 Фамилия: Цветкова Имя: Елена Отчество: Васильевна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391965 Фамилия: Герасимов Имя: Василий Отчество: Владимирович</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391966 Фамилия: Валеев Имя: Асхат Отчество: Ахатович</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135354844 Фамилия: Проневич Имя: Руслан Отчество: Валерьевич</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391962 Фамилия: Корчагин Имя: Владимир Отчество: Павлович</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391998 Фамилия: Кобяков Имя: Андрей Отчество: Михайлович</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391963 Фамилия: Фадеев Имя: Максим Отчество: Дмитриевич</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391990 Фамилия: Гурьянов Имя: Семен Отчество: Николаевич</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391971 Фамилия: Лапин Имя: Александр Отчество: Викторович</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391972 Фамилия: Юрьев Имя: Антон Отчество: Николаевич</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391973 Фамилия: Березин Имя: Олег Отчество: Викторович</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391974 Фамилия: Блувштейн Имя: Денис Отчество: Вячеславович</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391975 Фамилия: Чижов Имя: Андрей Отчество: Александрович</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391970 Фамилия: Соколов Имя: Вадим Отчество: Владимирович</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391976 Фамилия: Кузнецов Имя: Михаил Отчество: Тимофеевич</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391977 Фамилия: Муравьёв Имя: Александр Отчество: Владимирович</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391979 Фамилия: Николаев Имя: Евгений Отчество: Михайлович</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391978 Фамилия: Бобылев Имя: Алексей Отчество: Васильевич</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391981 Фамилия: Маркова Имя: Елена Отчество: Борисовна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391918 Фамилия: Загвозкина Имя: Евгения Отчество: Юрьевна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391982 Фамилия: Вершинина Имя: Любовь Отчество: Александровна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391982 Фамилия: Малинина Имя: Наталья Отчество: Евгеньевна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391987 Фамилия: Пуговкина Имя: Анна Отчество: Викторовна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391983 Фамилия: Зинцова Имя: Светлана Отчество: Олеговна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391984 Фамилия: Калинина Имя: Надежда Отчество: Николаевна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391985 Фамилия: Красилова Имя: Елена Отчество: Витальевна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135391986 Фамилия: Старжинская Имя: Екатерина Отчество: Николаевна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625401 Фамилия: Ложников Имя: Михаил Отчество: Михайлович</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625402 Фамилия: Соловьева Имя: Елена Отчество: Николаевна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625403 Фамилия: Чувиляев Имя: Сергей Отчество: Валерьевич</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625404 Фамилия: Попова Имя: Гузалия Отчество: Минулловна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625405 Фамилия: Боровикова Имя: Ольга Отчество: Константиновна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625400 Фамилия: Гусева Имя: Светлана Отчество: Дмитриевна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625410 Фамилия: Тощакова Имя: Ольга Отчество: Владимировна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625411 Фамилия: Лукьяненкова Имя: Елена Отчество: Анатольевна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625412 Фамилия: Новикова Имя: Екатерина Отчество: Николаевна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625413 Фамилия: Медведева Имя: Елена Отчество: Петровна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625414 Фамилия: Смирнова Имя: Светлана Отчество: Владимировна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625415 Фамилия: Гусева Имя: Наталья Отчество: Львовна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625416 Фамилия: Тихомирова Имя: Наталья Отчество: Владимировна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625417 Фамилия: Салова Имя: Светлана Отчество: Ивановна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625418 Фамилия: Исаева Имя: Ирина Отчество: Евгеньевна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625419 Фамилия: Антонова Имя: Галина Отчество: Ремовна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625406 Фамилия: Карпова Имя: Галина Отчество: Валентиновна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625407 Фамилия: Смирнова Имя: Наталья Отчество: Дмитриевна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625408 Фамилия: Королева Имя: Галина Отчество: Владимировна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625409 Фамилия: Бахарева Имя: Ольга Отчество: Дмитриевна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625450 Фамилия: Оськина Имя: Наталья Отчество: Андреевна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625451 Фамилия: Рыжова Имя: Татьяна Отчество: Сергеевна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625456 Фамилия: Костенко Имя: Оксана Отчество: Сергеевна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625458 Фамилия: Кевина Имя: Людмила Отчество: Васильевна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625459 Фамилия: Ермолаева Имя: Татьяна Отчество: Юрьевна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625420 Фамилия: Зорина Имя: Светлана Отчество: Юрьевна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625421 Фамилия: Карпова Имя: Ирина Отчество: Владимировна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625422 Фамилия: Рыжова Имя: Мария Отчество: Станиславовна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625423 Фамилия: Антонова Имя: Светлана Отчество: Аюповна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625424 Фамилия: Решетникова Имя: Юлия Отчество: Вячеславовна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625425 Фамилия: Алифанова Имя: Наталия Отчество: Владимировна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625426 Фамилия: Дунаев Имя: Илья Отчество: Владимирович</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625430 Фамилия: Бородина Имя: Ирина Отчество: Борисовна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625431 Фамилия: Мемнонова Имя: Ольга Отчество: Вячеславовна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625432 Фамилия: Зарубина Имя: Валентина Отчество: Сергеевна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625433 Фамилия: Горчакова Имя: Татьяна Отчество: Валерьевна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625434 Фамилия: Девятых Имя: Елена Отчество: Борисовна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625435 Фамилия: Серова Имя: Любовь Отчество: Николаевна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625436 Фамилия: Егорова Имя: Галина Отчество: Александровна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625437 Фамилия: Родионова Имя: Надежда Отчество: Юрьевна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625440 Фамилия: Батенова Имя: Наталья Отчество: Михайловна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625441 Фамилия: Белова Имя: Ольга Отчество: Михайловна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625442 Фамилия: Тютюнова Имя: Ирина Отчество: Евгеньевна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625443 Фамилия: Суворова Имя: Марина Отчество: Владимировна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625444 Фамилия: Королькова Имя: Елена Отчество: Валерьевна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625445 Фамилия: Фролова Имя: Юлия Отчество: Александровна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625446 Фамилия: Воронова Имя: Анна Отчество: Николаевна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625447 Фамилия: Зимина Имя: Анастасия Отчество: Анатольевна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625448 Фамилия: Апалько Имя: Оксана Отчество: Владимировна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625449 Фамилия: Смирнова Имя: Ирина Отчество: Александровна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625453 Фамилия: Ляпугин Имя: Алексей Отчество: Николаевич</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625454 Фамилия: Калинин Имя: Сергей Отчество: Николаевич</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625455 Фамилия: Решетова Имя: Светлана Отчество: Владимировна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625460 Фамилия: Смирнова Имя: Ирина Отчество: Александровна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625461 Фамилия: Тимонина Имя: Елена Отчество: Анатольевна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625462 Фамилия: Базанкова Имя: Марина Отчество: Владимировна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625463 Фамилия: Криволуцкая Имя: Наталья Отчество: Анатольевна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625464 Фамилия: Федосеева Имя: Светлана Отчество: Константиновна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625465 Фамилия: Исакова Имя: Елена Отчество: Васильевна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625466 Фамилия: Соболева Имя: Татьяна Отчество: Ивановна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625467 Фамилия: Асекритова Имя: Марина Отчество: Андреевна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625468 Фамилия: Коротаева Имя: Алла Отчество: Николаевна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625470 Фамилия: Козлов Имя: Александр Отчество: Анатольевич</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625471 Фамилия: Крылов Имя: Олег Отчество: Витальевич</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625472 Фамилия: Малый Имя: Николай Отчество: Александрович</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625473 Фамилия: Киселева Имя: Ольга Отчество: Борисовна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625474 Фамилия: Лошкина Имя: Анна Отчество: Викторовна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625475 Фамилия: Тряскина Имя: Елена Отчество: Борисовна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625476 Фамилия: Синяк Имя: Борис Отчество: Николаевич</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625477 Фамилия: Егорычева Имя: Нина Отчество: Михайловна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625478 Фамилия: Рогова Имя: Ирина Отчество: Федоровна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625479 Фамилия: Киселева Имя: Ксения Отчество: Александровна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625480 Фамилия: Козина Имя: Ирина Отчество: Владимировна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625481 Фамилия: Розанова Имя: Марина Отчество: Анатольевна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625482 Фамилия: Тихомирова Имя: Светлана Отчество: Валентиновна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135626482 Фамилия: Лошкина Имя: Ирина Отчество: Анатольевна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625483 Фамилия: Дмитриева Имя: Елена Отчество: Владимировна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625484 Фамилия: Шумкова Имя: Наталья Отчество: Жоржевна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625485 Фамилия: Фролова Имя: Светлана Отчество: Андреевна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135455331 Фамилия: Попова Имя: Гузалия Отчество: Минулловна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135455411 Фамилия: Колотильщикова Имя: Борис Отчество: Александрович</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135465411 Фамилия: Сомикова Имя: Светлана Отчество: Владимировна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135473411 Фамилия: Михайловская Имя: Юлия Отчество: Викторовна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135455481 Фамилия: Никитина Имя: Гамиля Отчество: Хаджимуратовна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135455421 Фамилия: Фунтова Имя: Надежда Отчество: Анатольевна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135455381 Фамилия: Соловьева Имя: Наталья Отчество: Анатольевна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135455311 Фамилия: Серова Имя: Елена Отчество: Николаевна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135455481 Фамилия: Шемягина Имя: Людмила Отчество: Анатольевна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135455481 Фамилия: Дружинина Имя: Ольга Отчество: Николаевна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135455431 Фамилия: Золянова Имя: Надежда Отчество: Олеговна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135455431 Фамилия: Никифорова Имя: Юлия Отчество: Сергеевна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135455402 Фамилия: Махова Имя: Лидия Отчество: Ивановна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135642238 Фамилия: Антонюк Имя: Елена Отчество: Юрьевна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135642237 Фамилия: Лукоянова Имя: Виктория Отчество: Владимировна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135642240 Фамилия: Молчанова Имя: Александр Отчество: Николаевич</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135642237 Фамилия: Федосеева Имя: Ольга Отчество: Игоревна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135642237 Фамилия: Антонюк Имя: Евгений Отчество: Валерьевич</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135625491 Фамилия: Сомикова Имя: Мария Отчество: Александровна</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135642239 Фамилия: Горшенин Имя: Сергей Отчество: Валентинович</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +7 9135642239 Фамилия: Балашов Имя: Павел Отчество: Александрович</t>
-  </si>
-  <si>
-    <t>,Номер телефона: +79135625492 Фамилия: Палибина Имя: Наталья Отчество: Николаевна</t>
+    <t>,phone: +7 9065350252 surname:: Ложников name: Михаил patronymic: Михайлович</t>
+  </si>
+  <si>
+    <t>,phone: +7 9065350253 surname:: Чувиляев name: Сергей patronymic: Валерьевич</t>
+  </si>
+  <si>
+    <t>,phone: +7 9065513827 surname:: Соловьева name: Елена patronymic: Николаевна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9065356644 surname:: Кремешкова name: Ирина patronymic: Валентиновна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9065391909 surname:: Шичкина name: Ольга patronymic: Алексеевна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391910 surname:: Мадрахимов name: Бахтияр patronymic: Тургунбаевич</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391911 surname:: Тарасова name: Елена patronymic: Николаевна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391915 surname:: Швецова name: Ольга patronymic: Петровна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391948 surname:: Мальцева name: Жанна patronymic: Викторовна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391913 surname:: Луговкина name: Елена patronymic: Владимировна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391914 surname:: Логинов name: Александр patronymic: Александрович</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391919 surname:: Старкова name: Елена patronymic: Львовна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391907 surname:: Семенов name: Андрей patronymic: Геннадьевич</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391925 surname:: Волкова name: Ольга patronymic: Валерьевна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391920 surname:: Васильева name: Ольга patronymic: Владимировна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391921 surname:: Антипина name: Ирина patronymic: Владимировна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391922 surname:: Кустова name: Ольга patronymic: Александровна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391924 surname:: Капустина name: Ольга patronymic: Викторовна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391908 surname:: Веселова name: Ольга patronymic: Владимировна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391927 surname:: Максимова name: Ольга patronymic: Вячеславовна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391926 surname:: Малышева name: Фаина patronymic: Павловна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391928 surname:: Волина name: Ирина patronymic: Александровна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391929 surname:: Фролова name: Мария patronymic: Николаевна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391906 surname:: Семенова name: Елена patronymic: Валерьевна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391923 surname:: Суворова name: Эльвира patronymic: Федоровна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391916 surname:: Панкратова name: Ирина patronymic: Владимировна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391918 surname:: Смирнова name: Лариса patronymic: Валентиновна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391912 surname:: Виноградова name: Наталья patronymic: Васильевна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391917 surname:: Сафронова name: Галина patronymic: Анатольевна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391918 surname:: Кудрякова name: Ольга patronymic: Владимировна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391930 surname:: Кочнева name: Вера patronymic: Николаевна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391933 surname:: Кошелева name: Елена patronymic: Владимировна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391932 surname:: Белякова name: Ольга patronymic: Анатольевна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391931 surname:: Дружинина name: Татьяна patronymic: Александровна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391995 surname:: Ипатова name: Катерина patronymic: Андреевна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391935 surname:: Григорьева name: Светлана patronymic: Владимировна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391936 surname:: Нищёва name: Ольга patronymic: Николаевна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391938 surname:: Коростель name: Елена patronymic: Юрьевна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391939 surname:: Николаева name: Ирина patronymic: Николаевна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391991 surname:: Турова name: Наталия patronymic: Борисовна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391937 surname:: Довгань name: Ирина patronymic: Борисовна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391993 surname:: Воробьева name: Елена patronymic: Владимировна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391994 surname:: Бойкова name: Ольга patronymic: Петровна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391995 surname:: Новожилова name: Анна patronymic: Сергеевна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391940 surname:: Павлова name: Ольга patronymic: Владимировна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391941 surname:: Севина name: Виктория patronymic: Владимировна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391942 surname:: Пенушкова name: Надежда patronymic: Львовна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391943 surname:: Волкова name: Ольга patronymic: Евгеньевна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391943 surname:: Власова name: Анна patronymic: Витальевна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391947 surname:: Скрябина name: Наталья patronymic: Дмитриевна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391959 surname:: Коваль name: Наталья patronymic: Игоревна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391950 surname:: Белоусова name: Татьяна patronymic: Анатольевна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391951 surname:: Волкова name: Вера patronymic: Сергеевна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391989 surname:: Мишенева name: Елена patronymic: Александровна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391957 surname:: Константинова name: Ирина patronymic: Вадимовна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391956 surname:: Челябова name: Татьяна patronymic: Сергеевна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391958 surname:: Полякова name: Ольга patronymic: Николаевна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391961 surname:: Николаев name: Андрей patronymic: Вячеславович</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391999 surname:: Смирнов name: Андрей patronymic: Николаевич</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391967 surname:: Кондратьев name: Андрей patronymic: Сергеевич</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391963 surname:: Цветкова name: Виктория patronymic: Анатольевна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391964 surname:: Цветкова name: Елена patronymic: Васильевна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391965 surname:: Герасимов name: Василий patronymic: Владимирович</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391966 surname:: Валеев name: Асхат patronymic: Ахатович</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135354844 surname:: Проневич name: Руслан patronymic: Валерьевич</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391962 surname:: Корчагин name: Владимир patronymic: Павлович</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391998 surname:: Кобяков name: Андрей patronymic: Михайлович</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391963 surname:: Фадеев name: Максим patronymic: Дмитриевич</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391990 surname:: Гурьянов name: Семен patronymic: Николаевич</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391971 surname:: Лапин name: Александр patronymic: Викторович</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391972 surname:: Юрьев name: Антон patronymic: Николаевич</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391973 surname:: Березин name: Олег patronymic: Викторович</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391974 surname:: Блувштейн name: Денис patronymic: Вячеславович</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391975 surname:: Чижов name: Андрей patronymic: Александрович</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391970 surname:: Соколов name: Вадим patronymic: Владимирович</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391976 surname:: Кузнецов name: Михаил patronymic: Тимофеевич</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391977 surname:: Муравьёв name: Александр patronymic: Владимирович</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391979 surname:: Николаев name: Евгений patronymic: Михайлович</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391978 surname:: Бобылев name: Алексей patronymic: Васильевич</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391981 surname:: Маркова name: Елена patronymic: Борисовна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391918 surname:: Загвозкина name: Евгения patronymic: Юрьевна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391982 surname:: Вершинина name: Любовь patronymic: Александровна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391982 surname:: Малинина name: Наталья patronymic: Евгеньевна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391987 surname:: Пуговкина name: Анна patronymic: Викторовна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391983 surname:: Зинцова name: Светлана patronymic: Олеговна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391984 surname:: Калинина name: Надежда patronymic: Николаевна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391985 surname:: Красилова name: Елена patronymic: Витальевна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135391986 surname:: Старжинская name: Екатерина patronymic: Николаевна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625401 surname:: Ложников name: Михаил patronymic: Михайлович</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625402 surname:: Соловьева name: Елена patronymic: Николаевна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625403 surname:: Чувиляев name: Сергей patronymic: Валерьевич</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625404 surname:: Попова name: Гузалия patronymic: Минулловна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625405 surname:: Боровикова name: Ольга patronymic: Константиновна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625400 surname:: Гусева name: Светлана patronymic: Дмитриевна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625410 surname:: Тощакова name: Ольга patronymic: Владимировна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625411 surname:: Лукьяненкова name: Елена patronymic: Анатольевна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625412 surname:: Новикова name: Екатерина patronymic: Николаевна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625413 surname:: Медведева name: Елена patronymic: Петровна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625414 surname:: Смирнова name: Светлана patronymic: Владимировна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625415 surname:: Гусева name: Наталья patronymic: Львовна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625416 surname:: Тихомирова name: Наталья patronymic: Владимировна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625417 surname:: Салова name: Светлана patronymic: Ивановна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625418 surname:: Исаева name: Ирина patronymic: Евгеньевна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625419 surname:: Антонова name: Галина patronymic: Ремовна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625406 surname:: Карпова name: Галина patronymic: Валентиновна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625407 surname:: Смирнова name: Наталья patronymic: Дмитриевна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625408 surname:: Королева name: Галина patronymic: Владимировна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625409 surname:: Бахарева name: Ольга patronymic: Дмитриевна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625450 surname:: Оськина name: Наталья patronymic: Андреевна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625451 surname:: Рыжова name: Татьяна patronymic: Сергеевна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625456 surname:: Костенко name: Оксана patronymic: Сергеевна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625458 surname:: Кевина name: Людмила patronymic: Васильевна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625459 surname:: Ермолаева name: Татьяна patronymic: Юрьевна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625420 surname:: Зорина name: Светлана patronymic: Юрьевна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625421 surname:: Карпова name: Ирина patronymic: Владимировна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625422 surname:: Рыжова name: Мария patronymic: Станиславовна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625423 surname:: Антонова name: Светлана patronymic: Аюповна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625424 surname:: Решетникова name: Юлия patronymic: Вячеславовна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625425 surname:: Алифанова name: Наталия patronymic: Владимировна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625426 surname:: Дунаев name: Илья patronymic: Владимирович</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625430 surname:: Бородина name: Ирина patronymic: Борисовна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625431 surname:: Мемнонова name: Ольга patronymic: Вячеславовна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625432 surname:: Зарубина name: Валентина patronymic: Сергеевна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625433 surname:: Горчакова name: Татьяна patronymic: Валерьевна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625434 surname:: Девятых name: Елена patronymic: Борисовна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625435 surname:: Серова name: Любовь patronymic: Николаевна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625436 surname:: Егорова name: Галина patronymic: Александровна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625437 surname:: Родионова name: Надежда patronymic: Юрьевна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625440 surname:: Батенова name: Наталья patronymic: Михайловна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625441 surname:: Белова name: Ольга patronymic: Михайловна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625442 surname:: Тютюнова name: Ирина patronymic: Евгеньевна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625443 surname:: Суворова name: Марина patronymic: Владимировна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625444 surname:: Королькова name: Елена patronymic: Валерьевна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625445 surname:: Фролова name: Юлия patronymic: Александровна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625446 surname:: Воронова name: Анна patronymic: Николаевна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625447 surname:: Зимина name: Анастасия patronymic: Анатольевна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625448 surname:: Апалько name: Оксана patronymic: Владимировна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625449 surname:: Смирнова name: Ирина patronymic: Александровна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625453 surname:: Ляпугин name: Алексей patronymic: Николаевич</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625454 surname:: Калинин name: Сергей patronymic: Николаевич</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625455 surname:: Решетова name: Светлана patronymic: Владимировна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625460 surname:: Смирнова name: Ирина patronymic: Александровна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625461 surname:: Тимонина name: Елена patronymic: Анатольевна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625462 surname:: Базанкова name: Марина patronymic: Владимировна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625463 surname:: Криволуцкая name: Наталья patronymic: Анатольевна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625464 surname:: Федосеева name: Светлана patronymic: Константиновна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625465 surname:: Исакова name: Елена patronymic: Васильевна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625466 surname:: Соболева name: Татьяна patronymic: Ивановна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625467 surname:: Асекритова name: Марина patronymic: Андреевна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625468 surname:: Коротаева name: Алла patronymic: Николаевна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625470 surname:: Козлов name: Александр patronymic: Анатольевич</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625471 surname:: Крылов name: Олег patronymic: Витальевич</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625472 surname:: Малый name: Николай patronymic: Александрович</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625473 surname:: Киселева name: Ольга patronymic: Борисовна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625474 surname:: Лошкина name: Анна patronymic: Викторовна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625475 surname:: Тряскина name: Елена patronymic: Борисовна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625476 surname:: Синяк name: Борис patronymic: Николаевич</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625477 surname:: Егорычева name: Нина patronymic: Михайловна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625478 surname:: Рогова name: Ирина patronymic: Федоровна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625479 surname:: Киселева name: Ксения patronymic: Александровна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625480 surname:: Козина name: Ирина patronymic: Владимировна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625481 surname:: Розанова name: Марина patronymic: Анатольевна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625482 surname:: Тихомирова name: Светлана patronymic: Валентиновна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135626482 surname:: Лошкина name: Ирина patronymic: Анатольевна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625483 surname:: Дмитриева name: Елена patronymic: Владимировна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625484 surname:: Шумкова name: Наталья patronymic: Жоржевна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625485 surname:: Фролова name: Светлана patronymic: Андреевна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135455331 surname:: Попова name: Гузалия patronymic: Минулловна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135455411 surname:: Колотильщикова name: Борис patronymic: Александрович</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135465411 surname:: Сомикова name: Светлана patronymic: Владимировна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135473411 surname:: Михайловская name: Юлия patronymic: Викторовна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135455481 surname:: Никитина name: Гамиля patronymic: Хаджимуратовна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135455421 surname:: Фунтова name: Надежда patronymic: Анатольевна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135455381 surname:: Соловьева name: Наталья patronymic: Анатольевна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135455311 surname:: Серова name: Елена patronymic: Николаевна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135455481 surname:: Шемягина name: Людмила patronymic: Анатольевна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135455481 surname:: Дружинина name: Ольга patronymic: Николаевна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135455431 surname:: Золянова name: Надежда patronymic: Олеговна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135455431 surname:: Никифорова name: Юлия patronymic: Сергеевна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135455402 surname:: Махова name: Лидия patronymic: Ивановна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135642238 surname:: Антонюк name: Елена patronymic: Юрьевна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135642237 surname:: Лукоянова name: Виктория patronymic: Владимировна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135642240 surname:: Молчанова name: Александр patronymic: Николаевич</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135642237 surname:: Федосеева name: Ольга patronymic: Игоревна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135642237 surname:: Антонюк name: Евгений patronymic: Валерьевич</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135625491 surname:: Сомикова name: Мария patronymic: Александровна</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135642239 surname:: Горшенин name: Сергей patronymic: Валентинович</t>
+  </si>
+  <si>
+    <t>,phone: +7 9135642239 surname:: Балашов name: Павел patronymic: Александрович</t>
+  </si>
+  <si>
+    <t>,phone: +79135625492 surname:: Палибина name: Наталья patronymic: Николаевна</t>
   </si>
 </sst>
 </file>
@@ -6615,7 +6615,7 @@
   <dimension ref="A3:R194"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12:R194"/>
+      <selection activeCell="R6" sqref="R6:R194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Sem/Sem_001.xlsx
+++ b/Sem/Sem_001.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2084" uniqueCount="1007">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2273" uniqueCount="1196">
   <si>
     <t>phone:</t>
   </si>
@@ -2471,571 +2471,1138 @@
     <t>+79135625492</t>
   </si>
   <si>
-    <t>,phone: +7 9065350252 surname:: Ложников name: Михаил patronymic: Михайлович</t>
-  </si>
-  <si>
-    <t>,phone: +7 9065350253 surname:: Чувиляев name: Сергей patronymic: Валерьевич</t>
-  </si>
-  <si>
-    <t>,phone: +7 9065513827 surname:: Соловьева name: Елена patronymic: Николаевна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9065356644 surname:: Кремешкова name: Ирина patronymic: Валентиновна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9065391909 surname:: Шичкина name: Ольга patronymic: Алексеевна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391910 surname:: Мадрахимов name: Бахтияр patronymic: Тургунбаевич</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391911 surname:: Тарасова name: Елена patronymic: Николаевна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391915 surname:: Швецова name: Ольга patronymic: Петровна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391948 surname:: Мальцева name: Жанна patronymic: Викторовна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391913 surname:: Луговкина name: Елена patronymic: Владимировна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391914 surname:: Логинов name: Александр patronymic: Александрович</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391919 surname:: Старкова name: Елена patronymic: Львовна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391907 surname:: Семенов name: Андрей patronymic: Геннадьевич</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391925 surname:: Волкова name: Ольга patronymic: Валерьевна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391920 surname:: Васильева name: Ольга patronymic: Владимировна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391921 surname:: Антипина name: Ирина patronymic: Владимировна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391922 surname:: Кустова name: Ольга patronymic: Александровна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391924 surname:: Капустина name: Ольга patronymic: Викторовна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391908 surname:: Веселова name: Ольга patronymic: Владимировна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391927 surname:: Максимова name: Ольга patronymic: Вячеславовна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391926 surname:: Малышева name: Фаина patronymic: Павловна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391928 surname:: Волина name: Ирина patronymic: Александровна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391929 surname:: Фролова name: Мария patronymic: Николаевна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391906 surname:: Семенова name: Елена patronymic: Валерьевна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391923 surname:: Суворова name: Эльвира patronymic: Федоровна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391916 surname:: Панкратова name: Ирина patronymic: Владимировна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391918 surname:: Смирнова name: Лариса patronymic: Валентиновна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391912 surname:: Виноградова name: Наталья patronymic: Васильевна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391917 surname:: Сафронова name: Галина patronymic: Анатольевна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391918 surname:: Кудрякова name: Ольга patronymic: Владимировна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391930 surname:: Кочнева name: Вера patronymic: Николаевна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391933 surname:: Кошелева name: Елена patronymic: Владимировна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391932 surname:: Белякова name: Ольга patronymic: Анатольевна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391931 surname:: Дружинина name: Татьяна patronymic: Александровна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391995 surname:: Ипатова name: Катерина patronymic: Андреевна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391935 surname:: Григорьева name: Светлана patronymic: Владимировна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391936 surname:: Нищёва name: Ольга patronymic: Николаевна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391938 surname:: Коростель name: Елена patronymic: Юрьевна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391939 surname:: Николаева name: Ирина patronymic: Николаевна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391991 surname:: Турова name: Наталия patronymic: Борисовна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391937 surname:: Довгань name: Ирина patronymic: Борисовна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391993 surname:: Воробьева name: Елена patronymic: Владимировна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391994 surname:: Бойкова name: Ольга patronymic: Петровна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391995 surname:: Новожилова name: Анна patronymic: Сергеевна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391940 surname:: Павлова name: Ольга patronymic: Владимировна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391941 surname:: Севина name: Виктория patronymic: Владимировна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391942 surname:: Пенушкова name: Надежда patronymic: Львовна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391943 surname:: Волкова name: Ольга patronymic: Евгеньевна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391943 surname:: Власова name: Анна patronymic: Витальевна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391947 surname:: Скрябина name: Наталья patronymic: Дмитриевна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391959 surname:: Коваль name: Наталья patronymic: Игоревна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391950 surname:: Белоусова name: Татьяна patronymic: Анатольевна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391951 surname:: Волкова name: Вера patronymic: Сергеевна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391989 surname:: Мишенева name: Елена patronymic: Александровна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391957 surname:: Константинова name: Ирина patronymic: Вадимовна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391956 surname:: Челябова name: Татьяна patronymic: Сергеевна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391958 surname:: Полякова name: Ольга patronymic: Николаевна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391961 surname:: Николаев name: Андрей patronymic: Вячеславович</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391999 surname:: Смирнов name: Андрей patronymic: Николаевич</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391967 surname:: Кондратьев name: Андрей patronymic: Сергеевич</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391963 surname:: Цветкова name: Виктория patronymic: Анатольевна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391964 surname:: Цветкова name: Елена patronymic: Васильевна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391965 surname:: Герасимов name: Василий patronymic: Владимирович</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391966 surname:: Валеев name: Асхат patronymic: Ахатович</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135354844 surname:: Проневич name: Руслан patronymic: Валерьевич</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391962 surname:: Корчагин name: Владимир patronymic: Павлович</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391998 surname:: Кобяков name: Андрей patronymic: Михайлович</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391963 surname:: Фадеев name: Максим patronymic: Дмитриевич</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391990 surname:: Гурьянов name: Семен patronymic: Николаевич</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391971 surname:: Лапин name: Александр patronymic: Викторович</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391972 surname:: Юрьев name: Антон patronymic: Николаевич</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391973 surname:: Березин name: Олег patronymic: Викторович</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391974 surname:: Блувштейн name: Денис patronymic: Вячеславович</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391975 surname:: Чижов name: Андрей patronymic: Александрович</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391970 surname:: Соколов name: Вадим patronymic: Владимирович</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391976 surname:: Кузнецов name: Михаил patronymic: Тимофеевич</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391977 surname:: Муравьёв name: Александр patronymic: Владимирович</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391979 surname:: Николаев name: Евгений patronymic: Михайлович</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391978 surname:: Бобылев name: Алексей patronymic: Васильевич</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391981 surname:: Маркова name: Елена patronymic: Борисовна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391918 surname:: Загвозкина name: Евгения patronymic: Юрьевна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391982 surname:: Вершинина name: Любовь patronymic: Александровна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391982 surname:: Малинина name: Наталья patronymic: Евгеньевна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391987 surname:: Пуговкина name: Анна patronymic: Викторовна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391983 surname:: Зинцова name: Светлана patronymic: Олеговна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391984 surname:: Калинина name: Надежда patronymic: Николаевна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391985 surname:: Красилова name: Елена patronymic: Витальевна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135391986 surname:: Старжинская name: Екатерина patronymic: Николаевна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625401 surname:: Ложников name: Михаил patronymic: Михайлович</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625402 surname:: Соловьева name: Елена patronymic: Николаевна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625403 surname:: Чувиляев name: Сергей patronymic: Валерьевич</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625404 surname:: Попова name: Гузалия patronymic: Минулловна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625405 surname:: Боровикова name: Ольга patronymic: Константиновна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625400 surname:: Гусева name: Светлана patronymic: Дмитриевна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625410 surname:: Тощакова name: Ольга patronymic: Владимировна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625411 surname:: Лукьяненкова name: Елена patronymic: Анатольевна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625412 surname:: Новикова name: Екатерина patronymic: Николаевна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625413 surname:: Медведева name: Елена patronymic: Петровна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625414 surname:: Смирнова name: Светлана patronymic: Владимировна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625415 surname:: Гусева name: Наталья patronymic: Львовна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625416 surname:: Тихомирова name: Наталья patronymic: Владимировна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625417 surname:: Салова name: Светлана patronymic: Ивановна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625418 surname:: Исаева name: Ирина patronymic: Евгеньевна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625419 surname:: Антонова name: Галина patronymic: Ремовна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625406 surname:: Карпова name: Галина patronymic: Валентиновна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625407 surname:: Смирнова name: Наталья patronymic: Дмитриевна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625408 surname:: Королева name: Галина patronymic: Владимировна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625409 surname:: Бахарева name: Ольга patronymic: Дмитриевна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625450 surname:: Оськина name: Наталья patronymic: Андреевна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625451 surname:: Рыжова name: Татьяна patronymic: Сергеевна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625456 surname:: Костенко name: Оксана patronymic: Сергеевна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625458 surname:: Кевина name: Людмила patronymic: Васильевна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625459 surname:: Ермолаева name: Татьяна patronymic: Юрьевна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625420 surname:: Зорина name: Светлана patronymic: Юрьевна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625421 surname:: Карпова name: Ирина patronymic: Владимировна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625422 surname:: Рыжова name: Мария patronymic: Станиславовна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625423 surname:: Антонова name: Светлана patronymic: Аюповна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625424 surname:: Решетникова name: Юлия patronymic: Вячеславовна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625425 surname:: Алифанова name: Наталия patronymic: Владимировна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625426 surname:: Дунаев name: Илья patronymic: Владимирович</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625430 surname:: Бородина name: Ирина patronymic: Борисовна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625431 surname:: Мемнонова name: Ольга patronymic: Вячеславовна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625432 surname:: Зарубина name: Валентина patronymic: Сергеевна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625433 surname:: Горчакова name: Татьяна patronymic: Валерьевна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625434 surname:: Девятых name: Елена patronymic: Борисовна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625435 surname:: Серова name: Любовь patronymic: Николаевна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625436 surname:: Егорова name: Галина patronymic: Александровна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625437 surname:: Родионова name: Надежда patronymic: Юрьевна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625440 surname:: Батенова name: Наталья patronymic: Михайловна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625441 surname:: Белова name: Ольга patronymic: Михайловна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625442 surname:: Тютюнова name: Ирина patronymic: Евгеньевна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625443 surname:: Суворова name: Марина patronymic: Владимировна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625444 surname:: Королькова name: Елена patronymic: Валерьевна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625445 surname:: Фролова name: Юлия patronymic: Александровна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625446 surname:: Воронова name: Анна patronymic: Николаевна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625447 surname:: Зимина name: Анастасия patronymic: Анатольевна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625448 surname:: Апалько name: Оксана patronymic: Владимировна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625449 surname:: Смирнова name: Ирина patronymic: Александровна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625453 surname:: Ляпугин name: Алексей patronymic: Николаевич</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625454 surname:: Калинин name: Сергей patronymic: Николаевич</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625455 surname:: Решетова name: Светлана patronymic: Владимировна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625460 surname:: Смирнова name: Ирина patronymic: Александровна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625461 surname:: Тимонина name: Елена patronymic: Анатольевна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625462 surname:: Базанкова name: Марина patronymic: Владимировна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625463 surname:: Криволуцкая name: Наталья patronymic: Анатольевна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625464 surname:: Федосеева name: Светлана patronymic: Константиновна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625465 surname:: Исакова name: Елена patronymic: Васильевна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625466 surname:: Соболева name: Татьяна patronymic: Ивановна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625467 surname:: Асекритова name: Марина patronymic: Андреевна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625468 surname:: Коротаева name: Алла patronymic: Николаевна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625470 surname:: Козлов name: Александр patronymic: Анатольевич</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625471 surname:: Крылов name: Олег patronymic: Витальевич</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625472 surname:: Малый name: Николай patronymic: Александрович</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625473 surname:: Киселева name: Ольга patronymic: Борисовна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625474 surname:: Лошкина name: Анна patronymic: Викторовна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625475 surname:: Тряскина name: Елена patronymic: Борисовна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625476 surname:: Синяк name: Борис patronymic: Николаевич</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625477 surname:: Егорычева name: Нина patronymic: Михайловна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625478 surname:: Рогова name: Ирина patronymic: Федоровна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625479 surname:: Киселева name: Ксения patronymic: Александровна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625480 surname:: Козина name: Ирина patronymic: Владимировна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625481 surname:: Розанова name: Марина patronymic: Анатольевна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625482 surname:: Тихомирова name: Светлана patronymic: Валентиновна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135626482 surname:: Лошкина name: Ирина patronymic: Анатольевна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625483 surname:: Дмитриева name: Елена patronymic: Владимировна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625484 surname:: Шумкова name: Наталья patronymic: Жоржевна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625485 surname:: Фролова name: Светлана patronymic: Андреевна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135455331 surname:: Попова name: Гузалия patronymic: Минулловна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135455411 surname:: Колотильщикова name: Борис patronymic: Александрович</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135465411 surname:: Сомикова name: Светлана patronymic: Владимировна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135473411 surname:: Михайловская name: Юлия patronymic: Викторовна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135455481 surname:: Никитина name: Гамиля patronymic: Хаджимуратовна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135455421 surname:: Фунтова name: Надежда patronymic: Анатольевна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135455381 surname:: Соловьева name: Наталья patronymic: Анатольевна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135455311 surname:: Серова name: Елена patronymic: Николаевна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135455481 surname:: Шемягина name: Людмила patronymic: Анатольевна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135455481 surname:: Дружинина name: Ольга patronymic: Николаевна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135455431 surname:: Золянова name: Надежда patronymic: Олеговна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135455431 surname:: Никифорова name: Юлия patronymic: Сергеевна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135455402 surname:: Махова name: Лидия patronymic: Ивановна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135642238 surname:: Антонюк name: Елена patronymic: Юрьевна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135642237 surname:: Лукоянова name: Виктория patronymic: Владимировна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135642240 surname:: Молчанова name: Александр patronymic: Николаевич</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135642237 surname:: Федосеева name: Ольга patronymic: Игоревна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135642237 surname:: Антонюк name: Евгений patronymic: Валерьевич</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135625491 surname:: Сомикова name: Мария patronymic: Александровна</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135642239 surname:: Горшенин name: Сергей patronymic: Валентинович</t>
-  </si>
-  <si>
-    <t>,phone: +7 9135642239 surname:: Балашов name: Павел patronymic: Александрович</t>
-  </si>
-  <si>
-    <t>,phone: +79135625492 surname:: Палибина name: Наталья patronymic: Николаевна</t>
+    <t>phone: +7 9065350252 surname: Ложников name: Михаил patronymic: Михайлович</t>
+  </si>
+  <si>
+    <t>phone: +7 9065350253 surname: Чувиляев name: Сергей patronymic: Валерьевич</t>
+  </si>
+  <si>
+    <t>phone: +7 9065513827 surname: Соловьева name: Елена patronymic: Николаевна</t>
+  </si>
+  <si>
+    <t>phone: +7 9065356644 surname: Кремешкова name: Ирина patronymic: Валентиновна</t>
+  </si>
+  <si>
+    <t>phone: +7 9065391909 surname: Шичкина name: Ольга patronymic: Алексеевна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391910 surname: Мадрахимов name: Бахтияр patronymic: Тургунбаевич</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391911 surname: Тарасова name: Елена patronymic: Николаевна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391915 surname: Швецова name: Ольга patronymic: Петровна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391948 surname: Мальцева name: Жанна patronymic: Викторовна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391913 surname: Луговкина name: Елена patronymic: Владимировна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391914 surname: Логинов name: Александр patronymic: Александрович</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391919 surname: Старкова name: Елена patronymic: Львовна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391907 surname: Семенов name: Андрей patronymic: Геннадьевич</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391925 surname: Волкова name: Ольга patronymic: Валерьевна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391920 surname: Васильева name: Ольга patronymic: Владимировна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391921 surname: Антипина name: Ирина patronymic: Владимировна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391922 surname: Кустова name: Ольга patronymic: Александровна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391924 surname: Капустина name: Ольга patronymic: Викторовна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391908 surname: Веселова name: Ольга patronymic: Владимировна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391927 surname: Максимова name: Ольга patronymic: Вячеславовна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391926 surname: Малышева name: Фаина patronymic: Павловна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391928 surname: Волина name: Ирина patronymic: Александровна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391929 surname: Фролова name: Мария patronymic: Николаевна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391906 surname: Семенова name: Елена patronymic: Валерьевна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391923 surname: Суворова name: Эльвира patronymic: Федоровна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391916 surname: Панкратова name: Ирина patronymic: Владимировна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391918 surname: Смирнова name: Лариса patronymic: Валентиновна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391912 surname: Виноградова name: Наталья patronymic: Васильевна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391917 surname: Сафронова name: Галина patronymic: Анатольевна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391918 surname: Кудрякова name: Ольга patronymic: Владимировна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391930 surname: Кочнева name: Вера patronymic: Николаевна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391933 surname: Кошелева name: Елена patronymic: Владимировна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391932 surname: Белякова name: Ольга patronymic: Анатольевна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391931 surname: Дружинина name: Татьяна patronymic: Александровна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391995 surname: Ипатова name: Катерина patronymic: Андреевна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391935 surname: Григорьева name: Светлана patronymic: Владимировна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391936 surname: Нищёва name: Ольга patronymic: Николаевна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391938 surname: Коростель name: Елена patronymic: Юрьевна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391939 surname: Николаева name: Ирина patronymic: Николаевна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391991 surname: Турова name: Наталия patronymic: Борисовна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391937 surname: Довгань name: Ирина patronymic: Борисовна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391993 surname: Воробьева name: Елена patronymic: Владимировна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391994 surname: Бойкова name: Ольга patronymic: Петровна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391995 surname: Новожилова name: Анна patronymic: Сергеевна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391940 surname: Павлова name: Ольга patronymic: Владимировна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391941 surname: Севина name: Виктория patronymic: Владимировна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391942 surname: Пенушкова name: Надежда patronymic: Львовна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391943 surname: Волкова name: Ольга patronymic: Евгеньевна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391943 surname: Власова name: Анна patronymic: Витальевна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391947 surname: Скрябина name: Наталья patronymic: Дмитриевна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391959 surname: Коваль name: Наталья patronymic: Игоревна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391950 surname: Белоусова name: Татьяна patronymic: Анатольевна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391951 surname: Волкова name: Вера patronymic: Сергеевна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391989 surname: Мишенева name: Елена patronymic: Александровна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391957 surname: Константинова name: Ирина patronymic: Вадимовна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391956 surname: Челябова name: Татьяна patronymic: Сергеевна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391958 surname: Полякова name: Ольга patronymic: Николаевна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391961 surname: Николаев name: Андрей patronymic: Вячеславович</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391999 surname: Смирнов name: Андрей patronymic: Николаевич</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391967 surname: Кондратьев name: Андрей patronymic: Сергеевич</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391963 surname: Цветкова name: Виктория patronymic: Анатольевна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391964 surname: Цветкова name: Елена patronymic: Васильевна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391965 surname: Герасимов name: Василий patronymic: Владимирович</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391966 surname: Валеев name: Асхат patronymic: Ахатович</t>
+  </si>
+  <si>
+    <t>phone: +7 9135354844 surname: Проневич name: Руслан patronymic: Валерьевич</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391962 surname: Корчагин name: Владимир patronymic: Павлович</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391998 surname: Кобяков name: Андрей patronymic: Михайлович</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391963 surname: Фадеев name: Максим patronymic: Дмитриевич</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391990 surname: Гурьянов name: Семен patronymic: Николаевич</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391971 surname: Лапин name: Александр patronymic: Викторович</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391972 surname: Юрьев name: Антон patronymic: Николаевич</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391973 surname: Березин name: Олег patronymic: Викторович</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391974 surname: Блувштейн name: Денис patronymic: Вячеславович</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391975 surname: Чижов name: Андрей patronymic: Александрович</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391970 surname: Соколов name: Вадим patronymic: Владимирович</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391976 surname: Кузнецов name: Михаил patronymic: Тимофеевич</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391977 surname: Муравьёв name: Александр patronymic: Владимирович</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391979 surname: Николаев name: Евгений patronymic: Михайлович</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391978 surname: Бобылев name: Алексей patronymic: Васильевич</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391981 surname: Маркова name: Елена patronymic: Борисовна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391918 surname: Загвозкина name: Евгения patronymic: Юрьевна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391982 surname: Вершинина name: Любовь patronymic: Александровна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391982 surname: Малинина name: Наталья patronymic: Евгеньевна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391987 surname: Пуговкина name: Анна patronymic: Викторовна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391983 surname: Зинцова name: Светлана patronymic: Олеговна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391984 surname: Калинина name: Надежда patronymic: Николаевна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391985 surname: Красилова name: Елена patronymic: Витальевна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391986 surname: Старжинская name: Екатерина patronymic: Николаевна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625401 surname: Ложников name: Михаил patronymic: Михайлович</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625402 surname: Соловьева name: Елена patronymic: Николаевна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625403 surname: Чувиляев name: Сергей patronymic: Валерьевич</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625404 surname: Попова name: Гузалия patronymic: Минулловна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625405 surname: Боровикова name: Ольга patronymic: Константиновна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625400 surname: Гусева name: Светлана patronymic: Дмитриевна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625410 surname: Тощакова name: Ольга patronymic: Владимировна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625411 surname: Лукьяненкова name: Елена patronymic: Анатольевна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625412 surname: Новикова name: Екатерина patronymic: Николаевна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625413 surname: Медведева name: Елена patronymic: Петровна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625414 surname: Смирнова name: Светлана patronymic: Владимировна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625415 surname: Гусева name: Наталья patronymic: Львовна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625416 surname: Тихомирова name: Наталья patronymic: Владимировна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625417 surname: Салова name: Светлана patronymic: Ивановна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625418 surname: Исаева name: Ирина patronymic: Евгеньевна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625419 surname: Антонова name: Галина patronymic: Ремовна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625406 surname: Карпова name: Галина patronymic: Валентиновна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625407 surname: Смирнова name: Наталья patronymic: Дмитриевна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625408 surname: Королева name: Галина patronymic: Владимировна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625409 surname: Бахарева name: Ольга patronymic: Дмитриевна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625450 surname: Оськина name: Наталья patronymic: Андреевна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625451 surname: Рыжова name: Татьяна patronymic: Сергеевна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625456 surname: Костенко name: Оксана patronymic: Сергеевна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625458 surname: Кевина name: Людмила patronymic: Васильевна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625459 surname: Ермолаева name: Татьяна patronymic: Юрьевна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625420 surname: Зорина name: Светлана patronymic: Юрьевна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625421 surname: Карпова name: Ирина patronymic: Владимировна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625422 surname: Рыжова name: Мария patronymic: Станиславовна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625423 surname: Антонова name: Светлана patronymic: Аюповна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625424 surname: Решетникова name: Юлия patronymic: Вячеславовна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625425 surname: Алифанова name: Наталия patronymic: Владимировна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625426 surname: Дунаев name: Илья patronymic: Владимирович</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625430 surname: Бородина name: Ирина patronymic: Борисовна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625431 surname: Мемнонова name: Ольга patronymic: Вячеславовна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625432 surname: Зарубина name: Валентина patronymic: Сергеевна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625433 surname: Горчакова name: Татьяна patronymic: Валерьевна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625434 surname: Девятых name: Елена patronymic: Борисовна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625435 surname: Серова name: Любовь patronymic: Николаевна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625436 surname: Егорова name: Галина patronymic: Александровна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625437 surname: Родионова name: Надежда patronymic: Юрьевна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625440 surname: Батенова name: Наталья patronymic: Михайловна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625441 surname: Белова name: Ольга patronymic: Михайловна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625442 surname: Тютюнова name: Ирина patronymic: Евгеньевна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625443 surname: Суворова name: Марина patronymic: Владимировна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625444 surname: Королькова name: Елена patronymic: Валерьевна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625445 surname: Фролова name: Юлия patronymic: Александровна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625446 surname: Воронова name: Анна patronymic: Николаевна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625447 surname: Зимина name: Анастасия patronymic: Анатольевна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625448 surname: Апалько name: Оксана patronymic: Владимировна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625449 surname: Смирнова name: Ирина patronymic: Александровна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625453 surname: Ляпугин name: Алексей patronymic: Николаевич</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625454 surname: Калинин name: Сергей patronymic: Николаевич</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625455 surname: Решетова name: Светлана patronymic: Владимировна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625460 surname: Смирнова name: Ирина patronymic: Александровна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625461 surname: Тимонина name: Елена patronymic: Анатольевна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625462 surname: Базанкова name: Марина patronymic: Владимировна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625463 surname: Криволуцкая name: Наталья patronymic: Анатольевна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625464 surname: Федосеева name: Светлана patronymic: Константиновна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625465 surname: Исакова name: Елена patronymic: Васильевна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625466 surname: Соболева name: Татьяна patronymic: Ивановна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625467 surname: Асекритова name: Марина patronymic: Андреевна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625468 surname: Коротаева name: Алла patronymic: Николаевна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625470 surname: Козлов name: Александр patronymic: Анатольевич</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625471 surname: Крылов name: Олег patronymic: Витальевич</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625472 surname: Малый name: Николай patronymic: Александрович</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625473 surname: Киселева name: Ольга patronymic: Борисовна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625474 surname: Лошкина name: Анна patronymic: Викторовна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625475 surname: Тряскина name: Елена patronymic: Борисовна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625476 surname: Синяк name: Борис patronymic: Николаевич</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625477 surname: Егорычева name: Нина patronymic: Михайловна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625478 surname: Рогова name: Ирина patronymic: Федоровна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625479 surname: Киселева name: Ксения patronymic: Александровна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625480 surname: Козина name: Ирина patronymic: Владимировна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625481 surname: Розанова name: Марина patronymic: Анатольевна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625482 surname: Тихомирова name: Светлана patronymic: Валентиновна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135626482 surname: Лошкина name: Ирина patronymic: Анатольевна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625483 surname: Дмитриева name: Елена patronymic: Владимировна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625484 surname: Шумкова name: Наталья patronymic: Жоржевна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625485 surname: Фролова name: Светлана patronymic: Андреевна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135455331 surname: Попова name: Гузалия patronymic: Минулловна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135455411 surname: Колотильщикова name: Борис patronymic: Александрович</t>
+  </si>
+  <si>
+    <t>phone: +7 9135465411 surname: Сомикова name: Светлана patronymic: Владимировна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135473411 surname: Михайловская name: Юлия patronymic: Викторовна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135455481 surname: Никитина name: Гамиля patronymic: Хаджимуратовна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135455421 surname: Фунтова name: Надежда patronymic: Анатольевна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135455381 surname: Соловьева name: Наталья patronymic: Анатольевна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135455311 surname: Серова name: Елена patronymic: Николаевна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135455481 surname: Шемягина name: Людмила patronymic: Анатольевна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135455481 surname: Дружинина name: Ольга patronymic: Николаевна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135455431 surname: Золянова name: Надежда patronymic: Олеговна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135455431 surname: Никифорова name: Юлия patronymic: Сергеевна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135455402 surname: Махова name: Лидия patronymic: Ивановна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135642238 surname: Антонюк name: Елена patronymic: Юрьевна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135642237 surname: Лукоянова name: Виктория patronymic: Владимировна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135642240 surname: Молчанова name: Александр patronymic: Николаевич</t>
+  </si>
+  <si>
+    <t>phone: +7 9135642237 surname: Федосеева name: Ольга patronymic: Игоревна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135642237 surname: Антонюк name: Евгений patronymic: Валерьевич</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625491 surname: Сомикова name: Мария patronymic: Александровна</t>
+  </si>
+  <si>
+    <t>phone: +7 9135642239 surname: Горшенин name: Сергей patronymic: Валентинович</t>
+  </si>
+  <si>
+    <t>phone: +7 9135642239 surname: Балашов name: Павел patronymic: Александрович</t>
+  </si>
+  <si>
+    <t>phone: +79135625492 surname: Палибина name: Наталья patronymic: Николаевна</t>
+  </si>
+  <si>
+    <t>phone: +7 9065350252 surname: Ложников name: Михаил patronymic: Михайлович,</t>
+  </si>
+  <si>
+    <t>phone: +7 9065350253 surname: Чувиляев name: Сергей patronymic: Валерьевич,</t>
+  </si>
+  <si>
+    <t>phone: +7 9065513827 surname: Соловьева name: Елена patronymic: Николаевна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9065356644 surname: Кремешкова name: Ирина patronymic: Валентиновна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9065391909 surname: Шичкина name: Ольга patronymic: Алексеевна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391910 surname: Мадрахимов name: Бахтияр patronymic: Тургунбаевич,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391911 surname: Тарасова name: Елена patronymic: Николаевна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391915 surname: Швецова name: Ольга patronymic: Петровна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391948 surname: Мальцева name: Жанна patronymic: Викторовна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391913 surname: Луговкина name: Елена patronymic: Владимировна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391914 surname: Логинов name: Александр patronymic: Александрович,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391919 surname: Старкова name: Елена patronymic: Львовна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391907 surname: Семенов name: Андрей patronymic: Геннадьевич,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391925 surname: Волкова name: Ольга patronymic: Валерьевна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391920 surname: Васильева name: Ольга patronymic: Владимировна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391921 surname: Антипина name: Ирина patronymic: Владимировна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391922 surname: Кустова name: Ольга patronymic: Александровна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391924 surname: Капустина name: Ольга patronymic: Викторовна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391908 surname: Веселова name: Ольга patronymic: Владимировна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391927 surname: Максимова name: Ольга patronymic: Вячеславовна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391926 surname: Малышева name: Фаина patronymic: Павловна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391928 surname: Волина name: Ирина patronymic: Александровна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391929 surname: Фролова name: Мария patronymic: Николаевна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391906 surname: Семенова name: Елена patronymic: Валерьевна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391923 surname: Суворова name: Эльвира patronymic: Федоровна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391916 surname: Панкратова name: Ирина patronymic: Владимировна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391918 surname: Смирнова name: Лариса patronymic: Валентиновна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391912 surname: Виноградова name: Наталья patronymic: Васильевна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391917 surname: Сафронова name: Галина patronymic: Анатольевна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391918 surname: Кудрякова name: Ольга patronymic: Владимировна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391930 surname: Кочнева name: Вера patronymic: Николаевна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391933 surname: Кошелева name: Елена patronymic: Владимировна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391932 surname: Белякова name: Ольга patronymic: Анатольевна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391931 surname: Дружинина name: Татьяна patronymic: Александровна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391995 surname: Ипатова name: Катерина patronymic: Андреевна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391935 surname: Григорьева name: Светлана patronymic: Владимировна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391936 surname: Нищёва name: Ольга patronymic: Николаевна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391938 surname: Коростель name: Елена patronymic: Юрьевна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391939 surname: Николаева name: Ирина patronymic: Николаевна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391991 surname: Турова name: Наталия patronymic: Борисовна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391937 surname: Довгань name: Ирина patronymic: Борисовна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391993 surname: Воробьева name: Елена patronymic: Владимировна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391994 surname: Бойкова name: Ольга patronymic: Петровна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391995 surname: Новожилова name: Анна patronymic: Сергеевна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391940 surname: Павлова name: Ольга patronymic: Владимировна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391941 surname: Севина name: Виктория patronymic: Владимировна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391942 surname: Пенушкова name: Надежда patronymic: Львовна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391943 surname: Волкова name: Ольга patronymic: Евгеньевна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391943 surname: Власова name: Анна patronymic: Витальевна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391947 surname: Скрябина name: Наталья patronymic: Дмитриевна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391959 surname: Коваль name: Наталья patronymic: Игоревна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391950 surname: Белоусова name: Татьяна patronymic: Анатольевна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391951 surname: Волкова name: Вера patronymic: Сергеевна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391989 surname: Мишенева name: Елена patronymic: Александровна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391957 surname: Константинова name: Ирина patronymic: Вадимовна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391956 surname: Челябова name: Татьяна patronymic: Сергеевна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391958 surname: Полякова name: Ольга patronymic: Николаевна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391961 surname: Николаев name: Андрей patronymic: Вячеславович,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391999 surname: Смирнов name: Андрей patronymic: Николаевич,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391967 surname: Кондратьев name: Андрей patronymic: Сергеевич,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391963 surname: Цветкова name: Виктория patronymic: Анатольевна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391964 surname: Цветкова name: Елена patronymic: Васильевна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391965 surname: Герасимов name: Василий patronymic: Владимирович,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391966 surname: Валеев name: Асхат patronymic: Ахатович,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135354844 surname: Проневич name: Руслан patronymic: Валерьевич,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391962 surname: Корчагин name: Владимир patronymic: Павлович,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391998 surname: Кобяков name: Андрей patronymic: Михайлович,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391963 surname: Фадеев name: Максим patronymic: Дмитриевич,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391990 surname: Гурьянов name: Семен patronymic: Николаевич,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391971 surname: Лапин name: Александр patronymic: Викторович,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391972 surname: Юрьев name: Антон patronymic: Николаевич,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391973 surname: Березин name: Олег patronymic: Викторович,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391974 surname: Блувштейн name: Денис patronymic: Вячеславович,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391975 surname: Чижов name: Андрей patronymic: Александрович,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391970 surname: Соколов name: Вадим patronymic: Владимирович,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391976 surname: Кузнецов name: Михаил patronymic: Тимофеевич,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391977 surname: Муравьёв name: Александр patronymic: Владимирович,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391979 surname: Николаев name: Евгений patronymic: Михайлович,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391978 surname: Бобылев name: Алексей patronymic: Васильевич,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391981 surname: Маркова name: Елена patronymic: Борисовна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391918 surname: Загвозкина name: Евгения patronymic: Юрьевна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391982 surname: Вершинина name: Любовь patronymic: Александровна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391982 surname: Малинина name: Наталья patronymic: Евгеньевна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391987 surname: Пуговкина name: Анна patronymic: Викторовна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391983 surname: Зинцова name: Светлана patronymic: Олеговна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391984 surname: Калинина name: Надежда patronymic: Николаевна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391985 surname: Красилова name: Елена patronymic: Витальевна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135391986 surname: Старжинская name: Екатерина patronymic: Николаевна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625401 surname: Ложников name: Михаил patronymic: Михайлович,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625402 surname: Соловьева name: Елена patronymic: Николаевна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625403 surname: Чувиляев name: Сергей patronymic: Валерьевич,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625404 surname: Попова name: Гузалия patronymic: Минулловна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625405 surname: Боровикова name: Ольга patronymic: Константиновна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625400 surname: Гусева name: Светлана patronymic: Дмитриевна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625410 surname: Тощакова name: Ольга patronymic: Владимировна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625411 surname: Лукьяненкова name: Елена patronymic: Анатольевна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625412 surname: Новикова name: Екатерина patronymic: Николаевна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625413 surname: Медведева name: Елена patronymic: Петровна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625414 surname: Смирнова name: Светлана patronymic: Владимировна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625415 surname: Гусева name: Наталья patronymic: Львовна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625416 surname: Тихомирова name: Наталья patronymic: Владимировна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625417 surname: Салова name: Светлана patronymic: Ивановна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625418 surname: Исаева name: Ирина patronymic: Евгеньевна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625419 surname: Антонова name: Галина patronymic: Ремовна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625406 surname: Карпова name: Галина patronymic: Валентиновна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625407 surname: Смирнова name: Наталья patronymic: Дмитриевна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625408 surname: Королева name: Галина patronymic: Владимировна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625409 surname: Бахарева name: Ольга patronymic: Дмитриевна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625450 surname: Оськина name: Наталья patronymic: Андреевна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625451 surname: Рыжова name: Татьяна patronymic: Сергеевна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625456 surname: Костенко name: Оксана patronymic: Сергеевна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625458 surname: Кевина name: Людмила patronymic: Васильевна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625459 surname: Ермолаева name: Татьяна patronymic: Юрьевна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625420 surname: Зорина name: Светлана patronymic: Юрьевна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625421 surname: Карпова name: Ирина patronymic: Владимировна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625422 surname: Рыжова name: Мария patronymic: Станиславовна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625423 surname: Антонова name: Светлана patronymic: Аюповна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625424 surname: Решетникова name: Юлия patronymic: Вячеславовна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625425 surname: Алифанова name: Наталия patronymic: Владимировна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625426 surname: Дунаев name: Илья patronymic: Владимирович,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625430 surname: Бородина name: Ирина patronymic: Борисовна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625431 surname: Мемнонова name: Ольга patronymic: Вячеславовна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625432 surname: Зарубина name: Валентина patronymic: Сергеевна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625433 surname: Горчакова name: Татьяна patronymic: Валерьевна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625434 surname: Девятых name: Елена patronymic: Борисовна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625435 surname: Серова name: Любовь patronymic: Николаевна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625436 surname: Егорова name: Галина patronymic: Александровна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625437 surname: Родионова name: Надежда patronymic: Юрьевна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625440 surname: Батенова name: Наталья patronymic: Михайловна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625441 surname: Белова name: Ольга patronymic: Михайловна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625442 surname: Тютюнова name: Ирина patronymic: Евгеньевна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625443 surname: Суворова name: Марина patronymic: Владимировна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625444 surname: Королькова name: Елена patronymic: Валерьевна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625445 surname: Фролова name: Юлия patronymic: Александровна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625446 surname: Воронова name: Анна patronymic: Николаевна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625447 surname: Зимина name: Анастасия patronymic: Анатольевна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625448 surname: Апалько name: Оксана patronymic: Владимировна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625449 surname: Смирнова name: Ирина patronymic: Александровна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625453 surname: Ляпугин name: Алексей patronymic: Николаевич,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625454 surname: Калинин name: Сергей patronymic: Николаевич,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625455 surname: Решетова name: Светлана patronymic: Владимировна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625460 surname: Смирнова name: Ирина patronymic: Александровна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625461 surname: Тимонина name: Елена patronymic: Анатольевна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625462 surname: Базанкова name: Марина patronymic: Владимировна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625463 surname: Криволуцкая name: Наталья patronymic: Анатольевна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625464 surname: Федосеева name: Светлана patronymic: Константиновна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625465 surname: Исакова name: Елена patronymic: Васильевна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625466 surname: Соболева name: Татьяна patronymic: Ивановна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625467 surname: Асекритова name: Марина patronymic: Андреевна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625468 surname: Коротаева name: Алла patronymic: Николаевна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625470 surname: Козлов name: Александр patronymic: Анатольевич,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625471 surname: Крылов name: Олег patronymic: Витальевич,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625472 surname: Малый name: Николай patronymic: Александрович,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625473 surname: Киселева name: Ольга patronymic: Борисовна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625474 surname: Лошкина name: Анна patronymic: Викторовна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625475 surname: Тряскина name: Елена patronymic: Борисовна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625476 surname: Синяк name: Борис patronymic: Николаевич,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625477 surname: Егорычева name: Нина patronymic: Михайловна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625478 surname: Рогова name: Ирина patronymic: Федоровна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625479 surname: Киселева name: Ксения patronymic: Александровна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625480 surname: Козина name: Ирина patronymic: Владимировна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625481 surname: Розанова name: Марина patronymic: Анатольевна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625482 surname: Тихомирова name: Светлана patronymic: Валентиновна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135626482 surname: Лошкина name: Ирина patronymic: Анатольевна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625483 surname: Дмитриева name: Елена patronymic: Владимировна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625484 surname: Шумкова name: Наталья patronymic: Жоржевна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625485 surname: Фролова name: Светлана patronymic: Андреевна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135455331 surname: Попова name: Гузалия patronymic: Минулловна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135455411 surname: Колотильщикова name: Борис patronymic: Александрович,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135465411 surname: Сомикова name: Светлана patronymic: Владимировна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135473411 surname: Михайловская name: Юлия patronymic: Викторовна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135455481 surname: Никитина name: Гамиля patronymic: Хаджимуратовна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135455421 surname: Фунтова name: Надежда patronymic: Анатольевна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135455381 surname: Соловьева name: Наталья patronymic: Анатольевна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135455311 surname: Серова name: Елена patronymic: Николаевна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135455481 surname: Шемягина name: Людмила patronymic: Анатольевна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135455481 surname: Дружинина name: Ольга patronymic: Николаевна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135455431 surname: Золянова name: Надежда patronymic: Олеговна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135455431 surname: Никифорова name: Юлия patronymic: Сергеевна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135455402 surname: Махова name: Лидия patronymic: Ивановна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135642238 surname: Антонюк name: Елена patronymic: Юрьевна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135642237 surname: Лукоянова name: Виктория patronymic: Владимировна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135642240 surname: Молчанова name: Александр patronymic: Николаевич,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135642237 surname: Федосеева name: Ольга patronymic: Игоревна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135642237 surname: Антонюк name: Евгений patronymic: Валерьевич,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135625491 surname: Сомикова name: Мария patronymic: Александровна,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135642239 surname: Горшенин name: Сергей patronymic: Валентинович,</t>
+  </si>
+  <si>
+    <t>phone: +7 9135642239 surname: Балашов name: Павел patronymic: Александрович,</t>
+  </si>
+  <si>
+    <t>phone: +79135625492 surname: Палибина name: Наталья patronymic: Николаевна,</t>
   </si>
 </sst>
 </file>
@@ -6612,10 +7179,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:R194"/>
+  <dimension ref="A3:AB194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6:R194"/>
+    <sheetView tabSelected="1" topLeftCell="K2" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6628,12 +7195,12 @@
     <col min="12" max="12" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="M3" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -6650,7 +7217,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -6673,8 +7240,15 @@
       <c r="R6" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA6" t="str">
+        <f>CONCATENATE(R6,",")</f>
+        <v>phone: +7 9065350252 surname: Ложников name: Михаил patronymic: Михайлович,</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -6697,8 +7271,15 @@
       <c r="R7" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA7" t="str">
+        <f t="shared" ref="AA7:AB70" si="1">CONCATENATE(R7,",")</f>
+        <v>phone: +7 9065350253 surname: Чувиляев name: Сергей patronymic: Валерьевич,</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -6721,8 +7302,15 @@
       <c r="R8" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA8" t="str">
+        <f t="shared" si="1"/>
+        <v>phone: +7 9065513827 surname: Соловьева name: Елена patronymic: Николаевна,</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -6745,8 +7333,15 @@
       <c r="R9" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA9" t="str">
+        <f t="shared" si="1"/>
+        <v>phone: +7 9065356644 surname: Кремешкова name: Ирина patronymic: Валентиновна,</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -6769,8 +7364,15 @@
       <c r="R10" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA10" t="str">
+        <f t="shared" si="1"/>
+        <v>phone: +7 9065391909 surname: Шичкина name: Ольга patronymic: Алексеевна,</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -6793,8 +7395,15 @@
       <c r="R11" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA11" t="str">
+        <f t="shared" si="1"/>
+        <v>phone: +7 9135391910 surname: Мадрахимов name: Бахтияр patronymic: Тургунбаевич,</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -6817,8 +7426,15 @@
       <c r="R12" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA12" t="str">
+        <f t="shared" si="1"/>
+        <v>phone: +7 9135391911 surname: Тарасова name: Елена patronymic: Николаевна,</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -6841,8 +7457,15 @@
       <c r="R13" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA13" t="str">
+        <f t="shared" si="1"/>
+        <v>phone: +7 9135391915 surname: Швецова name: Ольга patronymic: Петровна,</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -6865,8 +7488,15 @@
       <c r="R14" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA14" t="str">
+        <f t="shared" si="1"/>
+        <v>phone: +7 9135391948 surname: Мальцева name: Жанна patronymic: Викторовна,</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -6889,8 +7519,15 @@
       <c r="R15" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA15" t="str">
+        <f t="shared" si="1"/>
+        <v>phone: +7 9135391913 surname: Луговкина name: Елена patronymic: Владимировна,</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -6913,8 +7550,15 @@
       <c r="R16" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA16" t="str">
+        <f t="shared" si="1"/>
+        <v>phone: +7 9135391914 surname: Логинов name: Александр patronymic: Александрович,</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>57</v>
       </c>
@@ -6937,8 +7581,15 @@
       <c r="R17" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA17" t="str">
+        <f t="shared" si="1"/>
+        <v>phone: +7 9135391919 surname: Старкова name: Елена patronymic: Львовна,</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>61</v>
       </c>
@@ -6961,8 +7612,15 @@
       <c r="R18" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA18" t="str">
+        <f t="shared" si="1"/>
+        <v>phone: +7 9135391907 surname: Семенов name: Андрей patronymic: Геннадьевич,</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>66</v>
       </c>
@@ -6985,8 +7643,15 @@
       <c r="R19" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA19" t="str">
+        <f t="shared" si="1"/>
+        <v>phone: +7 9135391925 surname: Волкова name: Ольга patronymic: Валерьевна,</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>70</v>
       </c>
@@ -7009,8 +7674,15 @@
       <c r="R20" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA20" t="str">
+        <f t="shared" si="1"/>
+        <v>phone: +7 9135391920 surname: Васильева name: Ольга patronymic: Владимировна,</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>73</v>
       </c>
@@ -7033,8 +7705,15 @@
       <c r="R21" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA21" t="str">
+        <f t="shared" si="1"/>
+        <v>phone: +7 9135391921 surname: Антипина name: Ирина patronymic: Владимировна,</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>76</v>
       </c>
@@ -7057,8 +7736,15 @@
       <c r="R22" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA22" t="str">
+        <f t="shared" si="1"/>
+        <v>phone: +7 9135391922 surname: Кустова name: Ольга patronymic: Александровна,</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>80</v>
       </c>
@@ -7081,8 +7767,15 @@
       <c r="R23" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA23" t="str">
+        <f t="shared" si="1"/>
+        <v>phone: +7 9135391924 surname: Капустина name: Ольга patronymic: Викторовна,</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>83</v>
       </c>
@@ -7105,8 +7798,15 @@
       <c r="R24" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA24" t="str">
+        <f t="shared" si="1"/>
+        <v>phone: +7 9135391908 surname: Веселова name: Ольга patronymic: Владимировна,</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>86</v>
       </c>
@@ -7129,8 +7829,15 @@
       <c r="R25" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA25" t="str">
+        <f t="shared" si="1"/>
+        <v>phone: +7 9135391927 surname: Максимова name: Ольга patronymic: Вячеславовна,</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>90</v>
       </c>
@@ -7153,8 +7860,15 @@
       <c r="R26" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA26" t="str">
+        <f t="shared" si="1"/>
+        <v>phone: +7 9135391926 surname: Малышева name: Фаина patronymic: Павловна,</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>95</v>
       </c>
@@ -7177,8 +7891,15 @@
       <c r="R27" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA27" t="str">
+        <f t="shared" si="1"/>
+        <v>phone: +7 9135391928 surname: Волина name: Ирина patronymic: Александровна,</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>98</v>
       </c>
@@ -7201,8 +7922,15 @@
       <c r="R28" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA28" t="str">
+        <f t="shared" si="1"/>
+        <v>phone: +7 9135391929 surname: Фролова name: Мария patronymic: Николаевна,</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>102</v>
       </c>
@@ -7225,8 +7953,15 @@
       <c r="R29" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA29" t="str">
+        <f t="shared" si="1"/>
+        <v>phone: +7 9135391906 surname: Семенова name: Елена patronymic: Валерьевна,</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>105</v>
       </c>
@@ -7249,8 +7984,15 @@
       <c r="R30" t="s">
         <v>842</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA30" t="str">
+        <f t="shared" si="1"/>
+        <v>phone: +7 9135391923 surname: Суворова name: Эльвира patronymic: Федоровна,</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>110</v>
       </c>
@@ -7273,8 +8015,15 @@
       <c r="R31" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA31" t="str">
+        <f t="shared" si="1"/>
+        <v>phone: +7 9135391916 surname: Панкратова name: Ирина patronymic: Владимировна,</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>113</v>
       </c>
@@ -7297,8 +8046,15 @@
       <c r="R32" t="s">
         <v>844</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA32" t="str">
+        <f t="shared" si="1"/>
+        <v>phone: +7 9135391918 surname: Смирнова name: Лариса patronymic: Валентиновна,</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>117</v>
       </c>
@@ -7321,8 +8077,15 @@
       <c r="R33" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA33" t="str">
+        <f t="shared" si="1"/>
+        <v>phone: +7 9135391912 surname: Виноградова name: Наталья patronymic: Васильевна,</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>122</v>
       </c>
@@ -7345,8 +8108,15 @@
       <c r="R34" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA34" t="str">
+        <f t="shared" si="1"/>
+        <v>phone: +7 9135391917 surname: Сафронова name: Галина patronymic: Анатольевна,</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>127</v>
       </c>
@@ -7369,8 +8139,15 @@
       <c r="R35" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA35" t="str">
+        <f t="shared" si="1"/>
+        <v>phone: +7 9135391918 surname: Кудрякова name: Ольга patronymic: Владимировна,</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>129</v>
       </c>
@@ -7393,8 +8170,15 @@
       <c r="R36" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA36" t="str">
+        <f t="shared" si="1"/>
+        <v>phone: +7 9135391930 surname: Кочнева name: Вера patronymic: Николаевна,</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>133</v>
       </c>
@@ -7417,8 +8201,15 @@
       <c r="R37" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA37" t="str">
+        <f t="shared" si="1"/>
+        <v>phone: +7 9135391933 surname: Кошелева name: Елена patronymic: Владимировна,</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>136</v>
       </c>
@@ -7441,8 +8232,15 @@
       <c r="R38" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA38" t="str">
+        <f t="shared" si="1"/>
+        <v>phone: +7 9135391932 surname: Белякова name: Ольга patronymic: Анатольевна,</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>139</v>
       </c>
@@ -7465,8 +8263,15 @@
       <c r="R39" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA39" t="str">
+        <f t="shared" si="1"/>
+        <v>phone: +7 9135391931 surname: Дружинина name: Татьяна patronymic: Александровна,</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>143</v>
       </c>
@@ -7489,8 +8294,15 @@
       <c r="R40" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA40" t="str">
+        <f t="shared" si="1"/>
+        <v>phone: +7 9135391995 surname: Ипатова name: Катерина patronymic: Андреевна,</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>148</v>
       </c>
@@ -7513,8 +8325,15 @@
       <c r="R41" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA41" t="str">
+        <f t="shared" si="1"/>
+        <v>phone: +7 9135391935 surname: Григорьева name: Светлана patronymic: Владимировна,</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>152</v>
       </c>
@@ -7537,8 +8356,15 @@
       <c r="R42" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA42" t="str">
+        <f t="shared" si="1"/>
+        <v>phone: +7 9135391936 surname: Нищёва name: Ольга patronymic: Николаевна,</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>155</v>
       </c>
@@ -7561,8 +8387,15 @@
       <c r="R43" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA43" t="str">
+        <f t="shared" si="1"/>
+        <v>phone: +7 9135391938 surname: Коростель name: Елена patronymic: Юрьевна,</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>159</v>
       </c>
@@ -7585,8 +8418,15 @@
       <c r="R44" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA44" t="str">
+        <f t="shared" si="1"/>
+        <v>phone: +7 9135391939 surname: Николаева name: Ирина patronymic: Николаевна,</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>162</v>
       </c>
@@ -7609,8 +8449,15 @@
       <c r="R45" t="s">
         <v>857</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA45" t="str">
+        <f t="shared" si="1"/>
+        <v>phone: +7 9135391991 surname: Турова name: Наталия patronymic: Борисовна,</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>167</v>
       </c>
@@ -7633,8 +8480,15 @@
       <c r="R46" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA46" t="str">
+        <f t="shared" si="1"/>
+        <v>phone: +7 9135391937 surname: Довгань name: Ирина patronymic: Борисовна,</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>170</v>
       </c>
@@ -7657,8 +8511,15 @@
       <c r="R47" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA47" t="str">
+        <f t="shared" si="1"/>
+        <v>phone: +7 9135391993 surname: Воробьева name: Елена patronymic: Владимировна,</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>173</v>
       </c>
@@ -7681,8 +8542,15 @@
       <c r="R48" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA48" t="str">
+        <f t="shared" si="1"/>
+        <v>phone: +7 9135391994 surname: Бойкова name: Ольга patronymic: Петровна,</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>176</v>
       </c>
@@ -7705,8 +8573,15 @@
       <c r="R49" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA49" t="str">
+        <f t="shared" si="1"/>
+        <v>phone: +7 9135391995 surname: Новожилова name: Анна patronymic: Сергеевна,</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>180</v>
       </c>
@@ -7729,8 +8604,15 @@
       <c r="R50" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA50" t="str">
+        <f t="shared" si="1"/>
+        <v>phone: +7 9135391940 surname: Павлова name: Ольга patronymic: Владимировна,</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>183</v>
       </c>
@@ -7753,8 +8635,15 @@
       <c r="R51" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA51" t="str">
+        <f t="shared" si="1"/>
+        <v>phone: +7 9135391941 surname: Севина name: Виктория patronymic: Владимировна,</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>187</v>
       </c>
@@ -7777,8 +8666,15 @@
       <c r="R52" t="s">
         <v>864</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA52" t="str">
+        <f t="shared" si="1"/>
+        <v>phone: +7 9135391942 surname: Пенушкова name: Надежда patronymic: Львовна,</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>191</v>
       </c>
@@ -7801,8 +8697,15 @@
       <c r="R53" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA53" t="str">
+        <f t="shared" si="1"/>
+        <v>phone: +7 9135391943 surname: Волкова name: Ольга patronymic: Евгеньевна,</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>194</v>
       </c>
@@ -7825,8 +8728,15 @@
       <c r="R54" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA54" t="str">
+        <f t="shared" si="1"/>
+        <v>phone: +7 9135391943 surname: Власова name: Анна patronymic: Витальевна,</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>197</v>
       </c>
@@ -7849,8 +8759,15 @@
       <c r="R55" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA55" t="str">
+        <f t="shared" si="1"/>
+        <v>phone: +7 9135391947 surname: Скрябина name: Наталья patronymic: Дмитриевна,</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>201</v>
       </c>
@@ -7873,8 +8790,15 @@
       <c r="R56" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA56" t="str">
+        <f t="shared" si="1"/>
+        <v>phone: +7 9135391959 surname: Коваль name: Наталья patronymic: Игоревна,</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>205</v>
       </c>
@@ -7897,8 +8821,15 @@
       <c r="R57" t="s">
         <v>869</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA57" t="str">
+        <f t="shared" si="1"/>
+        <v>phone: +7 9135391950 surname: Белоусова name: Татьяна patronymic: Анатольевна,</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>208</v>
       </c>
@@ -7921,8 +8852,15 @@
       <c r="R58" t="s">
         <v>870</v>
       </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA58" t="str">
+        <f t="shared" si="1"/>
+        <v>phone: +7 9135391951 surname: Волкова name: Вера patronymic: Сергеевна,</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>210</v>
       </c>
@@ -7945,8 +8883,15 @@
       <c r="R59" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA59" t="str">
+        <f t="shared" si="1"/>
+        <v>phone: +7 9135391989 surname: Мишенева name: Елена patronymic: Александровна,</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>213</v>
       </c>
@@ -7969,8 +8914,15 @@
       <c r="R60" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA60" t="str">
+        <f t="shared" si="1"/>
+        <v>phone: +7 9135391957 surname: Константинова name: Ирина patronymic: Вадимовна,</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>217</v>
       </c>
@@ -7993,8 +8945,15 @@
       <c r="R61" t="s">
         <v>873</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA61" t="str">
+        <f t="shared" si="1"/>
+        <v>phone: +7 9135391956 surname: Челябова name: Татьяна patronymic: Сергеевна,</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>220</v>
       </c>
@@ -8017,8 +8976,15 @@
       <c r="R62" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA62" t="str">
+        <f t="shared" si="1"/>
+        <v>phone: +7 9135391958 surname: Полякова name: Ольга patronymic: Николаевна,</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>223</v>
       </c>
@@ -8041,8 +9007,15 @@
       <c r="R63" t="s">
         <v>875</v>
       </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA63" t="str">
+        <f t="shared" si="1"/>
+        <v>phone: +7 9135391961 surname: Николаев name: Андрей patronymic: Вячеславович,</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>227</v>
       </c>
@@ -8065,8 +9038,15 @@
       <c r="R64" t="s">
         <v>876</v>
       </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA64" t="str">
+        <f t="shared" si="1"/>
+        <v>phone: +7 9135391999 surname: Смирнов name: Андрей patronymic: Николаевич,</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>230</v>
       </c>
@@ -8089,8 +9069,15 @@
       <c r="R65" t="s">
         <v>877</v>
       </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA65" t="str">
+        <f t="shared" si="1"/>
+        <v>phone: +7 9135391967 surname: Кондратьев name: Андрей patronymic: Сергеевич,</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>234</v>
       </c>
@@ -8113,8 +9100,15 @@
       <c r="R66" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA66" t="str">
+        <f t="shared" si="1"/>
+        <v>phone: +7 9135391963 surname: Цветкова name: Виктория patronymic: Анатольевна,</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>237</v>
       </c>
@@ -8137,8 +9131,15 @@
       <c r="R67" t="s">
         <v>879</v>
       </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA67" t="str">
+        <f t="shared" si="1"/>
+        <v>phone: +7 9135391964 surname: Цветкова name: Елена patronymic: Васильевна,</v>
+      </c>
+      <c r="AB67" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>239</v>
       </c>
@@ -8161,8 +9162,15 @@
       <c r="R68" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA68" t="str">
+        <f t="shared" si="1"/>
+        <v>phone: +7 9135391965 surname: Герасимов name: Василий patronymic: Владимирович,</v>
+      </c>
+      <c r="AB68" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>244</v>
       </c>
@@ -8185,8 +9193,15 @@
       <c r="R69" t="s">
         <v>881</v>
       </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA69" t="str">
+        <f t="shared" si="1"/>
+        <v>phone: +7 9135391966 surname: Валеев name: Асхат patronymic: Ахатович,</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>249</v>
       </c>
@@ -8209,8 +9224,15 @@
       <c r="R70" t="s">
         <v>882</v>
       </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA70" t="str">
+        <f t="shared" si="1"/>
+        <v>phone: +7 9135354844 surname: Проневич name: Руслан patronymic: Валерьевич,</v>
+      </c>
+      <c r="AB70" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>253</v>
       </c>
@@ -8227,14 +9249,21 @@
         <v>257</v>
       </c>
       <c r="H71" t="str">
-        <f t="shared" ref="H71:H134" si="1">CONCATENATE(",",$B$5," ",B71," ",$C$5," ",C71," ",$D$5," ",D71," ",$E$5," ",E71)</f>
+        <f t="shared" ref="H71:H134" si="2">CONCATENATE(",",$B$5," ",B71," ",$C$5," ",C71," ",$D$5," ",D71," ",$E$5," ",E71)</f>
         <v>,Номер телефона: +7 9135391962 Фамилия: Корчагин Имя: Владимир Отчество: Павлович</v>
       </c>
       <c r="R71" t="s">
         <v>883</v>
       </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA71" t="str">
+        <f t="shared" ref="AA71:AB134" si="3">CONCATENATE(R71,",")</f>
+        <v>phone: +7 9135391962 surname: Корчагин name: Владимир patronymic: Павлович,</v>
+      </c>
+      <c r="AB71" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>258</v>
       </c>
@@ -8251,14 +9280,21 @@
         <v>11</v>
       </c>
       <c r="H72" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,Номер телефона: +7 9135391998 Фамилия: Кобяков Имя: Андрей Отчество: Михайлович</v>
       </c>
       <c r="R72" t="s">
         <v>884</v>
       </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA72" t="str">
+        <f t="shared" si="3"/>
+        <v>phone: +7 9135391998 surname: Кобяков name: Андрей patronymic: Михайлович,</v>
+      </c>
+      <c r="AB72" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>261</v>
       </c>
@@ -8275,14 +9311,21 @@
         <v>264</v>
       </c>
       <c r="H73" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,Номер телефона: +7 9135391963 Фамилия: Фадеев Имя: Максим Отчество: Дмитриевич</v>
       </c>
       <c r="R73" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA73" t="str">
+        <f t="shared" si="3"/>
+        <v>phone: +7 9135391963 surname: Фадеев name: Максим patronymic: Дмитриевич,</v>
+      </c>
+      <c r="AB73" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>265</v>
       </c>
@@ -8299,14 +9342,21 @@
         <v>229</v>
       </c>
       <c r="H74" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,Номер телефона: +7 9135391990 Фамилия: Гурьянов Имя: Семен Отчество: Николаевич</v>
       </c>
       <c r="R74" t="s">
         <v>886</v>
       </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA74" t="str">
+        <f t="shared" si="3"/>
+        <v>phone: +7 9135391990 surname: Гурьянов name: Семен patronymic: Николаевич,</v>
+      </c>
+      <c r="AB74" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>269</v>
       </c>
@@ -8323,14 +9373,21 @@
         <v>272</v>
       </c>
       <c r="H75" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,Номер телефона: +7 9135391971 Фамилия: Лапин Имя: Александр Отчество: Викторович</v>
       </c>
       <c r="R75" t="s">
         <v>887</v>
       </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA75" t="str">
+        <f t="shared" si="3"/>
+        <v>phone: +7 9135391971 surname: Лапин name: Александр patronymic: Викторович,</v>
+      </c>
+      <c r="AB75" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>273</v>
       </c>
@@ -8347,14 +9404,21 @@
         <v>229</v>
       </c>
       <c r="H76" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,Номер телефона: +7 9135391972 Фамилия: Юрьев Имя: Антон Отчество: Николаевич</v>
       </c>
       <c r="R76" t="s">
         <v>888</v>
       </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA76" t="str">
+        <f t="shared" si="3"/>
+        <v>phone: +7 9135391972 surname: Юрьев name: Антон patronymic: Николаевич,</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>277</v>
       </c>
@@ -8371,14 +9435,21 @@
         <v>272</v>
       </c>
       <c r="H77" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,Номер телефона: +7 9135391973 Фамилия: Березин Имя: Олег Отчество: Викторович</v>
       </c>
       <c r="R77" t="s">
         <v>889</v>
       </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA77" t="str">
+        <f t="shared" si="3"/>
+        <v>phone: +7 9135391973 surname: Березин name: Олег patronymic: Викторович,</v>
+      </c>
+      <c r="AB77" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>281</v>
       </c>
@@ -8395,14 +9466,21 @@
         <v>226</v>
       </c>
       <c r="H78" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,Номер телефона: +7 9135391974 Фамилия: Блувштейн Имя: Денис Отчество: Вячеславович</v>
       </c>
       <c r="R78" t="s">
         <v>890</v>
       </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA78" t="str">
+        <f t="shared" si="3"/>
+        <v>phone: +7 9135391974 surname: Блувштейн name: Денис patronymic: Вячеславович,</v>
+      </c>
+      <c r="AB78" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>285</v>
       </c>
@@ -8419,14 +9497,21 @@
         <v>56</v>
       </c>
       <c r="H79" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,Номер телефона: +7 9135391975 Фамилия: Чижов Имя: Андрей Отчество: Александрович</v>
       </c>
       <c r="R79" t="s">
         <v>891</v>
       </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA79" t="str">
+        <f t="shared" si="3"/>
+        <v>phone: +7 9135391975 surname: Чижов name: Андрей patronymic: Александрович,</v>
+      </c>
+      <c r="AB79" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>288</v>
       </c>
@@ -8443,14 +9528,21 @@
         <v>243</v>
       </c>
       <c r="H80" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,Номер телефона: +7 9135391970 Фамилия: Соколов Имя: Вадим Отчество: Владимирович</v>
       </c>
       <c r="R80" t="s">
         <v>892</v>
       </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA80" t="str">
+        <f t="shared" si="3"/>
+        <v>phone: +7 9135391970 surname: Соколов name: Вадим patronymic: Владимирович,</v>
+      </c>
+      <c r="AB80" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>292</v>
       </c>
@@ -8467,14 +9559,21 @@
         <v>295</v>
       </c>
       <c r="H81" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,Номер телефона: +7 9135391976 Фамилия: Кузнецов Имя: Михаил Отчество: Тимофеевич</v>
       </c>
       <c r="R81" t="s">
         <v>893</v>
       </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA81" t="str">
+        <f t="shared" si="3"/>
+        <v>phone: +7 9135391976 surname: Кузнецов name: Михаил patronymic: Тимофеевич,</v>
+      </c>
+      <c r="AB81" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>296</v>
       </c>
@@ -8491,14 +9590,21 @@
         <v>243</v>
       </c>
       <c r="H82" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,Номер телефона: +7 9135391977 Фамилия: Муравьёв Имя: Александр Отчество: Владимирович</v>
       </c>
       <c r="R82" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA82" t="str">
+        <f t="shared" si="3"/>
+        <v>phone: +7 9135391977 surname: Муравьёв name: Александр patronymic: Владимирович,</v>
+      </c>
+      <c r="AB82" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>299</v>
       </c>
@@ -8515,14 +9621,21 @@
         <v>11</v>
       </c>
       <c r="H83" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,Номер телефона: +7 9135391979 Фамилия: Николаев Имя: Евгений Отчество: Михайлович</v>
       </c>
       <c r="R83" t="s">
         <v>895</v>
       </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA83" t="str">
+        <f t="shared" si="3"/>
+        <v>phone: +7 9135391979 surname: Николаев name: Евгений patronymic: Михайлович,</v>
+      </c>
+      <c r="AB83" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>302</v>
       </c>
@@ -8539,14 +9652,21 @@
         <v>306</v>
       </c>
       <c r="H84" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,Номер телефона: +7 9135391978 Фамилия: Бобылев Имя: Алексей Отчество: Васильевич</v>
       </c>
       <c r="R84" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA84" t="str">
+        <f t="shared" si="3"/>
+        <v>phone: +7 9135391978 surname: Бобылев name: Алексей patronymic: Васильевич,</v>
+      </c>
+      <c r="AB84" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>307</v>
       </c>
@@ -8563,14 +9683,21 @@
         <v>166</v>
       </c>
       <c r="H85" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,Номер телефона: +7 9135391981 Фамилия: Маркова Имя: Елена Отчество: Борисовна</v>
       </c>
       <c r="R85" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA85" t="str">
+        <f t="shared" si="3"/>
+        <v>phone: +7 9135391981 surname: Маркова name: Елена patronymic: Борисовна,</v>
+      </c>
+      <c r="AB85" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>310</v>
       </c>
@@ -8587,14 +9714,21 @@
         <v>158</v>
       </c>
       <c r="H86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,Номер телефона: +7 9135391918 Фамилия: Загвозкина Имя: Евгения Отчество: Юрьевна</v>
       </c>
       <c r="R86" t="s">
         <v>898</v>
       </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA86" t="str">
+        <f t="shared" si="3"/>
+        <v>phone: +7 9135391918 surname: Загвозкина name: Евгения patronymic: Юрьевна,</v>
+      </c>
+      <c r="AB86" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>314</v>
       </c>
@@ -8611,14 +9745,21 @@
         <v>79</v>
       </c>
       <c r="H87" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,Номер телефона: +7 9135391982 Фамилия: Вершинина Имя: Любовь Отчество: Александровна</v>
       </c>
       <c r="R87" t="s">
         <v>899</v>
       </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA87" t="str">
+        <f t="shared" si="3"/>
+        <v>phone: +7 9135391982 surname: Вершинина name: Любовь patronymic: Александровна,</v>
+      </c>
+      <c r="AB87" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>318</v>
       </c>
@@ -8635,14 +9776,21 @@
         <v>193</v>
       </c>
       <c r="H88" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,Номер телефона: +7 9135391982 Фамилия: Малинина Имя: Наталья Отчество: Евгеньевна</v>
       </c>
       <c r="R88" t="s">
         <v>900</v>
       </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA88" t="str">
+        <f t="shared" si="3"/>
+        <v>phone: +7 9135391982 surname: Малинина name: Наталья patronymic: Евгеньевна,</v>
+      </c>
+      <c r="AB88" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>320</v>
       </c>
@@ -8659,14 +9807,21 @@
         <v>47</v>
       </c>
       <c r="H89" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,Номер телефона: +7 9135391987 Фамилия: Пуговкина Имя: Анна Отчество: Викторовна</v>
       </c>
       <c r="R89" t="s">
         <v>901</v>
       </c>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA89" t="str">
+        <f t="shared" si="3"/>
+        <v>phone: +7 9135391987 surname: Пуговкина name: Анна patronymic: Викторовна,</v>
+      </c>
+      <c r="AB89" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>322</v>
       </c>
@@ -8683,14 +9838,21 @@
         <v>325</v>
       </c>
       <c r="H90" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,Номер телефона: +7 9135391983 Фамилия: Зинцова Имя: Светлана Отчество: Олеговна</v>
       </c>
       <c r="R90" t="s">
         <v>902</v>
       </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA90" t="str">
+        <f t="shared" si="3"/>
+        <v>phone: +7 9135391983 surname: Зинцова name: Светлана patronymic: Олеговна,</v>
+      </c>
+      <c r="AB90" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>326</v>
       </c>
@@ -8707,14 +9869,21 @@
         <v>20</v>
       </c>
       <c r="H91" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,Номер телефона: +7 9135391984 Фамилия: Калинина Имя: Надежда Отчество: Николаевна</v>
       </c>
       <c r="R91" t="s">
         <v>903</v>
       </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA91" t="str">
+        <f t="shared" si="3"/>
+        <v>phone: +7 9135391984 surname: Калинина name: Надежда patronymic: Николаевна,</v>
+      </c>
+      <c r="AB91" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>329</v>
       </c>
@@ -8731,14 +9900,21 @@
         <v>196</v>
       </c>
       <c r="H92" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,Номер телефона: +7 9135391985 Фамилия: Красилова Имя: Елена Отчество: Витальевна</v>
       </c>
       <c r="R92" t="s">
         <v>904</v>
       </c>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA92" t="str">
+        <f t="shared" si="3"/>
+        <v>phone: +7 9135391985 surname: Красилова name: Елена patronymic: Витальевна,</v>
+      </c>
+      <c r="AB92" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>332</v>
       </c>
@@ -8755,14 +9931,21 @@
         <v>20</v>
       </c>
       <c r="H93" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,Номер телефона: +7 9135391986 Фамилия: Старжинская Имя: Екатерина Отчество: Николаевна</v>
       </c>
       <c r="R93" t="s">
         <v>905</v>
       </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA93" t="str">
+        <f t="shared" si="3"/>
+        <v>phone: +7 9135391986 surname: Старжинская name: Екатерина patronymic: Николаевна,</v>
+      </c>
+      <c r="AB93" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>336</v>
       </c>
@@ -8779,14 +9962,21 @@
         <v>11</v>
       </c>
       <c r="H94" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,Номер телефона: +7 9135625401 Фамилия: Ложников Имя: Михаил Отчество: Михайлович</v>
       </c>
       <c r="R94" t="s">
         <v>906</v>
       </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA94" t="str">
+        <f t="shared" si="3"/>
+        <v>phone: +7 9135625401 surname: Ложников name: Михаил patronymic: Михайлович,</v>
+      </c>
+      <c r="AB94" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>338</v>
       </c>
@@ -8803,14 +9993,21 @@
         <v>20</v>
       </c>
       <c r="H95" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,Номер телефона: +7 9135625402 Фамилия: Соловьева Имя: Елена Отчество: Николаевна</v>
       </c>
       <c r="R95" t="s">
         <v>907</v>
       </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA95" t="str">
+        <f t="shared" si="3"/>
+        <v>phone: +7 9135625402 surname: Соловьева name: Елена patronymic: Николаевна,</v>
+      </c>
+      <c r="AB95" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>340</v>
       </c>
@@ -8827,14 +10024,21 @@
         <v>15</v>
       </c>
       <c r="H96" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,Номер телефона: +7 9135625403 Фамилия: Чувиляев Имя: Сергей Отчество: Валерьевич</v>
       </c>
       <c r="R96" t="s">
         <v>908</v>
       </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA96" t="str">
+        <f t="shared" si="3"/>
+        <v>phone: +7 9135625403 surname: Чувиляев name: Сергей patronymic: Валерьевич,</v>
+      </c>
+      <c r="AB96" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>342</v>
       </c>
@@ -8851,14 +10055,21 @@
         <v>346</v>
       </c>
       <c r="H97" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,Номер телефона: +7 9135625404 Фамилия: Попова Имя: Гузалия Отчество: Минулловна</v>
       </c>
       <c r="R97" t="s">
         <v>909</v>
       </c>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA97" t="str">
+        <f t="shared" si="3"/>
+        <v>phone: +7 9135625404 surname: Попова name: Гузалия patronymic: Минулловна,</v>
+      </c>
+      <c r="AB97" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>347</v>
       </c>
@@ -8875,14 +10086,21 @@
         <v>350</v>
       </c>
       <c r="H98" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,Номер телефона: +7 9135625405 Фамилия: Боровикова Имя: Ольга Отчество: Константиновна</v>
       </c>
       <c r="R98" t="s">
         <v>910</v>
       </c>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA98" t="str">
+        <f t="shared" si="3"/>
+        <v>phone: +7 9135625405 surname: Боровикова name: Ольга patronymic: Константиновна,</v>
+      </c>
+      <c r="AB98" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>351</v>
       </c>
@@ -8899,14 +10117,21 @@
         <v>200</v>
       </c>
       <c r="H99" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,Номер телефона: +7 9135625400 Фамилия: Гусева Имя: Светлана Отчество: Дмитриевна</v>
       </c>
       <c r="R99" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA99" t="str">
+        <f t="shared" si="3"/>
+        <v>phone: +7 9135625400 surname: Гусева name: Светлана patronymic: Дмитриевна,</v>
+      </c>
+      <c r="AB99" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>354</v>
       </c>
@@ -8923,14 +10148,21 @@
         <v>51</v>
       </c>
       <c r="H100" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,Номер телефона: +7 9135625410 Фамилия: Тощакова Имя: Ольга Отчество: Владимировна</v>
       </c>
       <c r="R100" t="s">
         <v>912</v>
       </c>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA100" t="str">
+        <f t="shared" si="3"/>
+        <v>phone: +7 9135625410 surname: Тощакова name: Ольга patronymic: Владимировна,</v>
+      </c>
+      <c r="AB100" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>357</v>
       </c>
@@ -8947,14 +10179,21 @@
         <v>126</v>
       </c>
       <c r="H101" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,Номер телефона: +7 9135625411 Фамилия: Лукьяненкова Имя: Елена Отчество: Анатольевна</v>
       </c>
       <c r="R101" t="s">
         <v>913</v>
       </c>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA101" t="str">
+        <f t="shared" si="3"/>
+        <v>phone: +7 9135625411 surname: Лукьяненкова name: Елена patronymic: Анатольевна,</v>
+      </c>
+      <c r="AB101" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>360</v>
       </c>
@@ -8971,14 +10210,21 @@
         <v>20</v>
       </c>
       <c r="H102" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,Номер телефона: +7 9135625412 Фамилия: Новикова Имя: Екатерина Отчество: Николаевна</v>
       </c>
       <c r="R102" t="s">
         <v>914</v>
       </c>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA102" t="str">
+        <f t="shared" si="3"/>
+        <v>phone: +7 9135625412 surname: Новикова name: Екатерина patronymic: Николаевна,</v>
+      </c>
+      <c r="AB102" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="103" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>363</v>
       </c>
@@ -8995,14 +10241,21 @@
         <v>42</v>
       </c>
       <c r="H103" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,Номер телефона: +7 9135625413 Фамилия: Медведева Имя: Елена Отчество: Петровна</v>
       </c>
       <c r="R103" t="s">
         <v>915</v>
       </c>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA103" t="str">
+        <f t="shared" si="3"/>
+        <v>phone: +7 9135625413 surname: Медведева name: Елена patronymic: Петровна,</v>
+      </c>
+      <c r="AB103" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="104" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>366</v>
       </c>
@@ -9019,14 +10272,21 @@
         <v>51</v>
       </c>
       <c r="H104" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,Номер телефона: +7 9135625414 Фамилия: Смирнова Имя: Светлана Отчество: Владимировна</v>
       </c>
       <c r="R104" t="s">
         <v>916</v>
       </c>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA104" t="str">
+        <f t="shared" si="3"/>
+        <v>phone: +7 9135625414 surname: Смирнова name: Светлана patronymic: Владимировна,</v>
+      </c>
+      <c r="AB104" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="105" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>368</v>
       </c>
@@ -9043,14 +10303,21 @@
         <v>60</v>
       </c>
       <c r="H105" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,Номер телефона: +7 9135625415 Фамилия: Гусева Имя: Наталья Отчество: Львовна</v>
       </c>
       <c r="R105" t="s">
         <v>917</v>
       </c>
-    </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA105" t="str">
+        <f t="shared" si="3"/>
+        <v>phone: +7 9135625415 surname: Гусева name: Наталья patronymic: Львовна,</v>
+      </c>
+      <c r="AB105" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="106" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>370</v>
       </c>
@@ -9067,14 +10334,21 @@
         <v>51</v>
       </c>
       <c r="H106" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,Номер телефона: +7 9135625416 Фамилия: Тихомирова Имя: Наталья Отчество: Владимировна</v>
       </c>
       <c r="R106" t="s">
         <v>918</v>
       </c>
-    </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA106" t="str">
+        <f t="shared" si="3"/>
+        <v>phone: +7 9135625416 surname: Тихомирова name: Наталья patronymic: Владимировна,</v>
+      </c>
+      <c r="AB106" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="107" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>373</v>
       </c>
@@ -9091,14 +10365,21 @@
         <v>376</v>
       </c>
       <c r="H107" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,Номер телефона: +7 9135625417 Фамилия: Салова Имя: Светлана Отчество: Ивановна</v>
       </c>
       <c r="R107" t="s">
         <v>919</v>
       </c>
-    </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA107" t="str">
+        <f t="shared" si="3"/>
+        <v>phone: +7 9135625417 surname: Салова name: Светлана patronymic: Ивановна,</v>
+      </c>
+      <c r="AB107" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="108" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>377</v>
       </c>
@@ -9115,14 +10396,21 @@
         <v>193</v>
       </c>
       <c r="H108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,Номер телефона: +7 9135625418 Фамилия: Исаева Имя: Ирина Отчество: Евгеньевна</v>
       </c>
       <c r="R108" t="s">
         <v>920</v>
       </c>
-    </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA108" t="str">
+        <f t="shared" si="3"/>
+        <v>phone: +7 9135625418 surname: Исаева name: Ирина patronymic: Евгеньевна,</v>
+      </c>
+      <c r="AB108" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="109" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>380</v>
       </c>
@@ -9139,14 +10427,21 @@
         <v>383</v>
       </c>
       <c r="H109" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,Номер телефона: +7 9135625419 Фамилия: Антонова Имя: Галина Отчество: Ремовна</v>
       </c>
       <c r="R109" t="s">
         <v>921</v>
       </c>
-    </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA109" t="str">
+        <f t="shared" si="3"/>
+        <v>phone: +7 9135625419 surname: Антонова name: Галина patronymic: Ремовна,</v>
+      </c>
+      <c r="AB109" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="110" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>384</v>
       </c>
@@ -9163,14 +10458,21 @@
         <v>25</v>
       </c>
       <c r="H110" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,Номер телефона: +7 9135625406 Фамилия: Карпова Имя: Галина Отчество: Валентиновна</v>
       </c>
       <c r="R110" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA110" t="str">
+        <f t="shared" si="3"/>
+        <v>phone: +7 9135625406 surname: Карпова name: Галина patronymic: Валентиновна,</v>
+      </c>
+      <c r="AB110" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="111" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>387</v>
       </c>
@@ -9187,14 +10489,21 @@
         <v>200</v>
       </c>
       <c r="H111" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,Номер телефона: +7 9135625407 Фамилия: Смирнова Имя: Наталья Отчество: Дмитриевна</v>
       </c>
       <c r="R111" t="s">
         <v>923</v>
       </c>
-    </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA111" t="str">
+        <f t="shared" si="3"/>
+        <v>phone: +7 9135625407 surname: Смирнова name: Наталья patronymic: Дмитриевна,</v>
+      </c>
+      <c r="AB111" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="112" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>389</v>
       </c>
@@ -9211,14 +10520,21 @@
         <v>51</v>
       </c>
       <c r="H112" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,Номер телефона: +7 9135625408 Фамилия: Королева Имя: Галина Отчество: Владимировна</v>
       </c>
       <c r="R112" t="s">
         <v>924</v>
       </c>
-    </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA112" t="str">
+        <f t="shared" si="3"/>
+        <v>phone: +7 9135625408 surname: Королева name: Галина patronymic: Владимировна,</v>
+      </c>
+      <c r="AB112" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="113" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>392</v>
       </c>
@@ -9235,14 +10551,21 @@
         <v>200</v>
       </c>
       <c r="H113" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,Номер телефона: +7 9135625409 Фамилия: Бахарева Имя: Ольга Отчество: Дмитриевна</v>
       </c>
       <c r="R113" t="s">
         <v>925</v>
       </c>
-    </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA113" t="str">
+        <f t="shared" si="3"/>
+        <v>phone: +7 9135625409 surname: Бахарева name: Ольга patronymic: Дмитриевна,</v>
+      </c>
+      <c r="AB113" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="114" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>395</v>
       </c>
@@ -9259,14 +10582,21 @@
         <v>147</v>
       </c>
       <c r="H114" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,Номер телефона: +7 9135625450 Фамилия: Оськина Имя: Наталья Отчество: Андреевна</v>
       </c>
       <c r="R114" t="s">
         <v>926</v>
       </c>
-    </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA114" t="str">
+        <f t="shared" si="3"/>
+        <v>phone: +7 9135625450 surname: Оськина name: Наталья patronymic: Андреевна,</v>
+      </c>
+      <c r="AB114" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="115" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>398</v>
       </c>
@@ -9283,14 +10613,21 @@
         <v>179</v>
       </c>
       <c r="H115" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,Номер телефона: +7 9135625451 Фамилия: Рыжова Имя: Татьяна Отчество: Сергеевна</v>
       </c>
       <c r="R115" t="s">
         <v>927</v>
       </c>
-    </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA115" t="str">
+        <f t="shared" si="3"/>
+        <v>phone: +7 9135625451 surname: Рыжова name: Татьяна patronymic: Сергеевна,</v>
+      </c>
+      <c r="AB115" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="116" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>401</v>
       </c>
@@ -9307,14 +10644,21 @@
         <v>179</v>
       </c>
       <c r="H116" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,Номер телефона: +7 9135625456 Фамилия: Костенко Имя: Оксана Отчество: Сергеевна</v>
       </c>
       <c r="R116" t="s">
         <v>928</v>
       </c>
-    </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA116" t="str">
+        <f t="shared" si="3"/>
+        <v>phone: +7 9135625456 surname: Костенко name: Оксана patronymic: Сергеевна,</v>
+      </c>
+      <c r="AB116" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="117" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>405</v>
       </c>
@@ -9331,14 +10675,21 @@
         <v>121</v>
       </c>
       <c r="H117" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,Номер телефона: +7 9135625458 Фамилия: Кевина Имя: Людмила Отчество: Васильевна</v>
       </c>
       <c r="R117" t="s">
         <v>929</v>
       </c>
-    </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA117" t="str">
+        <f t="shared" si="3"/>
+        <v>phone: +7 9135625458 surname: Кевина name: Людмила patronymic: Васильевна,</v>
+      </c>
+      <c r="AB117" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="118" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>409</v>
       </c>
@@ -9355,14 +10706,21 @@
         <v>158</v>
       </c>
       <c r="H118" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,Номер телефона: +7 9135625459 Фамилия: Ермолаева Имя: Татьяна Отчество: Юрьевна</v>
       </c>
       <c r="R118" t="s">
         <v>930</v>
       </c>
-    </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA118" t="str">
+        <f t="shared" si="3"/>
+        <v>phone: +7 9135625459 surname: Ермолаева name: Татьяна patronymic: Юрьевна,</v>
+      </c>
+      <c r="AB118" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="119" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>412</v>
       </c>
@@ -9379,14 +10737,21 @@
         <v>158</v>
       </c>
       <c r="H119" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,Номер телефона: +7 9135625420 Фамилия: Зорина Имя: Светлана Отчество: Юрьевна</v>
       </c>
       <c r="R119" t="s">
         <v>931</v>
       </c>
-    </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA119" t="str">
+        <f t="shared" si="3"/>
+        <v>phone: +7 9135625420 surname: Зорина name: Светлана patronymic: Юрьевна,</v>
+      </c>
+      <c r="AB119" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="120" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>415</v>
       </c>
@@ -9403,14 +10768,21 @@
         <v>51</v>
       </c>
       <c r="H120" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,Номер телефона: +7 9135625421 Фамилия: Карпова Имя: Ирина Отчество: Владимировна</v>
       </c>
       <c r="R120" t="s">
         <v>932</v>
       </c>
-    </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA120" t="str">
+        <f t="shared" si="3"/>
+        <v>phone: +7 9135625421 surname: Карпова name: Ирина patronymic: Владимировна,</v>
+      </c>
+      <c r="AB120" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="121" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>417</v>
       </c>
@@ -9427,14 +10799,21 @@
         <v>419</v>
       </c>
       <c r="H121" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,Номер телефона: +7 9135625422 Фамилия: Рыжова Имя: Мария Отчество: Станиславовна</v>
       </c>
       <c r="R121" t="s">
         <v>933</v>
       </c>
-    </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA121" t="str">
+        <f t="shared" si="3"/>
+        <v>phone: +7 9135625422 surname: Рыжова name: Мария patronymic: Станиславовна,</v>
+      </c>
+      <c r="AB121" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="122" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>420</v>
       </c>
@@ -9451,14 +10830,21 @@
         <v>422</v>
       </c>
       <c r="H122" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,Номер телефона: +7 9135625423 Фамилия: Антонова Имя: Светлана Отчество: Аюповна</v>
       </c>
       <c r="R122" t="s">
         <v>934</v>
       </c>
-    </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA122" t="str">
+        <f t="shared" si="3"/>
+        <v>phone: +7 9135625423 surname: Антонова name: Светлана patronymic: Аюповна,</v>
+      </c>
+      <c r="AB122" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="123" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>423</v>
       </c>
@@ -9475,14 +10861,21 @@
         <v>89</v>
       </c>
       <c r="H123" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,Номер телефона: +7 9135625424 Фамилия: Решетникова Имя: Юлия Отчество: Вячеславовна</v>
       </c>
       <c r="R123" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA123" t="str">
+        <f t="shared" si="3"/>
+        <v>phone: +7 9135625424 surname: Решетникова name: Юлия patronymic: Вячеславовна,</v>
+      </c>
+      <c r="AB123" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="124" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>427</v>
       </c>
@@ -9499,14 +10892,21 @@
         <v>51</v>
       </c>
       <c r="H124" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,Номер телефона: +7 9135625425 Фамилия: Алифанова Имя: Наталия Отчество: Владимировна</v>
       </c>
       <c r="R124" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA124" t="str">
+        <f t="shared" si="3"/>
+        <v>phone: +7 9135625425 surname: Алифанова name: Наталия patronymic: Владимировна,</v>
+      </c>
+      <c r="AB124" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="125" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>430</v>
       </c>
@@ -9523,14 +10923,21 @@
         <v>243</v>
       </c>
       <c r="H125" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,Номер телефона: +7 9135625426 Фамилия: Дунаев Имя: Илья Отчество: Владимирович</v>
       </c>
       <c r="R125" t="s">
         <v>937</v>
       </c>
-    </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA125" t="str">
+        <f t="shared" si="3"/>
+        <v>phone: +7 9135625426 surname: Дунаев name: Илья patronymic: Владимирович,</v>
+      </c>
+      <c r="AB125" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="126" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>434</v>
       </c>
@@ -9547,14 +10954,21 @@
         <v>166</v>
       </c>
       <c r="H126" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,Номер телефона: +7 9135625430 Фамилия: Бородина Имя: Ирина Отчество: Борисовна</v>
       </c>
       <c r="R126" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA126" t="str">
+        <f t="shared" si="3"/>
+        <v>phone: +7 9135625430 surname: Бородина name: Ирина patronymic: Борисовна,</v>
+      </c>
+      <c r="AB126" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="127" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>437</v>
       </c>
@@ -9571,14 +10985,21 @@
         <v>89</v>
       </c>
       <c r="H127" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,Номер телефона: +7 9135625431 Фамилия: Мемнонова Имя: Ольга Отчество: Вячеславовна</v>
       </c>
       <c r="R127" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA127" t="str">
+        <f t="shared" si="3"/>
+        <v>phone: +7 9135625431 surname: Мемнонова name: Ольга patronymic: Вячеславовна,</v>
+      </c>
+      <c r="AB127" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="128" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>440</v>
       </c>
@@ -9595,14 +11016,21 @@
         <v>179</v>
       </c>
       <c r="H128" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,Номер телефона: +7 9135625432 Фамилия: Зарубина Имя: Валентина Отчество: Сергеевна</v>
       </c>
       <c r="R128" t="s">
         <v>940</v>
       </c>
-    </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA128" t="str">
+        <f t="shared" si="3"/>
+        <v>phone: +7 9135625432 surname: Зарубина name: Валентина patronymic: Сергеевна,</v>
+      </c>
+      <c r="AB128" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="129" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>444</v>
       </c>
@@ -9619,14 +11047,21 @@
         <v>69</v>
       </c>
       <c r="H129" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,Номер телефона: +7 9135625433 Фамилия: Горчакова Имя: Татьяна Отчество: Валерьевна</v>
       </c>
       <c r="R129" t="s">
         <v>941</v>
       </c>
-    </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA129" t="str">
+        <f t="shared" si="3"/>
+        <v>phone: +7 9135625433 surname: Горчакова name: Татьяна patronymic: Валерьевна,</v>
+      </c>
+      <c r="AB129" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="130" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>447</v>
       </c>
@@ -9643,14 +11078,21 @@
         <v>166</v>
       </c>
       <c r="H130" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,Номер телефона: +7 9135625434 Фамилия: Девятых Имя: Елена Отчество: Борисовна</v>
       </c>
       <c r="R130" t="s">
         <v>942</v>
       </c>
-    </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA130" t="str">
+        <f t="shared" si="3"/>
+        <v>phone: +7 9135625434 surname: Девятых name: Елена patronymic: Борисовна,</v>
+      </c>
+      <c r="AB130" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="131" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>450</v>
       </c>
@@ -9667,14 +11109,21 @@
         <v>20</v>
       </c>
       <c r="H131" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,Номер телефона: +7 9135625435 Фамилия: Серова Имя: Любовь Отчество: Николаевна</v>
       </c>
       <c r="R131" t="s">
         <v>943</v>
       </c>
-    </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA131" t="str">
+        <f t="shared" si="3"/>
+        <v>phone: +7 9135625435 surname: Серова name: Любовь patronymic: Николаевна,</v>
+      </c>
+      <c r="AB131" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="132" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>453</v>
       </c>
@@ -9691,14 +11140,21 @@
         <v>79</v>
       </c>
       <c r="H132" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,Номер телефона: +7 9135625436 Фамилия: Егорова Имя: Галина Отчество: Александровна</v>
       </c>
       <c r="R132" t="s">
         <v>944</v>
       </c>
-    </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA132" t="str">
+        <f t="shared" si="3"/>
+        <v>phone: +7 9135625436 surname: Егорова name: Галина patronymic: Александровна,</v>
+      </c>
+      <c r="AB132" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="133" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>456</v>
       </c>
@@ -9715,14 +11171,21 @@
         <v>158</v>
       </c>
       <c r="H133" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,Номер телефона: +7 9135625437 Фамилия: Родионова Имя: Надежда Отчество: Юрьевна</v>
       </c>
       <c r="R133" t="s">
         <v>945</v>
       </c>
-    </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA133" t="str">
+        <f t="shared" si="3"/>
+        <v>phone: +7 9135625437 surname: Родионова name: Надежда patronymic: Юрьевна,</v>
+      </c>
+      <c r="AB133" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="134" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>459</v>
       </c>
@@ -9739,14 +11202,21 @@
         <v>462</v>
       </c>
       <c r="H134" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,Номер телефона: +7 9135625440 Фамилия: Батенова Имя: Наталья Отчество: Михайловна</v>
       </c>
       <c r="R134" t="s">
         <v>946</v>
       </c>
-    </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA134" t="str">
+        <f t="shared" si="3"/>
+        <v>phone: +7 9135625440 surname: Батенова name: Наталья patronymic: Михайловна,</v>
+      </c>
+      <c r="AB134" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="135" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>463</v>
       </c>
@@ -9763,14 +11233,21 @@
         <v>462</v>
       </c>
       <c r="H135" t="str">
-        <f t="shared" ref="H135:H194" si="2">CONCATENATE(",",$B$5," ",B135," ",$C$5," ",C135," ",$D$5," ",D135," ",$E$5," ",E135)</f>
+        <f t="shared" ref="H135:H194" si="4">CONCATENATE(",",$B$5," ",B135," ",$C$5," ",C135," ",$D$5," ",D135," ",$E$5," ",E135)</f>
         <v>,Номер телефона: +7 9135625441 Фамилия: Белова Имя: Ольга Отчество: Михайловна</v>
       </c>
       <c r="R135" t="s">
         <v>947</v>
       </c>
-    </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA135" t="str">
+        <f t="shared" ref="AA135:AB194" si="5">CONCATENATE(R135,",")</f>
+        <v>phone: +7 9135625441 surname: Белова name: Ольга patronymic: Михайловна,</v>
+      </c>
+      <c r="AB135" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="136" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>466</v>
       </c>
@@ -9787,14 +11264,21 @@
         <v>193</v>
       </c>
       <c r="H136" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>,Номер телефона: +7 9135625442 Фамилия: Тютюнова Имя: Ирина Отчество: Евгеньевна</v>
       </c>
       <c r="R136" t="s">
         <v>948</v>
       </c>
-    </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA136" t="str">
+        <f t="shared" si="5"/>
+        <v>phone: +7 9135625442 surname: Тютюнова name: Ирина patronymic: Евгеньевна,</v>
+      </c>
+      <c r="AB136" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="137" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>469</v>
       </c>
@@ -9811,14 +11295,21 @@
         <v>51</v>
       </c>
       <c r="H137" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>,Номер телефона: +7 9135625443 Фамилия: Суворова Имя: Марина Отчество: Владимировна</v>
       </c>
       <c r="R137" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA137" t="str">
+        <f t="shared" si="5"/>
+        <v>phone: +7 9135625443 surname: Суворова name: Марина patronymic: Владимировна,</v>
+      </c>
+      <c r="AB137" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="138" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>472</v>
       </c>
@@ -9835,14 +11326,21 @@
         <v>69</v>
       </c>
       <c r="H138" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>,Номер телефона: +7 9135625444 Фамилия: Королькова Имя: Елена Отчество: Валерьевна</v>
       </c>
       <c r="R138" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA138" t="str">
+        <f t="shared" si="5"/>
+        <v>phone: +7 9135625444 surname: Королькова name: Елена patronymic: Валерьевна,</v>
+      </c>
+      <c r="AB138" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="139" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>475</v>
       </c>
@@ -9859,14 +11357,21 @@
         <v>79</v>
       </c>
       <c r="H139" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>,Номер телефона: +7 9135625445 Фамилия: Фролова Имя: Юлия Отчество: Александровна</v>
       </c>
       <c r="R139" t="s">
         <v>951</v>
       </c>
-    </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA139" t="str">
+        <f t="shared" si="5"/>
+        <v>phone: +7 9135625445 surname: Фролова name: Юлия patronymic: Александровна,</v>
+      </c>
+      <c r="AB139" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="140" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>477</v>
       </c>
@@ -9883,14 +11388,21 @@
         <v>20</v>
       </c>
       <c r="H140" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>,Номер телефона: +7 9135625446 Фамилия: Воронова Имя: Анна Отчество: Николаевна</v>
       </c>
       <c r="R140" t="s">
         <v>952</v>
       </c>
-    </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA140" t="str">
+        <f t="shared" si="5"/>
+        <v>phone: +7 9135625446 surname: Воронова name: Анна patronymic: Николаевна,</v>
+      </c>
+      <c r="AB140" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="141" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>480</v>
       </c>
@@ -9907,14 +11419,21 @@
         <v>126</v>
       </c>
       <c r="H141" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>,Номер телефона: +7 9135625447 Фамилия: Зимина Имя: Анастасия Отчество: Анатольевна</v>
       </c>
       <c r="R141" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA141" t="str">
+        <f t="shared" si="5"/>
+        <v>phone: +7 9135625447 surname: Зимина name: Анастасия patronymic: Анатольевна,</v>
+      </c>
+      <c r="AB141" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="142" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>484</v>
       </c>
@@ -9931,14 +11450,21 @@
         <v>51</v>
       </c>
       <c r="H142" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>,Номер телефона: +7 9135625448 Фамилия: Апалько Имя: Оксана Отчество: Владимировна</v>
       </c>
       <c r="R142" t="s">
         <v>954</v>
       </c>
-    </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA142" t="str">
+        <f t="shared" si="5"/>
+        <v>phone: +7 9135625448 surname: Апалько name: Оксана patronymic: Владимировна,</v>
+      </c>
+      <c r="AB142" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="143" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>487</v>
       </c>
@@ -9955,14 +11481,21 @@
         <v>79</v>
       </c>
       <c r="H143" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>,Номер телефона: +7 9135625449 Фамилия: Смирнова Имя: Ирина Отчество: Александровна</v>
       </c>
       <c r="R143" t="s">
         <v>955</v>
       </c>
-    </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA143" t="str">
+        <f t="shared" si="5"/>
+        <v>phone: +7 9135625449 surname: Смирнова name: Ирина patronymic: Александровна,</v>
+      </c>
+      <c r="AB143" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="144" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>489</v>
       </c>
@@ -9979,14 +11512,21 @@
         <v>229</v>
       </c>
       <c r="H144" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>,Номер телефона: +7 9135625453 Фамилия: Ляпугин Имя: Алексей Отчество: Николаевич</v>
       </c>
       <c r="R144" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA144" t="str">
+        <f t="shared" si="5"/>
+        <v>phone: +7 9135625453 surname: Ляпугин name: Алексей patronymic: Николаевич,</v>
+      </c>
+      <c r="AB144" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="145" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>492</v>
       </c>
@@ -10003,14 +11543,21 @@
         <v>229</v>
       </c>
       <c r="H145" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>,Номер телефона: +7 9135625454 Фамилия: Калинин Имя: Сергей Отчество: Николаевич</v>
       </c>
       <c r="R145" t="s">
         <v>957</v>
       </c>
-    </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA145" t="str">
+        <f t="shared" si="5"/>
+        <v>phone: +7 9135625454 surname: Калинин name: Сергей patronymic: Николаевич,</v>
+      </c>
+      <c r="AB145" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="146" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>495</v>
       </c>
@@ -10027,14 +11574,21 @@
         <v>51</v>
       </c>
       <c r="H146" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>,Номер телефона: +7 9135625455 Фамилия: Решетова Имя: Светлана Отчество: Владимировна</v>
       </c>
       <c r="R146" t="s">
         <v>958</v>
       </c>
-    </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA146" t="str">
+        <f t="shared" si="5"/>
+        <v>phone: +7 9135625455 surname: Решетова name: Светлана patronymic: Владимировна,</v>
+      </c>
+      <c r="AB146" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="147" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>498</v>
       </c>
@@ -10051,14 +11605,21 @@
         <v>79</v>
       </c>
       <c r="H147" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>,Номер телефона: +7 9135625460 Фамилия: Смирнова Имя: Ирина Отчество: Александровна</v>
       </c>
       <c r="R147" t="s">
         <v>959</v>
       </c>
-    </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA147" t="str">
+        <f t="shared" si="5"/>
+        <v>phone: +7 9135625460 surname: Смирнова name: Ирина patronymic: Александровна,</v>
+      </c>
+      <c r="AB147" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="148" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>500</v>
       </c>
@@ -10075,14 +11636,21 @@
         <v>126</v>
       </c>
       <c r="H148" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>,Номер телефона: +7 9135625461 Фамилия: Тимонина Имя: Елена Отчество: Анатольевна</v>
       </c>
       <c r="R148" t="s">
         <v>960</v>
       </c>
-    </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA148" t="str">
+        <f t="shared" si="5"/>
+        <v>phone: +7 9135625461 surname: Тимонина name: Елена patronymic: Анатольевна,</v>
+      </c>
+      <c r="AB148" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="149" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>503</v>
       </c>
@@ -10099,14 +11667,21 @@
         <v>51</v>
       </c>
       <c r="H149" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>,Номер телефона: +7 9135625462 Фамилия: Базанкова Имя: Марина Отчество: Владимировна</v>
       </c>
       <c r="R149" t="s">
         <v>961</v>
       </c>
-    </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA149" t="str">
+        <f t="shared" si="5"/>
+        <v>phone: +7 9135625462 surname: Базанкова name: Марина patronymic: Владимировна,</v>
+      </c>
+      <c r="AB149" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="150" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>506</v>
       </c>
@@ -10123,14 +11698,21 @@
         <v>126</v>
       </c>
       <c r="H150" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>,Номер телефона: +7 9135625463 Фамилия: Криволуцкая Имя: Наталья Отчество: Анатольевна</v>
       </c>
       <c r="R150" t="s">
         <v>962</v>
       </c>
-    </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA150" t="str">
+        <f t="shared" si="5"/>
+        <v>phone: +7 9135625463 surname: Криволуцкая name: Наталья patronymic: Анатольевна,</v>
+      </c>
+      <c r="AB150" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="151" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>509</v>
       </c>
@@ -10147,14 +11729,21 @@
         <v>350</v>
       </c>
       <c r="H151" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>,Номер телефона: +7 9135625464 Фамилия: Федосеева Имя: Светлана Отчество: Константиновна</v>
       </c>
       <c r="R151" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA151" t="str">
+        <f t="shared" si="5"/>
+        <v>phone: +7 9135625464 surname: Федосеева name: Светлана patronymic: Константиновна,</v>
+      </c>
+      <c r="AB151" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="152" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>512</v>
       </c>
@@ -10171,14 +11760,21 @@
         <v>121</v>
       </c>
       <c r="H152" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>,Номер телефона: +7 9135625465 Фамилия: Исакова Имя: Елена Отчество: Васильевна</v>
       </c>
       <c r="R152" t="s">
         <v>964</v>
       </c>
-    </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA152" t="str">
+        <f t="shared" si="5"/>
+        <v>phone: +7 9135625465 surname: Исакова name: Елена patronymic: Васильевна,</v>
+      </c>
+      <c r="AB152" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="153" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>515</v>
       </c>
@@ -10195,14 +11791,21 @@
         <v>376</v>
       </c>
       <c r="H153" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>,Номер телефона: +7 9135625466 Фамилия: Соболева Имя: Татьяна Отчество: Ивановна</v>
       </c>
       <c r="R153" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA153" t="str">
+        <f t="shared" si="5"/>
+        <v>phone: +7 9135625466 surname: Соболева name: Татьяна patronymic: Ивановна,</v>
+      </c>
+      <c r="AB153" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="154" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>518</v>
       </c>
@@ -10219,14 +11822,21 @@
         <v>147</v>
       </c>
       <c r="H154" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>,Номер телефона: +7 9135625467 Фамилия: Асекритова Имя: Марина Отчество: Андреевна</v>
       </c>
       <c r="R154" t="s">
         <v>966</v>
       </c>
-    </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA154" t="str">
+        <f t="shared" si="5"/>
+        <v>phone: +7 9135625467 surname: Асекритова name: Марина patronymic: Андреевна,</v>
+      </c>
+      <c r="AB154" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="155" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>521</v>
       </c>
@@ -10243,14 +11853,21 @@
         <v>20</v>
       </c>
       <c r="H155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>,Номер телефона: +7 9135625468 Фамилия: Коротаева Имя: Алла Отчество: Николаевна</v>
       </c>
       <c r="R155" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA155" t="str">
+        <f t="shared" si="5"/>
+        <v>phone: +7 9135625468 surname: Коротаева name: Алла patronymic: Николаевна,</v>
+      </c>
+      <c r="AB155" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="156" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>525</v>
       </c>
@@ -10267,14 +11884,21 @@
         <v>528</v>
       </c>
       <c r="H156" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>,Номер телефона: +7 9135625470 Фамилия: Козлов Имя: Александр Отчество: Анатольевич</v>
       </c>
       <c r="R156" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA156" t="str">
+        <f t="shared" si="5"/>
+        <v>phone: +7 9135625470 surname: Козлов name: Александр patronymic: Анатольевич,</v>
+      </c>
+      <c r="AB156" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="157" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>529</v>
       </c>
@@ -10291,14 +11915,21 @@
         <v>532</v>
       </c>
       <c r="H157" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>,Номер телефона: +7 9135625471 Фамилия: Крылов Имя: Олег Отчество: Витальевич</v>
       </c>
       <c r="R157" t="s">
         <v>969</v>
       </c>
-    </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA157" t="str">
+        <f t="shared" si="5"/>
+        <v>phone: +7 9135625471 surname: Крылов name: Олег patronymic: Витальевич,</v>
+      </c>
+      <c r="AB157" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="158" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>533</v>
       </c>
@@ -10315,14 +11946,21 @@
         <v>56</v>
       </c>
       <c r="H158" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>,Номер телефона: +7 9135625472 Фамилия: Малый Имя: Николай Отчество: Александрович</v>
       </c>
       <c r="R158" t="s">
         <v>970</v>
       </c>
-    </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA158" t="str">
+        <f t="shared" si="5"/>
+        <v>phone: +7 9135625472 surname: Малый name: Николай patronymic: Александрович,</v>
+      </c>
+      <c r="AB158" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="159" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>537</v>
       </c>
@@ -10339,14 +11977,21 @@
         <v>166</v>
       </c>
       <c r="H159" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>,Номер телефона: +7 9135625473 Фамилия: Киселева Имя: Ольга Отчество: Борисовна</v>
       </c>
       <c r="R159" t="s">
         <v>971</v>
       </c>
-    </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA159" t="str">
+        <f t="shared" si="5"/>
+        <v>phone: +7 9135625473 surname: Киселева name: Ольга patronymic: Борисовна,</v>
+      </c>
+      <c r="AB159" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="160" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>540</v>
       </c>
@@ -10363,14 +12008,21 @@
         <v>47</v>
       </c>
       <c r="H160" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>,Номер телефона: +7 9135625474 Фамилия: Лошкина Имя: Анна Отчество: Викторовна</v>
       </c>
       <c r="R160" t="s">
         <v>972</v>
       </c>
-    </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA160" t="str">
+        <f t="shared" si="5"/>
+        <v>phone: +7 9135625474 surname: Лошкина name: Анна patronymic: Викторовна,</v>
+      </c>
+      <c r="AB160" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="161" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>543</v>
       </c>
@@ -10387,14 +12039,21 @@
         <v>166</v>
       </c>
       <c r="H161" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>,Номер телефона: +7 9135625475 Фамилия: Тряскина Имя: Елена Отчество: Борисовна</v>
       </c>
       <c r="R161" t="s">
         <v>973</v>
       </c>
-    </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA161" t="str">
+        <f t="shared" si="5"/>
+        <v>phone: +7 9135625475 surname: Тряскина name: Елена patronymic: Борисовна,</v>
+      </c>
+      <c r="AB161" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="162" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>546</v>
       </c>
@@ -10411,14 +12070,21 @@
         <v>229</v>
       </c>
       <c r="H162" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>,Номер телефона: +7 9135625476 Фамилия: Синяк Имя: Борис Отчество: Николаевич</v>
       </c>
       <c r="R162" t="s">
         <v>974</v>
       </c>
-    </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA162" t="str">
+        <f t="shared" si="5"/>
+        <v>phone: +7 9135625476 surname: Синяк name: Борис patronymic: Николаевич,</v>
+      </c>
+      <c r="AB162" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="163" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>550</v>
       </c>
@@ -10435,14 +12101,21 @@
         <v>462</v>
       </c>
       <c r="H163" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>,Номер телефона: +7 9135625477 Фамилия: Егорычева Имя: Нина Отчество: Михайловна</v>
       </c>
       <c r="R163" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA163" t="str">
+        <f t="shared" si="5"/>
+        <v>phone: +7 9135625477 surname: Егорычева name: Нина patronymic: Михайловна,</v>
+      </c>
+      <c r="AB163" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="164" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>554</v>
       </c>
@@ -10459,14 +12132,21 @@
         <v>109</v>
       </c>
       <c r="H164" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>,Номер телефона: +7 9135625478 Фамилия: Рогова Имя: Ирина Отчество: Федоровна</v>
       </c>
       <c r="R164" t="s">
         <v>976</v>
       </c>
-    </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA164" t="str">
+        <f t="shared" si="5"/>
+        <v>phone: +7 9135625478 surname: Рогова name: Ирина patronymic: Федоровна,</v>
+      </c>
+      <c r="AB164" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="165" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>557</v>
       </c>
@@ -10483,14 +12163,21 @@
         <v>79</v>
       </c>
       <c r="H165" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>,Номер телефона: +7 9135625479 Фамилия: Киселева Имя: Ксения Отчество: Александровна</v>
       </c>
       <c r="R165" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA165" t="str">
+        <f t="shared" si="5"/>
+        <v>phone: +7 9135625479 surname: Киселева name: Ксения patronymic: Александровна,</v>
+      </c>
+      <c r="AB165" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="166" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>560</v>
       </c>
@@ -10507,14 +12194,21 @@
         <v>51</v>
       </c>
       <c r="H166" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>,Номер телефона: +7 9135625480 Фамилия: Козина Имя: Ирина Отчество: Владимировна</v>
       </c>
       <c r="R166" t="s">
         <v>978</v>
       </c>
-    </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA166" t="str">
+        <f t="shared" si="5"/>
+        <v>phone: +7 9135625480 surname: Козина name: Ирина patronymic: Владимировна,</v>
+      </c>
+      <c r="AB166" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="167" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>563</v>
       </c>
@@ -10531,14 +12225,21 @@
         <v>126</v>
       </c>
       <c r="H167" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>,Номер телефона: +7 9135625481 Фамилия: Розанова Имя: Марина Отчество: Анатольевна</v>
       </c>
       <c r="R167" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA167" t="str">
+        <f t="shared" si="5"/>
+        <v>phone: +7 9135625481 surname: Розанова name: Марина patronymic: Анатольевна,</v>
+      </c>
+      <c r="AB167" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="168" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>566</v>
       </c>
@@ -10555,14 +12256,21 @@
         <v>25</v>
       </c>
       <c r="H168" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>,Номер телефона: +7 9135625482 Фамилия: Тихомирова Имя: Светлана Отчество: Валентиновна</v>
       </c>
       <c r="R168" t="s">
         <v>980</v>
       </c>
-    </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA168" t="str">
+        <f t="shared" si="5"/>
+        <v>phone: +7 9135625482 surname: Тихомирова name: Светлана patronymic: Валентиновна,</v>
+      </c>
+      <c r="AB168" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="169" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>568</v>
       </c>
@@ -10579,14 +12287,21 @@
         <v>126</v>
       </c>
       <c r="H169" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>,Номер телефона: +7 9135626482 Фамилия: Лошкина Имя: Ирина Отчество: Анатольевна</v>
       </c>
       <c r="R169" t="s">
         <v>981</v>
       </c>
-    </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA169" t="str">
+        <f t="shared" si="5"/>
+        <v>phone: +7 9135626482 surname: Лошкина name: Ирина patronymic: Анатольевна,</v>
+      </c>
+      <c r="AB169" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="170" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>570</v>
       </c>
@@ -10603,14 +12318,21 @@
         <v>51</v>
       </c>
       <c r="H170" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>,Номер телефона: +7 9135625483 Фамилия: Дмитриева Имя: Елена Отчество: Владимировна</v>
       </c>
       <c r="R170" t="s">
         <v>982</v>
       </c>
-    </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA170" t="str">
+        <f t="shared" si="5"/>
+        <v>phone: +7 9135625483 surname: Дмитриева name: Елена patronymic: Владимировна,</v>
+      </c>
+      <c r="AB170" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="171" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>573</v>
       </c>
@@ -10627,14 +12349,21 @@
         <v>576</v>
       </c>
       <c r="H171" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>,Номер телефона: +7 9135625484 Фамилия: Шумкова Имя: Наталья Отчество: Жоржевна</v>
       </c>
       <c r="R171" t="s">
         <v>983</v>
       </c>
-    </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA171" t="str">
+        <f t="shared" si="5"/>
+        <v>phone: +7 9135625484 surname: Шумкова name: Наталья patronymic: Жоржевна,</v>
+      </c>
+      <c r="AB171" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="172" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>577</v>
       </c>
@@ -10651,14 +12380,21 @@
         <v>147</v>
       </c>
       <c r="H172" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>,Номер телефона: +7 9135625485 Фамилия: Фролова Имя: Светлана Отчество: Андреевна</v>
       </c>
       <c r="R172" t="s">
         <v>984</v>
       </c>
-    </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA172" t="str">
+        <f t="shared" si="5"/>
+        <v>phone: +7 9135625485 surname: Фролова name: Светлана patronymic: Андреевна,</v>
+      </c>
+      <c r="AB172" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="173" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>579</v>
       </c>
@@ -10675,14 +12411,21 @@
         <v>346</v>
       </c>
       <c r="H173" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>,Номер телефона: +7 9135455331 Фамилия: Попова Имя: Гузалия Отчество: Минулловна</v>
       </c>
       <c r="R173" t="s">
         <v>985</v>
       </c>
-    </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA173" t="str">
+        <f t="shared" si="5"/>
+        <v>phone: +7 9135455331 surname: Попова name: Гузалия patronymic: Минулловна,</v>
+      </c>
+      <c r="AB173" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="174" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>581</v>
       </c>
@@ -10699,14 +12442,21 @@
         <v>56</v>
       </c>
       <c r="H174" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>,Номер телефона: +7 9135455411 Фамилия: Колотильщикова Имя: Борис Отчество: Александрович</v>
       </c>
       <c r="R174" t="s">
         <v>986</v>
       </c>
-    </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA174" t="str">
+        <f t="shared" si="5"/>
+        <v>phone: +7 9135455411 surname: Колотильщикова name: Борис patronymic: Александрович,</v>
+      </c>
+      <c r="AB174" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="175" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>584</v>
       </c>
@@ -10723,14 +12473,21 @@
         <v>51</v>
       </c>
       <c r="H175" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>,Номер телефона: +7 9135465411 Фамилия: Сомикова Имя: Светлана Отчество: Владимировна</v>
       </c>
       <c r="R175" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA175" t="str">
+        <f t="shared" si="5"/>
+        <v>phone: +7 9135465411 surname: Сомикова name: Светлана patronymic: Владимировна,</v>
+      </c>
+      <c r="AB175" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="176" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>585</v>
       </c>
@@ -10747,14 +12504,21 @@
         <v>47</v>
       </c>
       <c r="H176" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>,Номер телефона: +7 9135473411 Фамилия: Михайловская Имя: Юлия Отчество: Викторовна</v>
       </c>
       <c r="R176" t="s">
         <v>988</v>
       </c>
-    </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA176" t="str">
+        <f t="shared" si="5"/>
+        <v>phone: +7 9135473411 surname: Михайловская name: Юлия patronymic: Викторовна,</v>
+      </c>
+      <c r="AB176" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="177" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>588</v>
       </c>
@@ -10771,14 +12535,21 @@
         <v>592</v>
       </c>
       <c r="H177" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>,Номер телефона: +7 9135455481 Фамилия: Никитина Имя: Гамиля Отчество: Хаджимуратовна</v>
       </c>
       <c r="R177" t="s">
         <v>989</v>
       </c>
-    </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA177" t="str">
+        <f t="shared" si="5"/>
+        <v>phone: +7 9135455481 surname: Никитина name: Гамиля patronymic: Хаджимуратовна,</v>
+      </c>
+      <c r="AB177" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="178" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>593</v>
       </c>
@@ -10795,14 +12566,21 @@
         <v>126</v>
       </c>
       <c r="H178" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>,Номер телефона: +7 9135455421 Фамилия: Фунтова Имя: Надежда Отчество: Анатольевна</v>
       </c>
       <c r="R178" t="s">
         <v>990</v>
       </c>
-    </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA178" t="str">
+        <f t="shared" si="5"/>
+        <v>phone: +7 9135455421 surname: Фунтова name: Надежда patronymic: Анатольевна,</v>
+      </c>
+      <c r="AB178" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="179" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>596</v>
       </c>
@@ -10819,14 +12597,21 @@
         <v>126</v>
       </c>
       <c r="H179" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>,Номер телефона: +7 9135455381 Фамилия: Соловьева Имя: Наталья Отчество: Анатольевна</v>
       </c>
       <c r="R179" t="s">
         <v>991</v>
       </c>
-    </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA179" t="str">
+        <f t="shared" si="5"/>
+        <v>phone: +7 9135455381 surname: Соловьева name: Наталья patronymic: Анатольевна,</v>
+      </c>
+      <c r="AB179" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="180" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>598</v>
       </c>
@@ -10843,14 +12628,21 @@
         <v>20</v>
       </c>
       <c r="H180" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>,Номер телефона: +7 9135455311 Фамилия: Серова Имя: Елена Отчество: Николаевна</v>
       </c>
       <c r="R180" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA180" t="str">
+        <f t="shared" si="5"/>
+        <v>phone: +7 9135455311 surname: Серова name: Елена patronymic: Николаевна,</v>
+      </c>
+      <c r="AB180" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="181" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>600</v>
       </c>
@@ -10867,14 +12659,21 @@
         <v>126</v>
       </c>
       <c r="H181" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>,Номер телефона: +7 9135455481 Фамилия: Шемягина Имя: Людмила Отчество: Анатольевна</v>
       </c>
       <c r="R181" t="s">
         <v>993</v>
       </c>
-    </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA181" t="str">
+        <f t="shared" si="5"/>
+        <v>phone: +7 9135455481 surname: Шемягина name: Людмила patronymic: Анатольевна,</v>
+      </c>
+      <c r="AB181" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="182" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>602</v>
       </c>
@@ -10891,14 +12690,21 @@
         <v>20</v>
       </c>
       <c r="H182" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>,Номер телефона: +7 9135455481 Фамилия: Дружинина Имя: Ольга Отчество: Николаевна</v>
       </c>
       <c r="R182" t="s">
         <v>994</v>
       </c>
-    </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA182" t="str">
+        <f t="shared" si="5"/>
+        <v>phone: +7 9135455481 surname: Дружинина name: Ольга patronymic: Николаевна,</v>
+      </c>
+      <c r="AB182" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="183" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>603</v>
       </c>
@@ -10915,14 +12721,21 @@
         <v>325</v>
       </c>
       <c r="H183" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>,Номер телефона: +7 9135455431 Фамилия: Золянова Имя: Надежда Отчество: Олеговна</v>
       </c>
       <c r="R183" t="s">
         <v>995</v>
       </c>
-    </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA183" t="str">
+        <f t="shared" si="5"/>
+        <v>phone: +7 9135455431 surname: Золянова name: Надежда patronymic: Олеговна,</v>
+      </c>
+      <c r="AB183" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="184" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>606</v>
       </c>
@@ -10939,14 +12752,21 @@
         <v>179</v>
       </c>
       <c r="H184" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>,Номер телефона: +7 9135455431 Фамилия: Никифорова Имя: Юлия Отчество: Сергеевна</v>
       </c>
       <c r="R184" t="s">
         <v>996</v>
       </c>
-    </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA184" t="str">
+        <f t="shared" si="5"/>
+        <v>phone: +7 9135455431 surname: Никифорова name: Юлия patronymic: Сергеевна,</v>
+      </c>
+      <c r="AB184" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="185" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>608</v>
       </c>
@@ -10963,14 +12783,21 @@
         <v>376</v>
       </c>
       <c r="H185" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>,Номер телефона: +7 9135455402 Фамилия: Махова Имя: Лидия Отчество: Ивановна</v>
       </c>
       <c r="R185" t="s">
         <v>997</v>
       </c>
-    </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA185" t="str">
+        <f t="shared" si="5"/>
+        <v>phone: +7 9135455402 surname: Махова name: Лидия patronymic: Ивановна,</v>
+      </c>
+      <c r="AB185" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="186" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>612</v>
       </c>
@@ -10987,14 +12814,21 @@
         <v>158</v>
       </c>
       <c r="H186" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>,Номер телефона: +7 9135642238 Фамилия: Антонюк Имя: Елена Отчество: Юрьевна</v>
       </c>
       <c r="R186" t="s">
         <v>998</v>
       </c>
-    </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA186" t="str">
+        <f t="shared" si="5"/>
+        <v>phone: +7 9135642238 surname: Антонюк name: Елена patronymic: Юрьевна,</v>
+      </c>
+      <c r="AB186" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="187" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>615</v>
       </c>
@@ -11011,14 +12845,21 @@
         <v>51</v>
       </c>
       <c r="H187" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>,Номер телефона: +7 9135642237 Фамилия: Лукоянова Имя: Виктория Отчество: Владимировна</v>
       </c>
       <c r="R187" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA187" t="str">
+        <f t="shared" si="5"/>
+        <v>phone: +7 9135642237 surname: Лукоянова name: Виктория patronymic: Владимировна,</v>
+      </c>
+      <c r="AB187" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="188" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>618</v>
       </c>
@@ -11035,14 +12876,21 @@
         <v>229</v>
       </c>
       <c r="H188" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>,Номер телефона: +7 9135642240 Фамилия: Молчанова Имя: Александр Отчество: Николаевич</v>
       </c>
       <c r="R188" t="s">
         <v>1000</v>
       </c>
-    </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA188" t="str">
+        <f t="shared" si="5"/>
+        <v>phone: +7 9135642240 surname: Молчанова name: Александр patronymic: Николаевич,</v>
+      </c>
+      <c r="AB188" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="189" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>621</v>
       </c>
@@ -11059,14 +12907,21 @@
         <v>204</v>
       </c>
       <c r="H189" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>,Номер телефона: +7 9135642237 Фамилия: Федосеева Имя: Ольга Отчество: Игоревна</v>
       </c>
       <c r="R189" t="s">
         <v>1001</v>
       </c>
-    </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA189" t="str">
+        <f t="shared" si="5"/>
+        <v>phone: +7 9135642237 surname: Федосеева name: Ольга patronymic: Игоревна,</v>
+      </c>
+      <c r="AB189" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="190" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>622</v>
       </c>
@@ -11083,14 +12938,21 @@
         <v>15</v>
       </c>
       <c r="H190" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>,Номер телефона: +7 9135642237 Фамилия: Антонюк Имя: Евгений Отчество: Валерьевич</v>
       </c>
       <c r="R190" t="s">
         <v>1002</v>
       </c>
-    </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA190" t="str">
+        <f t="shared" si="5"/>
+        <v>phone: +7 9135642237 surname: Антонюк name: Евгений patronymic: Валерьевич,</v>
+      </c>
+      <c r="AB190" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="191" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>623</v>
       </c>
@@ -11107,14 +12969,21 @@
         <v>79</v>
       </c>
       <c r="H191" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>,Номер телефона: +7 9135625491 Фамилия: Сомикова Имя: Мария Отчество: Александровна</v>
       </c>
       <c r="R191" t="s">
         <v>1003</v>
       </c>
-    </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA191" t="str">
+        <f t="shared" si="5"/>
+        <v>phone: +7 9135625491 surname: Сомикова name: Мария patronymic: Александровна,</v>
+      </c>
+      <c r="AB191" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="192" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>626</v>
       </c>
@@ -11131,14 +13000,21 @@
         <v>629</v>
       </c>
       <c r="H192" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>,Номер телефона: +7 9135642239 Фамилия: Горшенин Имя: Сергей Отчество: Валентинович</v>
       </c>
       <c r="R192" t="s">
         <v>1004</v>
       </c>
-    </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA192" t="str">
+        <f t="shared" si="5"/>
+        <v>phone: +7 9135642239 surname: Горшенин name: Сергей patronymic: Валентинович,</v>
+      </c>
+      <c r="AB192" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="193" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>630</v>
       </c>
@@ -11155,14 +13031,21 @@
         <v>56</v>
       </c>
       <c r="H193" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>,Номер телефона: +7 9135642239 Фамилия: Балашов Имя: Павел Отчество: Александрович</v>
       </c>
       <c r="R193" t="s">
         <v>1005</v>
       </c>
-    </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA193" t="str">
+        <f t="shared" si="5"/>
+        <v>phone: +7 9135642239 surname: Балашов name: Павел patronymic: Александрович,</v>
+      </c>
+      <c r="AB193" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="194" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>633</v>
       </c>
@@ -11179,11 +13062,18 @@
         <v>20</v>
       </c>
       <c r="H194" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>,Номер телефона: +79135625492 Фамилия: Палибина Имя: Наталья Отчество: Николаевна</v>
       </c>
       <c r="R194" t="s">
         <v>1006</v>
+      </c>
+      <c r="AA194" t="str">
+        <f t="shared" si="5"/>
+        <v>phone: +79135625492 surname: Палибина name: Наталья patronymic: Николаевна,</v>
+      </c>
+      <c r="AB194" t="s">
+        <v>1195</v>
       </c>
     </row>
   </sheetData>

--- a/Sem/Sem_001.xlsx
+++ b/Sem/Sem_001.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2273" uniqueCount="1196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2279" uniqueCount="1196">
   <si>
     <t>phone:</t>
   </si>
@@ -1724,9 +1724,6 @@
     <t>U164</t>
   </si>
   <si>
-    <t>8-913-5</t>
-  </si>
-  <si>
     <t>U165</t>
   </si>
   <si>
@@ -3603,19 +3600,28 @@
   </si>
   <si>
     <t>phone: +79135625492 surname: Палибина name: Наталья patronymic: Николаевна,</t>
+  </si>
+  <si>
+    <t>8-913-545-54-12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3638,9 +3644,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3947,8 +3959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E190"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E190"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3980,16 +3992,16 @@
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3997,16 +4009,16 @@
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4014,16 +4026,16 @@
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4031,16 +4043,16 @@
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4048,16 +4060,16 @@
       <c r="A6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4065,16 +4077,16 @@
       <c r="A7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4082,16 +4094,16 @@
       <c r="A8" t="s">
         <v>36</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4099,16 +4111,16 @@
       <c r="A9" t="s">
         <v>39</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4116,16 +4128,16 @@
       <c r="A10" t="s">
         <v>43</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4133,16 +4145,16 @@
       <c r="A11" t="s">
         <v>48</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4150,16 +4162,16 @@
       <c r="A12" t="s">
         <v>52</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4167,16 +4179,16 @@
       <c r="A13" t="s">
         <v>57</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4184,16 +4196,16 @@
       <c r="A14" t="s">
         <v>61</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="3" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4201,16 +4213,16 @@
       <c r="A15" t="s">
         <v>66</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="3" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4218,16 +4230,16 @@
       <c r="A16" t="s">
         <v>70</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4235,16 +4247,16 @@
       <c r="A17" t="s">
         <v>73</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4252,16 +4264,16 @@
       <c r="A18" t="s">
         <v>76</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="3" t="s">
         <v>79</v>
       </c>
     </row>
@@ -4269,16 +4281,16 @@
       <c r="A19" t="s">
         <v>80</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4286,16 +4298,16 @@
       <c r="A20" t="s">
         <v>83</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4303,16 +4315,16 @@
       <c r="A21" t="s">
         <v>86</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -4320,16 +4332,16 @@
       <c r="A22" t="s">
         <v>90</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="3" t="s">
         <v>94</v>
       </c>
     </row>
@@ -4337,16 +4349,16 @@
       <c r="A23" t="s">
         <v>95</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="3" t="s">
         <v>79</v>
       </c>
     </row>
@@ -4354,16 +4366,16 @@
       <c r="A24" t="s">
         <v>98</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4371,16 +4383,16 @@
       <c r="A25" t="s">
         <v>102</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="3" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4388,16 +4400,16 @@
       <c r="A26" t="s">
         <v>105</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="3" t="s">
         <v>109</v>
       </c>
     </row>
@@ -4405,16 +4417,16 @@
       <c r="A27" t="s">
         <v>110</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4422,16 +4434,16 @@
       <c r="A28" t="s">
         <v>113</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4439,16 +4451,16 @@
       <c r="A29" t="s">
         <v>117</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="3" t="s">
         <v>121</v>
       </c>
     </row>
@@ -4456,16 +4468,16 @@
       <c r="A30" t="s">
         <v>122</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="3" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4473,16 +4485,16 @@
       <c r="A31" t="s">
         <v>127</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4490,16 +4502,16 @@
       <c r="A32" t="s">
         <v>129</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4507,16 +4519,16 @@
       <c r="A33" t="s">
         <v>133</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4524,16 +4536,16 @@
       <c r="A34" t="s">
         <v>136</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="3" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4541,16 +4553,16 @@
       <c r="A35" t="s">
         <v>139</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="3" t="s">
         <v>79</v>
       </c>
     </row>
@@ -4558,16 +4570,16 @@
       <c r="A36" t="s">
         <v>143</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="3" t="s">
         <v>147</v>
       </c>
     </row>
@@ -4575,16 +4587,16 @@
       <c r="A37" t="s">
         <v>148</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4592,16 +4604,16 @@
       <c r="A38" t="s">
         <v>152</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4609,16 +4621,16 @@
       <c r="A39" t="s">
         <v>155</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="3" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4626,16 +4638,16 @@
       <c r="A40" t="s">
         <v>159</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4643,16 +4655,16 @@
       <c r="A41" t="s">
         <v>162</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="3" t="s">
         <v>166</v>
       </c>
     </row>
@@ -4660,16 +4672,16 @@
       <c r="A42" t="s">
         <v>167</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="3" t="s">
         <v>166</v>
       </c>
     </row>
@@ -4677,16 +4689,16 @@
       <c r="A43" t="s">
         <v>170</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4694,16 +4706,16 @@
       <c r="A44" t="s">
         <v>173</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4711,16 +4723,16 @@
       <c r="A45" t="s">
         <v>176</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="3" t="s">
         <v>179</v>
       </c>
     </row>
@@ -4728,16 +4740,16 @@
       <c r="A46" t="s">
         <v>180</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4745,16 +4757,16 @@
       <c r="A47" t="s">
         <v>183</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4762,16 +4774,16 @@
       <c r="A48" t="s">
         <v>187</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4779,16 +4791,16 @@
       <c r="A49" t="s">
         <v>191</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="3" t="s">
         <v>193</v>
       </c>
     </row>
@@ -4796,16 +4808,16 @@
       <c r="A50" t="s">
         <v>194</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="3" t="s">
         <v>196</v>
       </c>
     </row>
@@ -4813,16 +4825,16 @@
       <c r="A51" t="s">
         <v>197</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="3" t="s">
         <v>200</v>
       </c>
     </row>
@@ -4830,16 +4842,16 @@
       <c r="A52" t="s">
         <v>201</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="3" t="s">
         <v>204</v>
       </c>
     </row>
@@ -4847,16 +4859,16 @@
       <c r="A53" t="s">
         <v>205</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="3" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4864,16 +4876,16 @@
       <c r="A54" t="s">
         <v>208</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="3" t="s">
         <v>179</v>
       </c>
     </row>
@@ -4881,16 +4893,16 @@
       <c r="A55" t="s">
         <v>210</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="3" t="s">
         <v>79</v>
       </c>
     </row>
@@ -4898,16 +4910,16 @@
       <c r="A56" t="s">
         <v>213</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="3" t="s">
         <v>216</v>
       </c>
     </row>
@@ -4915,16 +4927,16 @@
       <c r="A57" t="s">
         <v>217</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="3" t="s">
         <v>179</v>
       </c>
     </row>
@@ -4932,16 +4944,16 @@
       <c r="A58" t="s">
         <v>220</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4949,16 +4961,16 @@
       <c r="A59" t="s">
         <v>223</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="3" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4966,16 +4978,16 @@
       <c r="A60" t="s">
         <v>227</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="3" t="s">
         <v>229</v>
       </c>
     </row>
@@ -4983,16 +4995,16 @@
       <c r="A61" t="s">
         <v>230</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="3" t="s">
         <v>233</v>
       </c>
     </row>
@@ -5000,16 +5012,16 @@
       <c r="A62" t="s">
         <v>234</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="3" t="s">
         <v>126</v>
       </c>
     </row>
@@ -5017,16 +5029,16 @@
       <c r="A63" t="s">
         <v>237</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="3" t="s">
         <v>121</v>
       </c>
     </row>
@@ -5034,16 +5046,16 @@
       <c r="A64" t="s">
         <v>239</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="3" t="s">
         <v>243</v>
       </c>
     </row>
@@ -5051,16 +5063,16 @@
       <c r="A65" t="s">
         <v>244</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="3" t="s">
         <v>248</v>
       </c>
     </row>
@@ -5068,16 +5080,16 @@
       <c r="A66" t="s">
         <v>249</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -5085,16 +5097,16 @@
       <c r="A67" t="s">
         <v>253</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="3" t="s">
         <v>257</v>
       </c>
     </row>
@@ -5102,16 +5114,16 @@
       <c r="A68" t="s">
         <v>258</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5119,16 +5131,16 @@
       <c r="A69" t="s">
         <v>261</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="3" t="s">
         <v>264</v>
       </c>
     </row>
@@ -5136,16 +5148,16 @@
       <c r="A70" t="s">
         <v>265</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="3" t="s">
         <v>229</v>
       </c>
     </row>
@@ -5153,16 +5165,16 @@
       <c r="A71" t="s">
         <v>269</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" s="3" t="s">
         <v>272</v>
       </c>
     </row>
@@ -5170,16 +5182,16 @@
       <c r="A72" t="s">
         <v>273</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" s="3" t="s">
         <v>229</v>
       </c>
     </row>
@@ -5187,16 +5199,16 @@
       <c r="A73" t="s">
         <v>277</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" s="3" t="s">
         <v>272</v>
       </c>
     </row>
@@ -5204,16 +5216,16 @@
       <c r="A74" t="s">
         <v>281</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="3" t="s">
         <v>226</v>
       </c>
     </row>
@@ -5221,16 +5233,16 @@
       <c r="A75" t="s">
         <v>285</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5238,16 +5250,16 @@
       <c r="A76" t="s">
         <v>288</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="3" t="s">
         <v>243</v>
       </c>
     </row>
@@ -5255,16 +5267,16 @@
       <c r="A77" t="s">
         <v>292</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" s="3" t="s">
         <v>295</v>
       </c>
     </row>
@@ -5272,16 +5284,16 @@
       <c r="A78" t="s">
         <v>296</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E78" s="3" t="s">
         <v>243</v>
       </c>
     </row>
@@ -5289,16 +5301,16 @@
       <c r="A79" t="s">
         <v>299</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5306,16 +5318,16 @@
       <c r="A80" t="s">
         <v>302</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" s="3" t="s">
         <v>306</v>
       </c>
     </row>
@@ -5323,16 +5335,16 @@
       <c r="A81" t="s">
         <v>307</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" s="3" t="s">
         <v>166</v>
       </c>
     </row>
@@ -5340,16 +5352,16 @@
       <c r="A82" t="s">
         <v>310</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E82" s="3" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5357,16 +5369,16 @@
       <c r="A83" t="s">
         <v>314</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" s="3" t="s">
         <v>79</v>
       </c>
     </row>
@@ -5374,16 +5386,16 @@
       <c r="A84" t="s">
         <v>318</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E84" s="3" t="s">
         <v>193</v>
       </c>
     </row>
@@ -5391,16 +5403,16 @@
       <c r="A85" t="s">
         <v>320</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E85" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -5408,16 +5420,16 @@
       <c r="A86" t="s">
         <v>322</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E86" s="3" t="s">
         <v>325</v>
       </c>
     </row>
@@ -5425,16 +5437,16 @@
       <c r="A87" t="s">
         <v>326</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E87" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5442,16 +5454,16 @@
       <c r="A88" t="s">
         <v>329</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E88" s="3" t="s">
         <v>196</v>
       </c>
     </row>
@@ -5459,16 +5471,16 @@
       <c r="A89" t="s">
         <v>332</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E89" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5476,16 +5488,16 @@
       <c r="A90" t="s">
         <v>336</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E90" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5493,16 +5505,16 @@
       <c r="A91" t="s">
         <v>338</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5510,16 +5522,16 @@
       <c r="A92" t="s">
         <v>340</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E92" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -5527,16 +5539,16 @@
       <c r="A93" t="s">
         <v>342</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E93" s="3" t="s">
         <v>346</v>
       </c>
     </row>
@@ -5544,16 +5556,16 @@
       <c r="A94" t="s">
         <v>347</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E94" s="3" t="s">
         <v>350</v>
       </c>
     </row>
@@ -5561,16 +5573,16 @@
       <c r="A95" t="s">
         <v>351</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E95" s="3" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5578,16 +5590,16 @@
       <c r="A96" t="s">
         <v>354</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E96" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -5595,16 +5607,16 @@
       <c r="A97" t="s">
         <v>357</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E97" s="3" t="s">
         <v>126</v>
       </c>
     </row>
@@ -5612,16 +5624,16 @@
       <c r="A98" t="s">
         <v>360</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E98" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5629,16 +5641,16 @@
       <c r="A99" t="s">
         <v>363</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E99" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5646,16 +5658,16 @@
       <c r="A100" t="s">
         <v>366</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E100" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -5663,16 +5675,16 @@
       <c r="A101" t="s">
         <v>368</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E101" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5680,16 +5692,16 @@
       <c r="A102" t="s">
         <v>370</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E102" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -5697,16 +5709,16 @@
       <c r="A103" t="s">
         <v>373</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E103" s="3" t="s">
         <v>376</v>
       </c>
     </row>
@@ -5714,16 +5726,16 @@
       <c r="A104" t="s">
         <v>377</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E104" s="3" t="s">
         <v>193</v>
       </c>
     </row>
@@ -5731,16 +5743,16 @@
       <c r="A105" t="s">
         <v>380</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E105" s="3" t="s">
         <v>383</v>
       </c>
     </row>
@@ -5748,16 +5760,16 @@
       <c r="A106" t="s">
         <v>384</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E106" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5765,16 +5777,16 @@
       <c r="A107" t="s">
         <v>387</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E107" s="3" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5782,16 +5794,16 @@
       <c r="A108" t="s">
         <v>389</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E108" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -5799,16 +5811,16 @@
       <c r="A109" t="s">
         <v>392</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E109" s="3" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5816,16 +5828,16 @@
       <c r="A110" t="s">
         <v>395</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E110" s="3" t="s">
         <v>147</v>
       </c>
     </row>
@@ -5833,16 +5845,16 @@
       <c r="A111" t="s">
         <v>398</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E111" t="s">
+      <c r="E111" s="3" t="s">
         <v>179</v>
       </c>
     </row>
@@ -5850,16 +5862,16 @@
       <c r="A112" t="s">
         <v>401</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E112" s="3" t="s">
         <v>179</v>
       </c>
     </row>
@@ -5867,16 +5879,16 @@
       <c r="A113" t="s">
         <v>405</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E113" s="3" t="s">
         <v>121</v>
       </c>
     </row>
@@ -5884,16 +5896,16 @@
       <c r="A114" t="s">
         <v>409</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E114" s="3" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5901,16 +5913,16 @@
       <c r="A115" t="s">
         <v>412</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E115" t="s">
+      <c r="E115" s="3" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5918,16 +5930,16 @@
       <c r="A116" t="s">
         <v>415</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E116" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -5935,16 +5947,16 @@
       <c r="A117" t="s">
         <v>417</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E117" t="s">
+      <c r="E117" s="3" t="s">
         <v>419</v>
       </c>
     </row>
@@ -5952,16 +5964,16 @@
       <c r="A118" t="s">
         <v>420</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E118" t="s">
+      <c r="E118" s="3" t="s">
         <v>422</v>
       </c>
     </row>
@@ -5969,16 +5981,16 @@
       <c r="A119" t="s">
         <v>423</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="E119" t="s">
+      <c r="E119" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -5986,16 +5998,16 @@
       <c r="A120" t="s">
         <v>427</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E120" t="s">
+      <c r="E120" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -6003,16 +6015,16 @@
       <c r="A121" t="s">
         <v>430</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E121" s="3" t="s">
         <v>243</v>
       </c>
     </row>
@@ -6020,16 +6032,16 @@
       <c r="A122" t="s">
         <v>434</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D122" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E122" t="s">
+      <c r="E122" s="3" t="s">
         <v>166</v>
       </c>
     </row>
@@ -6037,16 +6049,16 @@
       <c r="A123" t="s">
         <v>437</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E123" t="s">
+      <c r="E123" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -6054,16 +6066,16 @@
       <c r="A124" t="s">
         <v>440</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D124" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="E124" t="s">
+      <c r="E124" s="3" t="s">
         <v>179</v>
       </c>
     </row>
@@ -6071,16 +6083,16 @@
       <c r="A125" t="s">
         <v>444</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E125" t="s">
+      <c r="E125" s="3" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6088,16 +6100,16 @@
       <c r="A126" t="s">
         <v>447</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D126" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E126" t="s">
+      <c r="E126" s="3" t="s">
         <v>166</v>
       </c>
     </row>
@@ -6105,16 +6117,16 @@
       <c r="A127" t="s">
         <v>450</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="E127" t="s">
+      <c r="E127" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -6122,16 +6134,16 @@
       <c r="A128" t="s">
         <v>453</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D128" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E128" t="s">
+      <c r="E128" s="3" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6139,16 +6151,16 @@
       <c r="A129" t="s">
         <v>456</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="E129" t="s">
+      <c r="E129" s="3" t="s">
         <v>158</v>
       </c>
     </row>
@@ -6156,16 +6168,16 @@
       <c r="A130" t="s">
         <v>459</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E130" t="s">
+      <c r="E130" s="3" t="s">
         <v>462</v>
       </c>
     </row>
@@ -6173,16 +6185,16 @@
       <c r="A131" t="s">
         <v>463</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D131" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E131" t="s">
+      <c r="E131" s="3" t="s">
         <v>462</v>
       </c>
     </row>
@@ -6190,16 +6202,16 @@
       <c r="A132" t="s">
         <v>466</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D132" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E132" t="s">
+      <c r="E132" s="3" t="s">
         <v>193</v>
       </c>
     </row>
@@ -6207,16 +6219,16 @@
       <c r="A133" t="s">
         <v>469</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="E133" t="s">
+      <c r="E133" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -6224,16 +6236,16 @@
       <c r="A134" t="s">
         <v>472</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D134" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E134" t="s">
+      <c r="E134" s="3" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6241,16 +6253,16 @@
       <c r="A135" t="s">
         <v>475</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D135" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="E135" t="s">
+      <c r="E135" s="3" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6258,16 +6270,16 @@
       <c r="A136" t="s">
         <v>477</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D136" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E136" t="s">
+      <c r="E136" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -6275,16 +6287,16 @@
       <c r="A137" t="s">
         <v>480</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D137" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="E137" t="s">
+      <c r="E137" s="3" t="s">
         <v>126</v>
       </c>
     </row>
@@ -6292,16 +6304,16 @@
       <c r="A138" t="s">
         <v>484</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D138" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="E138" t="s">
+      <c r="E138" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -6309,16 +6321,16 @@
       <c r="A139" t="s">
         <v>487</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D139" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E139" t="s">
+      <c r="E139" s="3" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6326,16 +6338,16 @@
       <c r="A140" t="s">
         <v>489</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D140" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="E140" t="s">
+      <c r="E140" s="3" t="s">
         <v>229</v>
       </c>
     </row>
@@ -6343,16 +6355,16 @@
       <c r="A141" t="s">
         <v>492</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D141" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E141" t="s">
+      <c r="E141" s="3" t="s">
         <v>229</v>
       </c>
     </row>
@@ -6360,16 +6372,16 @@
       <c r="A142" t="s">
         <v>495</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D142" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E142" t="s">
+      <c r="E142" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -6377,16 +6389,16 @@
       <c r="A143" t="s">
         <v>498</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D143" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E143" t="s">
+      <c r="E143" s="3" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6394,16 +6406,16 @@
       <c r="A144" t="s">
         <v>500</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D144" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E144" t="s">
+      <c r="E144" s="3" t="s">
         <v>126</v>
       </c>
     </row>
@@ -6411,16 +6423,16 @@
       <c r="A145" t="s">
         <v>503</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D145" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="E145" t="s">
+      <c r="E145" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -6428,16 +6440,16 @@
       <c r="A146" t="s">
         <v>506</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D146" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E146" t="s">
+      <c r="E146" s="3" t="s">
         <v>126</v>
       </c>
     </row>
@@ -6445,16 +6457,16 @@
       <c r="A147" t="s">
         <v>509</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D147" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E147" t="s">
+      <c r="E147" s="3" t="s">
         <v>350</v>
       </c>
     </row>
@@ -6462,16 +6474,16 @@
       <c r="A148" t="s">
         <v>512</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C148" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D148" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E148" t="s">
+      <c r="E148" s="3" t="s">
         <v>121</v>
       </c>
     </row>
@@ -6479,16 +6491,16 @@
       <c r="A149" t="s">
         <v>515</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C149" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D149" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E149" t="s">
+      <c r="E149" s="3" t="s">
         <v>376</v>
       </c>
     </row>
@@ -6496,16 +6508,16 @@
       <c r="A150" t="s">
         <v>518</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D150" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="E150" t="s">
+      <c r="E150" s="3" t="s">
         <v>147</v>
       </c>
     </row>
@@ -6513,16 +6525,16 @@
       <c r="A151" t="s">
         <v>521</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C151" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D151" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="E151" t="s">
+      <c r="E151" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -6530,16 +6542,16 @@
       <c r="A152" t="s">
         <v>525</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C152" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D152" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E152" t="s">
+      <c r="E152" s="3" t="s">
         <v>528</v>
       </c>
     </row>
@@ -6547,16 +6559,16 @@
       <c r="A153" t="s">
         <v>529</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C153" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D153" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="E153" t="s">
+      <c r="E153" s="3" t="s">
         <v>532</v>
       </c>
     </row>
@@ -6564,16 +6576,16 @@
       <c r="A154" t="s">
         <v>533</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C154" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="D154" t="s">
+      <c r="D154" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="E154" t="s">
+      <c r="E154" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -6581,16 +6593,16 @@
       <c r="A155" t="s">
         <v>537</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C155" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D155" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E155" t="s">
+      <c r="E155" s="3" t="s">
         <v>166</v>
       </c>
     </row>
@@ -6598,16 +6610,16 @@
       <c r="A156" t="s">
         <v>540</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C156" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D156" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E156" t="s">
+      <c r="E156" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6615,16 +6627,16 @@
       <c r="A157" t="s">
         <v>543</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C157" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D157" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E157" t="s">
+      <c r="E157" s="3" t="s">
         <v>166</v>
       </c>
     </row>
@@ -6632,16 +6644,16 @@
       <c r="A158" t="s">
         <v>546</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C158" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D158" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="E158" t="s">
+      <c r="E158" s="3" t="s">
         <v>229</v>
       </c>
     </row>
@@ -6649,16 +6661,16 @@
       <c r="A159" t="s">
         <v>550</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C159" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="D159" t="s">
+      <c r="D159" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="E159" t="s">
+      <c r="E159" s="3" t="s">
         <v>462</v>
       </c>
     </row>
@@ -6666,16 +6678,16 @@
       <c r="A160" t="s">
         <v>554</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C160" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D160" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E160" t="s">
+      <c r="E160" s="3" t="s">
         <v>109</v>
       </c>
     </row>
@@ -6683,16 +6695,16 @@
       <c r="A161" t="s">
         <v>557</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C161" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D161" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="E161" t="s">
+      <c r="E161" s="3" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6700,16 +6712,16 @@
       <c r="A162" t="s">
         <v>560</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C162" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D162" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E162" t="s">
+      <c r="E162" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -6717,16 +6729,16 @@
       <c r="A163" t="s">
         <v>563</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C163" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D163" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="E163" t="s">
+      <c r="E163" s="3" t="s">
         <v>126</v>
       </c>
     </row>
@@ -6734,16 +6746,16 @@
       <c r="A164" t="s">
         <v>566</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C164" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D164" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E164" t="s">
+      <c r="E164" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -6751,423 +6763,441 @@
       <c r="A165" t="s">
         <v>568</v>
       </c>
-      <c r="B165" t="s">
-        <v>569</v>
+      <c r="B165" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
+        <v>569</v>
+      </c>
+      <c r="B166" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="B166" t="s">
+      <c r="C166" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="C166" t="s">
-        <v>572</v>
-      </c>
-      <c r="D166" t="s">
+      <c r="D166" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E166" t="s">
+      <c r="E166" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
+        <v>572</v>
+      </c>
+      <c r="B167" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="B167" t="s">
+      <c r="C167" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="C167" t="s">
+      <c r="D167" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E167" s="3" t="s">
         <v>575</v>
-      </c>
-      <c r="D167" t="s">
-        <v>120</v>
-      </c>
-      <c r="E167" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
+        <v>576</v>
+      </c>
+      <c r="B168" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="B168" t="s">
-        <v>578</v>
-      </c>
-      <c r="C168" t="s">
+      <c r="C168" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D168" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E168" t="s">
+      <c r="E168" s="3" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
+        <v>578</v>
+      </c>
+      <c r="B169" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="B169" t="s">
-        <v>580</v>
-      </c>
-      <c r="C169" t="s">
+      <c r="C169" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D169" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="E169" t="s">
+      <c r="E169" s="3" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
+        <v>580</v>
+      </c>
+      <c r="B170" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="B170" t="s">
+      <c r="C170" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="C170" t="s">
-        <v>583</v>
+      <c r="D170" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>584</v>
-      </c>
-      <c r="B171" t="s">
-        <v>569</v>
-      </c>
-      <c r="C171" t="s">
+        <v>583</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C171" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D171" t="s">
+      <c r="D171" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E171" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
+        <v>584</v>
+      </c>
+      <c r="B172" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="B172" t="s">
+      <c r="C172" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="C172" t="s">
-        <v>587</v>
-      </c>
-      <c r="D172" t="s">
+      <c r="D172" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="E172" t="s">
+      <c r="E172" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
+        <v>587</v>
+      </c>
+      <c r="B173" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="B173" t="s">
+      <c r="C173" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="C173" t="s">
+      <c r="D173" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="D173" t="s">
+      <c r="E173" s="3" t="s">
         <v>591</v>
-      </c>
-      <c r="E173" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
+        <v>592</v>
+      </c>
+      <c r="B174" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="B174" t="s">
+      <c r="C174" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="C174" t="s">
-        <v>595</v>
-      </c>
-      <c r="D174" t="s">
+      <c r="D174" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="E174" t="s">
+      <c r="E174" s="3" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
+        <v>595</v>
+      </c>
+      <c r="B175" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="B175" t="s">
-        <v>597</v>
-      </c>
-      <c r="C175" t="s">
+      <c r="C175" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D175" t="s">
+      <c r="D175" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E175" t="s">
+      <c r="E175" s="3" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
+        <v>597</v>
+      </c>
+      <c r="B176" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="B176" t="s">
-        <v>599</v>
-      </c>
-      <c r="C176" t="s">
+      <c r="C176" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="D176" t="s">
+      <c r="D176" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E176" t="s">
+      <c r="E176" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>599</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="C177" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="B177" t="s">
-        <v>589</v>
-      </c>
-      <c r="C177" t="s">
-        <v>601</v>
-      </c>
-      <c r="D177" t="s">
+      <c r="D177" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="E177" t="s">
+      <c r="E177" s="3" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>602</v>
-      </c>
-      <c r="B178" t="s">
-        <v>589</v>
-      </c>
-      <c r="C178" t="s">
+        <v>601</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="C178" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D178" t="s">
+      <c r="D178" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E178" t="s">
+      <c r="E178" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
+        <v>602</v>
+      </c>
+      <c r="B179" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="B179" t="s">
+      <c r="C179" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="C179" t="s">
-        <v>605</v>
-      </c>
-      <c r="D179" t="s">
+      <c r="D179" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="E179" t="s">
+      <c r="E179" s="3" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
+        <v>605</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="C180" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="B180" t="s">
-        <v>604</v>
-      </c>
-      <c r="C180" t="s">
-        <v>607</v>
-      </c>
-      <c r="D180" t="s">
+      <c r="D180" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="E180" t="s">
+      <c r="E180" s="3" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
+        <v>607</v>
+      </c>
+      <c r="B181" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="B181" t="s">
+      <c r="C181" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="C181" t="s">
+      <c r="D181" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="D181" t="s">
-        <v>611</v>
-      </c>
-      <c r="E181" t="s">
+      <c r="E181" s="3" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
+        <v>611</v>
+      </c>
+      <c r="B182" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="B182" t="s">
+      <c r="C182" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="C182" t="s">
-        <v>614</v>
-      </c>
-      <c r="D182" t="s">
+      <c r="D182" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E182" t="s">
+      <c r="E182" s="3" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
+        <v>614</v>
+      </c>
+      <c r="B183" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="B183" t="s">
+      <c r="C183" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="C183" t="s">
-        <v>617</v>
-      </c>
-      <c r="D183" t="s">
+      <c r="D183" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="E183" t="s">
+      <c r="E183" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
+        <v>617</v>
+      </c>
+      <c r="B184" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="B184" t="s">
+      <c r="C184" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="C184" t="s">
-        <v>620</v>
-      </c>
-      <c r="D184" t="s">
+      <c r="D184" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E184" t="s">
+      <c r="E184" s="3" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>621</v>
-      </c>
-      <c r="B185" t="s">
-        <v>616</v>
-      </c>
-      <c r="C185" t="s">
+        <v>620</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="C185" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="D185" t="s">
+      <c r="D185" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E185" t="s">
+      <c r="E185" s="3" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>622</v>
-      </c>
-      <c r="B186" t="s">
-        <v>616</v>
-      </c>
-      <c r="C186" t="s">
-        <v>614</v>
-      </c>
-      <c r="D186" t="s">
+        <v>621</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="D186" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="E186" t="s">
+      <c r="E186" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
+        <v>622</v>
+      </c>
+      <c r="B187" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="B187" t="s">
+      <c r="C187" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="C187" t="s">
-        <v>625</v>
-      </c>
-      <c r="D187" t="s">
+      <c r="D187" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E187" t="s">
+      <c r="E187" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
+        <v>625</v>
+      </c>
+      <c r="B188" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="B188" t="s">
+      <c r="C188" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C188" t="s">
+      <c r="D188" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E188" s="3" t="s">
         <v>628</v>
-      </c>
-      <c r="D188" t="s">
-        <v>6</v>
-      </c>
-      <c r="E188" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
+        <v>629</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="C189" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="B189" t="s">
-        <v>627</v>
-      </c>
-      <c r="C189" t="s">
+      <c r="D189" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="D189" t="s">
-        <v>632</v>
-      </c>
-      <c r="E189" t="s">
+      <c r="E189" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
+        <v>632</v>
+      </c>
+      <c r="B190" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="B190" t="s">
+      <c r="C190" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="C190" t="s">
-        <v>635</v>
-      </c>
-      <c r="D190" t="s">
+      <c r="D190" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E190" t="s">
+      <c r="E190" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -7181,7 +7211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AB194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
@@ -7197,7 +7227,7 @@
   <sheetData>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="M3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -7205,16 +7235,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>642</v>
+      </c>
+      <c r="C5" t="s">
         <v>643</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>644</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>645</v>
-      </c>
-      <c r="E5" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -7222,7 +7252,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -7238,14 +7268,14 @@
         <v>,Номер телефона: +7 9065350252 Фамилия: Ложников Имя: Михаил Отчество: Михайлович</v>
       </c>
       <c r="R6" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="AA6" t="str">
         <f>CONCATENATE(R6,",")</f>
         <v>phone: +7 9065350252 surname: Ложников name: Михаил patronymic: Михайлович,</v>
       </c>
       <c r="AB6" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -7253,7 +7283,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -7269,14 +7299,14 @@
         <v>,Номер телефона: +7 9065350253 Фамилия: Чувиляев Имя: Сергей Отчество: Валерьевич</v>
       </c>
       <c r="R7" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="AA7" t="str">
-        <f t="shared" ref="AA7:AB70" si="1">CONCATENATE(R7,",")</f>
+        <f t="shared" ref="AA7:AA70" si="1">CONCATENATE(R7,",")</f>
         <v>phone: +7 9065350253 surname: Чувиляев name: Сергей patronymic: Валерьевич,</v>
       </c>
       <c r="AB7" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
@@ -7284,7 +7314,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -7300,14 +7330,14 @@
         <v>,Номер телефона: +7 9065513827 Фамилия: Соловьева Имя: Елена Отчество: Николаевна</v>
       </c>
       <c r="R8" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="AA8" t="str">
         <f t="shared" si="1"/>
         <v>phone: +7 9065513827 surname: Соловьева name: Елена patronymic: Николаевна,</v>
       </c>
       <c r="AB8" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -7315,7 +7345,7 @@
         <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C9" t="s">
         <v>23</v>
@@ -7331,14 +7361,14 @@
         <v>,Номер телефона: +7 9065356644 Фамилия: Кремешкова Имя: Ирина Отчество: Валентиновна</v>
       </c>
       <c r="R9" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="AA9" t="str">
         <f t="shared" si="1"/>
         <v>phone: +7 9065356644 surname: Кремешкова name: Ирина patronymic: Валентиновна,</v>
       </c>
       <c r="AB9" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
@@ -7346,7 +7376,7 @@
         <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -7362,14 +7392,14 @@
         <v>,Номер телефона: +7 9065391909 Фамилия: Шичкина Имя: Ольга Отчество: Алексеевна</v>
       </c>
       <c r="R10" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AA10" t="str">
         <f t="shared" si="1"/>
         <v>phone: +7 9065391909 surname: Шичкина name: Ольга patronymic: Алексеевна,</v>
       </c>
       <c r="AB10" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -7377,7 +7407,7 @@
         <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C11" t="s">
         <v>33</v>
@@ -7393,14 +7423,14 @@
         <v>,Номер телефона: +7 9135391910 Фамилия: Мадрахимов Имя: Бахтияр Отчество: Тургунбаевич</v>
       </c>
       <c r="R11" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="AA11" t="str">
         <f t="shared" si="1"/>
         <v>phone: +7 9135391910 surname: Мадрахимов name: Бахтияр patronymic: Тургунбаевич,</v>
       </c>
       <c r="AB11" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
@@ -7408,7 +7438,7 @@
         <v>36</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C12" t="s">
         <v>38</v>
@@ -7424,14 +7454,14 @@
         <v>,Номер телефона: +7 9135391911 Фамилия: Тарасова Имя: Елена Отчество: Николаевна</v>
       </c>
       <c r="R12" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="AA12" t="str">
         <f t="shared" si="1"/>
         <v>phone: +7 9135391911 surname: Тарасова name: Елена patronymic: Николаевна,</v>
       </c>
       <c r="AB12" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -7439,7 +7469,7 @@
         <v>39</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C13" t="s">
         <v>41</v>
@@ -7455,14 +7485,14 @@
         <v>,Номер телефона: +7 9135391915 Фамилия: Швецова Имя: Ольга Отчество: Петровна</v>
       </c>
       <c r="R13" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="AA13" t="str">
         <f t="shared" si="1"/>
         <v>phone: +7 9135391915 surname: Швецова name: Ольга patronymic: Петровна,</v>
       </c>
       <c r="AB13" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
@@ -7470,7 +7500,7 @@
         <v>43</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C14" t="s">
         <v>45</v>
@@ -7486,14 +7516,14 @@
         <v>,Номер телефона: +7 9135391948 Фамилия: Мальцева Имя: Жанна Отчество: Викторовна</v>
       </c>
       <c r="R14" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="AA14" t="str">
         <f t="shared" si="1"/>
         <v>phone: +7 9135391948 surname: Мальцева name: Жанна patronymic: Викторовна,</v>
       </c>
       <c r="AB14" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
@@ -7501,7 +7531,7 @@
         <v>48</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C15" t="s">
         <v>50</v>
@@ -7517,14 +7547,14 @@
         <v>,Номер телефона: +7 9135391913 Фамилия: Луговкина Имя: Елена Отчество: Владимировна</v>
       </c>
       <c r="R15" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="AA15" t="str">
         <f t="shared" si="1"/>
         <v>phone: +7 9135391913 surname: Луговкина name: Елена patronymic: Владимировна,</v>
       </c>
       <c r="AB15" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
@@ -7532,7 +7562,7 @@
         <v>52</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C16" t="s">
         <v>54</v>
@@ -7548,14 +7578,14 @@
         <v>,Номер телефона: +7 9135391914 Фамилия: Логинов Имя: Александр Отчество: Александрович</v>
       </c>
       <c r="R16" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="AA16" t="str">
         <f t="shared" si="1"/>
         <v>phone: +7 9135391914 surname: Логинов name: Александр patronymic: Александрович,</v>
       </c>
       <c r="AB16" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
@@ -7563,7 +7593,7 @@
         <v>57</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C17" t="s">
         <v>59</v>
@@ -7579,14 +7609,14 @@
         <v>,Номер телефона: +7 9135391919 Фамилия: Старкова Имя: Елена Отчество: Львовна</v>
       </c>
       <c r="R17" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="AA17" t="str">
         <f t="shared" si="1"/>
         <v>phone: +7 9135391919 surname: Старкова name: Елена patronymic: Львовна,</v>
       </c>
       <c r="AB17" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
@@ -7594,7 +7624,7 @@
         <v>61</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C18" t="s">
         <v>63</v>
@@ -7610,14 +7640,14 @@
         <v>,Номер телефона: +7 9135391907 Фамилия: Семенов Имя: Андрей Отчество: Геннадьевич</v>
       </c>
       <c r="R18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="AA18" t="str">
         <f t="shared" si="1"/>
         <v>phone: +7 9135391907 surname: Семенов name: Андрей patronymic: Геннадьевич,</v>
       </c>
       <c r="AB18" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
@@ -7625,7 +7655,7 @@
         <v>66</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C19" t="s">
         <v>68</v>
@@ -7641,14 +7671,14 @@
         <v>,Номер телефона: +7 9135391925 Фамилия: Волкова Имя: Ольга Отчество: Валерьевна</v>
       </c>
       <c r="R19" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="AA19" t="str">
         <f t="shared" si="1"/>
         <v>phone: +7 9135391925 surname: Волкова name: Ольга patronymic: Валерьевна,</v>
       </c>
       <c r="AB19" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
@@ -7656,7 +7686,7 @@
         <v>70</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C20" t="s">
         <v>72</v>
@@ -7672,14 +7702,14 @@
         <v>,Номер телефона: +7 9135391920 Фамилия: Васильева Имя: Ольга Отчество: Владимировна</v>
       </c>
       <c r="R20" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="AA20" t="str">
         <f t="shared" si="1"/>
         <v>phone: +7 9135391920 surname: Васильева name: Ольга patronymic: Владимировна,</v>
       </c>
       <c r="AB20" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
@@ -7687,7 +7717,7 @@
         <v>73</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C21" t="s">
         <v>75</v>
@@ -7703,14 +7733,14 @@
         <v>,Номер телефона: +7 9135391921 Фамилия: Антипина Имя: Ирина Отчество: Владимировна</v>
       </c>
       <c r="R21" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="AA21" t="str">
         <f t="shared" si="1"/>
         <v>phone: +7 9135391921 surname: Антипина name: Ирина patronymic: Владимировна,</v>
       </c>
       <c r="AB21" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
@@ -7718,7 +7748,7 @@
         <v>76</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C22" t="s">
         <v>78</v>
@@ -7734,14 +7764,14 @@
         <v>,Номер телефона: +7 9135391922 Фамилия: Кустова Имя: Ольга Отчество: Александровна</v>
       </c>
       <c r="R22" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="AA22" t="str">
         <f t="shared" si="1"/>
         <v>phone: +7 9135391922 surname: Кустова name: Ольга patronymic: Александровна,</v>
       </c>
       <c r="AB22" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
@@ -7749,7 +7779,7 @@
         <v>80</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C23" t="s">
         <v>82</v>
@@ -7765,14 +7795,14 @@
         <v>,Номер телефона: +7 9135391924 Фамилия: Капустина Имя: Ольга Отчество: Викторовна</v>
       </c>
       <c r="R23" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="AA23" t="str">
         <f t="shared" si="1"/>
         <v>phone: +7 9135391924 surname: Капустина name: Ольга patronymic: Викторовна,</v>
       </c>
       <c r="AB23" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
@@ -7780,7 +7810,7 @@
         <v>83</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C24" t="s">
         <v>85</v>
@@ -7796,14 +7826,14 @@
         <v>,Номер телефона: +7 9135391908 Фамилия: Веселова Имя: Ольга Отчество: Владимировна</v>
       </c>
       <c r="R24" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="AA24" t="str">
         <f t="shared" si="1"/>
         <v>phone: +7 9135391908 surname: Веселова name: Ольга patronymic: Владимировна,</v>
       </c>
       <c r="AB24" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
@@ -7811,7 +7841,7 @@
         <v>86</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C25" t="s">
         <v>88</v>
@@ -7827,14 +7857,14 @@
         <v>,Номер телефона: +7 9135391927 Фамилия: Максимова Имя: Ольга Отчество: Вячеславовна</v>
       </c>
       <c r="R25" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AA25" t="str">
         <f t="shared" si="1"/>
         <v>phone: +7 9135391927 surname: Максимова name: Ольга patronymic: Вячеславовна,</v>
       </c>
       <c r="AB25" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
@@ -7842,7 +7872,7 @@
         <v>90</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C26" t="s">
         <v>92</v>
@@ -7858,14 +7888,14 @@
         <v>,Номер телефона: +7 9135391926 Фамилия: Малышева Имя: Фаина Отчество: Павловна</v>
       </c>
       <c r="R26" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="AA26" t="str">
         <f t="shared" si="1"/>
         <v>phone: +7 9135391926 surname: Малышева name: Фаина patronymic: Павловна,</v>
       </c>
       <c r="AB26" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
@@ -7873,7 +7903,7 @@
         <v>95</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C27" t="s">
         <v>97</v>
@@ -7889,14 +7919,14 @@
         <v>,Номер телефона: +7 9135391928 Фамилия: Волина Имя: Ирина Отчество: Александровна</v>
       </c>
       <c r="R27" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="AA27" t="str">
         <f t="shared" si="1"/>
         <v>phone: +7 9135391928 surname: Волина name: Ирина patronymic: Александровна,</v>
       </c>
       <c r="AB27" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
@@ -7904,7 +7934,7 @@
         <v>98</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C28" t="s">
         <v>100</v>
@@ -7920,14 +7950,14 @@
         <v>,Номер телефона: +7 9135391929 Фамилия: Фролова Имя: Мария Отчество: Николаевна</v>
       </c>
       <c r="R28" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="AA28" t="str">
         <f t="shared" si="1"/>
         <v>phone: +7 9135391929 surname: Фролова name: Мария patronymic: Николаевна,</v>
       </c>
       <c r="AB28" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
@@ -7935,7 +7965,7 @@
         <v>102</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C29" t="s">
         <v>104</v>
@@ -7951,14 +7981,14 @@
         <v>,Номер телефона: +7 9135391906 Фамилия: Семенова Имя: Елена Отчество: Валерьевна</v>
       </c>
       <c r="R29" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="AA29" t="str">
         <f t="shared" si="1"/>
         <v>phone: +7 9135391906 surname: Семенова name: Елена patronymic: Валерьевна,</v>
       </c>
       <c r="AB29" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
@@ -7966,7 +7996,7 @@
         <v>105</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C30" t="s">
         <v>107</v>
@@ -7982,14 +8012,14 @@
         <v>,Номер телефона: +7 9135391923 Фамилия: Суворова Имя: Эльвира Отчество: Федоровна</v>
       </c>
       <c r="R30" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="AA30" t="str">
         <f t="shared" si="1"/>
         <v>phone: +7 9135391923 surname: Суворова name: Эльвира patronymic: Федоровна,</v>
       </c>
       <c r="AB30" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
@@ -7997,7 +8027,7 @@
         <v>110</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C31" t="s">
         <v>112</v>
@@ -8013,14 +8043,14 @@
         <v>,Номер телефона: +7 9135391916 Фамилия: Панкратова Имя: Ирина Отчество: Владимировна</v>
       </c>
       <c r="R31" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="AA31" t="str">
         <f t="shared" si="1"/>
         <v>phone: +7 9135391916 surname: Панкратова name: Ирина patronymic: Владимировна,</v>
       </c>
       <c r="AB31" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
@@ -8028,7 +8058,7 @@
         <v>113</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C32" t="s">
         <v>115</v>
@@ -8044,14 +8074,14 @@
         <v>,Номер телефона: +7 9135391918 Фамилия: Смирнова Имя: Лариса Отчество: Валентиновна</v>
       </c>
       <c r="R32" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="AA32" t="str">
         <f t="shared" si="1"/>
         <v>phone: +7 9135391918 surname: Смирнова name: Лариса patronymic: Валентиновна,</v>
       </c>
       <c r="AB32" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.25">
@@ -8059,7 +8089,7 @@
         <v>117</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C33" t="s">
         <v>119</v>
@@ -8075,14 +8105,14 @@
         <v>,Номер телефона: +7 9135391912 Фамилия: Виноградова Имя: Наталья Отчество: Васильевна</v>
       </c>
       <c r="R33" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="AA33" t="str">
         <f t="shared" si="1"/>
         <v>phone: +7 9135391912 surname: Виноградова name: Наталья patronymic: Васильевна,</v>
       </c>
       <c r="AB33" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.25">
@@ -8090,7 +8120,7 @@
         <v>122</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C34" t="s">
         <v>124</v>
@@ -8106,14 +8136,14 @@
         <v>,Номер телефона: +7 9135391917 Фамилия: Сафронова Имя: Галина Отчество: Анатольевна</v>
       </c>
       <c r="R34" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="AA34" t="str">
         <f t="shared" si="1"/>
         <v>phone: +7 9135391917 surname: Сафронова name: Галина patronymic: Анатольевна,</v>
       </c>
       <c r="AB34" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.25">
@@ -8121,7 +8151,7 @@
         <v>127</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C35" t="s">
         <v>128</v>
@@ -8137,14 +8167,14 @@
         <v>,Номер телефона: +7 9135391918 Фамилия: Кудрякова Имя: Ольга Отчество: Владимировна</v>
       </c>
       <c r="R35" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="AA35" t="str">
         <f t="shared" si="1"/>
         <v>phone: +7 9135391918 surname: Кудрякова name: Ольга patronymic: Владимировна,</v>
       </c>
       <c r="AB35" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.25">
@@ -8152,7 +8182,7 @@
         <v>129</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C36" t="s">
         <v>131</v>
@@ -8168,14 +8198,14 @@
         <v>,Номер телефона: +7 9135391930 Фамилия: Кочнева Имя: Вера Отчество: Николаевна</v>
       </c>
       <c r="R36" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="AA36" t="str">
         <f t="shared" si="1"/>
         <v>phone: +7 9135391930 surname: Кочнева name: Вера patronymic: Николаевна,</v>
       </c>
       <c r="AB36" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.25">
@@ -8183,7 +8213,7 @@
         <v>133</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C37" t="s">
         <v>135</v>
@@ -8199,14 +8229,14 @@
         <v>,Номер телефона: +7 9135391933 Фамилия: Кошелева Имя: Елена Отчество: Владимировна</v>
       </c>
       <c r="R37" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="AA37" t="str">
         <f t="shared" si="1"/>
         <v>phone: +7 9135391933 surname: Кошелева name: Елена patronymic: Владимировна,</v>
       </c>
       <c r="AB37" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.25">
@@ -8214,7 +8244,7 @@
         <v>136</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C38" t="s">
         <v>138</v>
@@ -8230,14 +8260,14 @@
         <v>,Номер телефона: +7 9135391932 Фамилия: Белякова Имя: Ольга Отчество: Анатольевна</v>
       </c>
       <c r="R38" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="AA38" t="str">
         <f t="shared" si="1"/>
         <v>phone: +7 9135391932 surname: Белякова name: Ольга patronymic: Анатольевна,</v>
       </c>
       <c r="AB38" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.25">
@@ -8245,7 +8275,7 @@
         <v>139</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C39" t="s">
         <v>141</v>
@@ -8261,14 +8291,14 @@
         <v>,Номер телефона: +7 9135391931 Фамилия: Дружинина Имя: Татьяна Отчество: Александровна</v>
       </c>
       <c r="R39" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="AA39" t="str">
         <f t="shared" si="1"/>
         <v>phone: +7 9135391931 surname: Дружинина name: Татьяна patronymic: Александровна,</v>
       </c>
       <c r="AB39" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.25">
@@ -8276,7 +8306,7 @@
         <v>143</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C40" t="s">
         <v>145</v>
@@ -8292,14 +8322,14 @@
         <v>,Номер телефона: +7 9135391995 Фамилия: Ипатова Имя: Катерина Отчество: Андреевна</v>
       </c>
       <c r="R40" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="AA40" t="str">
         <f t="shared" si="1"/>
         <v>phone: +7 9135391995 surname: Ипатова name: Катерина patronymic: Андреевна,</v>
       </c>
       <c r="AB40" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.25">
@@ -8307,7 +8337,7 @@
         <v>148</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C41" t="s">
         <v>150</v>
@@ -8323,14 +8353,14 @@
         <v>,Номер телефона: +7 9135391935 Фамилия: Григорьева Имя: Светлана Отчество: Владимировна</v>
       </c>
       <c r="R41" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="AA41" t="str">
         <f t="shared" si="1"/>
         <v>phone: +7 9135391935 surname: Григорьева name: Светлана patronymic: Владимировна,</v>
       </c>
       <c r="AB41" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.25">
@@ -8338,7 +8368,7 @@
         <v>152</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C42" t="s">
         <v>154</v>
@@ -8354,14 +8384,14 @@
         <v>,Номер телефона: +7 9135391936 Фамилия: Нищёва Имя: Ольга Отчество: Николаевна</v>
       </c>
       <c r="R42" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="AA42" t="str">
         <f t="shared" si="1"/>
         <v>phone: +7 9135391936 surname: Нищёва name: Ольга patronymic: Николаевна,</v>
       </c>
       <c r="AB42" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.25">
@@ -8369,7 +8399,7 @@
         <v>155</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C43" t="s">
         <v>157</v>
@@ -8385,14 +8415,14 @@
         <v>,Номер телефона: +7 9135391938 Фамилия: Коростель Имя: Елена Отчество: Юрьевна</v>
       </c>
       <c r="R43" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="AA43" t="str">
         <f t="shared" si="1"/>
         <v>phone: +7 9135391938 surname: Коростель name: Елена patronymic: Юрьевна,</v>
       </c>
       <c r="AB43" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.25">
@@ -8400,7 +8430,7 @@
         <v>159</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C44" t="s">
         <v>161</v>
@@ -8416,14 +8446,14 @@
         <v>,Номер телефона: +7 9135391939 Фамилия: Николаева Имя: Ирина Отчество: Николаевна</v>
       </c>
       <c r="R44" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AA44" t="str">
         <f t="shared" si="1"/>
         <v>phone: +7 9135391939 surname: Николаева name: Ирина patronymic: Николаевна,</v>
       </c>
       <c r="AB44" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.25">
@@ -8431,7 +8461,7 @@
         <v>162</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C45" t="s">
         <v>164</v>
@@ -8447,14 +8477,14 @@
         <v>,Номер телефона: +7 9135391991 Фамилия: Турова Имя: Наталия Отчество: Борисовна</v>
       </c>
       <c r="R45" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="AA45" t="str">
         <f t="shared" si="1"/>
         <v>phone: +7 9135391991 surname: Турова name: Наталия patronymic: Борисовна,</v>
       </c>
       <c r="AB45" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.25">
@@ -8462,7 +8492,7 @@
         <v>167</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C46" t="s">
         <v>169</v>
@@ -8478,14 +8508,14 @@
         <v>,Номер телефона: +7 9135391937 Фамилия: Довгань Имя: Ирина Отчество: Борисовна</v>
       </c>
       <c r="R46" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="AA46" t="str">
         <f t="shared" si="1"/>
         <v>phone: +7 9135391937 surname: Довгань name: Ирина patronymic: Борисовна,</v>
       </c>
       <c r="AB46" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.25">
@@ -8493,7 +8523,7 @@
         <v>170</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C47" t="s">
         <v>172</v>
@@ -8509,14 +8539,14 @@
         <v>,Номер телефона: +7 9135391993 Фамилия: Воробьева Имя: Елена Отчество: Владимировна</v>
       </c>
       <c r="R47" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AA47" t="str">
         <f t="shared" si="1"/>
         <v>phone: +7 9135391993 surname: Воробьева name: Елена patronymic: Владимировна,</v>
       </c>
       <c r="AB47" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.25">
@@ -8524,7 +8554,7 @@
         <v>173</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C48" t="s">
         <v>175</v>
@@ -8540,14 +8570,14 @@
         <v>,Номер телефона: +7 9135391994 Фамилия: Бойкова Имя: Ольга Отчество: Петровна</v>
       </c>
       <c r="R48" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AA48" t="str">
         <f t="shared" si="1"/>
         <v>phone: +7 9135391994 surname: Бойкова name: Ольга patronymic: Петровна,</v>
       </c>
       <c r="AB48" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.25">
@@ -8555,7 +8585,7 @@
         <v>176</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C49" t="s">
         <v>177</v>
@@ -8571,14 +8601,14 @@
         <v>,Номер телефона: +7 9135391995 Фамилия: Новожилова Имя: Анна Отчество: Сергеевна</v>
       </c>
       <c r="R49" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="AA49" t="str">
         <f t="shared" si="1"/>
         <v>phone: +7 9135391995 surname: Новожилова name: Анна patronymic: Сергеевна,</v>
       </c>
       <c r="AB49" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.25">
@@ -8586,7 +8616,7 @@
         <v>180</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C50" t="s">
         <v>182</v>
@@ -8602,14 +8632,14 @@
         <v>,Номер телефона: +7 9135391940 Фамилия: Павлова Имя: Ольга Отчество: Владимировна</v>
       </c>
       <c r="R50" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="AA50" t="str">
         <f t="shared" si="1"/>
         <v>phone: +7 9135391940 surname: Павлова name: Ольга patronymic: Владимировна,</v>
       </c>
       <c r="AB50" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.25">
@@ -8617,7 +8647,7 @@
         <v>183</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C51" t="s">
         <v>185</v>
@@ -8633,14 +8663,14 @@
         <v>,Номер телефона: +7 9135391941 Фамилия: Севина Имя: Виктория Отчество: Владимировна</v>
       </c>
       <c r="R51" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="AA51" t="str">
         <f t="shared" si="1"/>
         <v>phone: +7 9135391941 surname: Севина name: Виктория patronymic: Владимировна,</v>
       </c>
       <c r="AB51" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.25">
@@ -8648,7 +8678,7 @@
         <v>187</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C52" t="s">
         <v>189</v>
@@ -8664,14 +8694,14 @@
         <v>,Номер телефона: +7 9135391942 Фамилия: Пенушкова Имя: Надежда Отчество: Львовна</v>
       </c>
       <c r="R52" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AA52" t="str">
         <f t="shared" si="1"/>
         <v>phone: +7 9135391942 surname: Пенушкова name: Надежда patronymic: Львовна,</v>
       </c>
       <c r="AB52" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.25">
@@ -8679,7 +8709,7 @@
         <v>191</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C53" t="s">
         <v>68</v>
@@ -8695,14 +8725,14 @@
         <v>,Номер телефона: +7 9135391943 Фамилия: Волкова Имя: Ольга Отчество: Евгеньевна</v>
       </c>
       <c r="R53" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="AA53" t="str">
         <f t="shared" si="1"/>
         <v>phone: +7 9135391943 surname: Волкова name: Ольга patronymic: Евгеньевна,</v>
       </c>
       <c r="AB53" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.25">
@@ -8710,7 +8740,7 @@
         <v>194</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C54" t="s">
         <v>195</v>
@@ -8726,14 +8756,14 @@
         <v>,Номер телефона: +7 9135391943 Фамилия: Власова Имя: Анна Отчество: Витальевна</v>
       </c>
       <c r="R54" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="AA54" t="str">
         <f t="shared" si="1"/>
         <v>phone: +7 9135391943 surname: Власова name: Анна patronymic: Витальевна,</v>
       </c>
       <c r="AB54" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.25">
@@ -8741,7 +8771,7 @@
         <v>197</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C55" t="s">
         <v>199</v>
@@ -8757,14 +8787,14 @@
         <v>,Номер телефона: +7 9135391947 Фамилия: Скрябина Имя: Наталья Отчество: Дмитриевна</v>
       </c>
       <c r="R55" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="AA55" t="str">
         <f t="shared" si="1"/>
         <v>phone: +7 9135391947 surname: Скрябина name: Наталья patronymic: Дмитриевна,</v>
       </c>
       <c r="AB55" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.25">
@@ -8772,7 +8802,7 @@
         <v>201</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C56" t="s">
         <v>203</v>
@@ -8788,14 +8818,14 @@
         <v>,Номер телефона: +7 9135391959 Фамилия: Коваль Имя: Наталья Отчество: Игоревна</v>
       </c>
       <c r="R56" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="AA56" t="str">
         <f t="shared" si="1"/>
         <v>phone: +7 9135391959 surname: Коваль name: Наталья patronymic: Игоревна,</v>
       </c>
       <c r="AB56" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.25">
@@ -8803,7 +8833,7 @@
         <v>205</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C57" t="s">
         <v>207</v>
@@ -8819,14 +8849,14 @@
         <v>,Номер телефона: +7 9135391950 Фамилия: Белоусова Имя: Татьяна Отчество: Анатольевна</v>
       </c>
       <c r="R57" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="AA57" t="str">
         <f t="shared" si="1"/>
         <v>phone: +7 9135391950 surname: Белоусова name: Татьяна patronymic: Анатольевна,</v>
       </c>
       <c r="AB57" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.25">
@@ -8834,7 +8864,7 @@
         <v>208</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C58" t="s">
         <v>68</v>
@@ -8850,14 +8880,14 @@
         <v>,Номер телефона: +7 9135391951 Фамилия: Волкова Имя: Вера Отчество: Сергеевна</v>
       </c>
       <c r="R58" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="AA58" t="str">
         <f t="shared" si="1"/>
         <v>phone: +7 9135391951 surname: Волкова name: Вера patronymic: Сергеевна,</v>
       </c>
       <c r="AB58" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.25">
@@ -8865,7 +8895,7 @@
         <v>210</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C59" t="s">
         <v>212</v>
@@ -8881,14 +8911,14 @@
         <v>,Номер телефона: +7 9135391989 Фамилия: Мишенева Имя: Елена Отчество: Александровна</v>
       </c>
       <c r="R59" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="AA59" t="str">
         <f t="shared" si="1"/>
         <v>phone: +7 9135391989 surname: Мишенева name: Елена patronymic: Александровна,</v>
       </c>
       <c r="AB59" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.25">
@@ -8896,7 +8926,7 @@
         <v>213</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C60" t="s">
         <v>215</v>
@@ -8912,14 +8942,14 @@
         <v>,Номер телефона: +7 9135391957 Фамилия: Константинова Имя: Ирина Отчество: Вадимовна</v>
       </c>
       <c r="R60" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AA60" t="str">
         <f t="shared" si="1"/>
         <v>phone: +7 9135391957 surname: Константинова name: Ирина patronymic: Вадимовна,</v>
       </c>
       <c r="AB60" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.25">
@@ -8927,7 +8957,7 @@
         <v>217</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C61" t="s">
         <v>219</v>
@@ -8943,14 +8973,14 @@
         <v>,Номер телефона: +7 9135391956 Фамилия: Челябова Имя: Татьяна Отчество: Сергеевна</v>
       </c>
       <c r="R61" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="AA61" t="str">
         <f t="shared" si="1"/>
         <v>phone: +7 9135391956 surname: Челябова name: Татьяна patronymic: Сергеевна,</v>
       </c>
       <c r="AB61" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.25">
@@ -8958,7 +8988,7 @@
         <v>220</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C62" t="s">
         <v>222</v>
@@ -8974,14 +9004,14 @@
         <v>,Номер телефона: +7 9135391958 Фамилия: Полякова Имя: Ольга Отчество: Николаевна</v>
       </c>
       <c r="R62" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="AA62" t="str">
         <f t="shared" si="1"/>
         <v>phone: +7 9135391958 surname: Полякова name: Ольга patronymic: Николаевна,</v>
       </c>
       <c r="AB62" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.25">
@@ -8989,7 +9019,7 @@
         <v>223</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C63" t="s">
         <v>225</v>
@@ -9005,14 +9035,14 @@
         <v>,Номер телефона: +7 9135391961 Фамилия: Николаев Имя: Андрей Отчество: Вячеславович</v>
       </c>
       <c r="R63" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="AA63" t="str">
         <f t="shared" si="1"/>
         <v>phone: +7 9135391961 surname: Николаев name: Андрей patronymic: Вячеславович,</v>
       </c>
       <c r="AB63" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.25">
@@ -9020,7 +9050,7 @@
         <v>227</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -9036,14 +9066,14 @@
         <v>,Номер телефона: +7 9135391999 Фамилия: Смирнов Имя: Андрей Отчество: Николаевич</v>
       </c>
       <c r="R64" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="AA64" t="str">
         <f t="shared" si="1"/>
         <v>phone: +7 9135391999 surname: Смирнов name: Андрей patronymic: Николаевич,</v>
       </c>
       <c r="AB64" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.25">
@@ -9051,7 +9081,7 @@
         <v>230</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C65" t="s">
         <v>232</v>
@@ -9067,14 +9097,14 @@
         <v>,Номер телефона: +7 9135391967 Фамилия: Кондратьев Имя: Андрей Отчество: Сергеевич</v>
       </c>
       <c r="R65" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="AA65" t="str">
         <f t="shared" si="1"/>
         <v>phone: +7 9135391967 surname: Кондратьев name: Андрей patronymic: Сергеевич,</v>
       </c>
       <c r="AB65" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.25">
@@ -9082,7 +9112,7 @@
         <v>234</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C66" t="s">
         <v>236</v>
@@ -9098,14 +9128,14 @@
         <v>,Номер телефона: +7 9135391963 Фамилия: Цветкова Имя: Виктория Отчество: Анатольевна</v>
       </c>
       <c r="R66" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="AA66" t="str">
         <f t="shared" si="1"/>
         <v>phone: +7 9135391963 surname: Цветкова name: Виктория patronymic: Анатольевна,</v>
       </c>
       <c r="AB66" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.25">
@@ -9113,7 +9143,7 @@
         <v>237</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C67" t="s">
         <v>236</v>
@@ -9129,14 +9159,14 @@
         <v>,Номер телефона: +7 9135391964 Фамилия: Цветкова Имя: Елена Отчество: Васильевна</v>
       </c>
       <c r="R67" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="AA67" t="str">
         <f t="shared" si="1"/>
         <v>phone: +7 9135391964 surname: Цветкова name: Елена patronymic: Васильевна,</v>
       </c>
       <c r="AB67" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.25">
@@ -9144,7 +9174,7 @@
         <v>239</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C68" t="s">
         <v>241</v>
@@ -9160,14 +9190,14 @@
         <v>,Номер телефона: +7 9135391965 Фамилия: Герасимов Имя: Василий Отчество: Владимирович</v>
       </c>
       <c r="R68" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="AA68" t="str">
         <f t="shared" si="1"/>
         <v>phone: +7 9135391965 surname: Герасимов name: Василий patronymic: Владимирович,</v>
       </c>
       <c r="AB68" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.25">
@@ -9175,7 +9205,7 @@
         <v>244</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C69" t="s">
         <v>246</v>
@@ -9191,14 +9221,14 @@
         <v>,Номер телефона: +7 9135391966 Фамилия: Валеев Имя: Асхат Отчество: Ахатович</v>
       </c>
       <c r="R69" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="AA69" t="str">
         <f t="shared" si="1"/>
         <v>phone: +7 9135391966 surname: Валеев name: Асхат patronymic: Ахатович,</v>
       </c>
       <c r="AB69" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.25">
@@ -9206,7 +9236,7 @@
         <v>249</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C70" t="s">
         <v>251</v>
@@ -9222,14 +9252,14 @@
         <v>,Номер телефона: +7 9135354844 Фамилия: Проневич Имя: Руслан Отчество: Валерьевич</v>
       </c>
       <c r="R70" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="AA70" t="str">
         <f t="shared" si="1"/>
         <v>phone: +7 9135354844 surname: Проневич name: Руслан patronymic: Валерьевич,</v>
       </c>
       <c r="AB70" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.25">
@@ -9237,7 +9267,7 @@
         <v>253</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C71" t="s">
         <v>255</v>
@@ -9253,14 +9283,14 @@
         <v>,Номер телефона: +7 9135391962 Фамилия: Корчагин Имя: Владимир Отчество: Павлович</v>
       </c>
       <c r="R71" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="AA71" t="str">
-        <f t="shared" ref="AA71:AB134" si="3">CONCATENATE(R71,",")</f>
+        <f t="shared" ref="AA71:AA134" si="3">CONCATENATE(R71,",")</f>
         <v>phone: +7 9135391962 surname: Корчагин name: Владимир patronymic: Павлович,</v>
       </c>
       <c r="AB71" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.25">
@@ -9268,7 +9298,7 @@
         <v>258</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C72" t="s">
         <v>260</v>
@@ -9284,14 +9314,14 @@
         <v>,Номер телефона: +7 9135391998 Фамилия: Кобяков Имя: Андрей Отчество: Михайлович</v>
       </c>
       <c r="R72" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="AA72" t="str">
         <f t="shared" si="3"/>
         <v>phone: +7 9135391998 surname: Кобяков name: Андрей patronymic: Михайлович,</v>
       </c>
       <c r="AB72" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.25">
@@ -9299,7 +9329,7 @@
         <v>261</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C73" t="s">
         <v>262</v>
@@ -9315,14 +9345,14 @@
         <v>,Номер телефона: +7 9135391963 Фамилия: Фадеев Имя: Максим Отчество: Дмитриевич</v>
       </c>
       <c r="R73" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="AA73" t="str">
         <f t="shared" si="3"/>
         <v>phone: +7 9135391963 surname: Фадеев name: Максим patronymic: Дмитриевич,</v>
       </c>
       <c r="AB73" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.25">
@@ -9330,7 +9360,7 @@
         <v>265</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C74" t="s">
         <v>267</v>
@@ -9346,14 +9376,14 @@
         <v>,Номер телефона: +7 9135391990 Фамилия: Гурьянов Имя: Семен Отчество: Николаевич</v>
       </c>
       <c r="R74" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="AA74" t="str">
         <f t="shared" si="3"/>
         <v>phone: +7 9135391990 surname: Гурьянов name: Семен patronymic: Николаевич,</v>
       </c>
       <c r="AB74" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.25">
@@ -9361,7 +9391,7 @@
         <v>269</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C75" t="s">
         <v>271</v>
@@ -9377,14 +9407,14 @@
         <v>,Номер телефона: +7 9135391971 Фамилия: Лапин Имя: Александр Отчество: Викторович</v>
       </c>
       <c r="R75" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="AA75" t="str">
         <f t="shared" si="3"/>
         <v>phone: +7 9135391971 surname: Лапин name: Александр patronymic: Викторович,</v>
       </c>
       <c r="AB75" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.25">
@@ -9392,7 +9422,7 @@
         <v>273</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C76" t="s">
         <v>275</v>
@@ -9408,14 +9438,14 @@
         <v>,Номер телефона: +7 9135391972 Фамилия: Юрьев Имя: Антон Отчество: Николаевич</v>
       </c>
       <c r="R76" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="AA76" t="str">
         <f t="shared" si="3"/>
         <v>phone: +7 9135391972 surname: Юрьев name: Антон patronymic: Николаевич,</v>
       </c>
       <c r="AB76" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.25">
@@ -9423,7 +9453,7 @@
         <v>277</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C77" t="s">
         <v>279</v>
@@ -9439,14 +9469,14 @@
         <v>,Номер телефона: +7 9135391973 Фамилия: Березин Имя: Олег Отчество: Викторович</v>
       </c>
       <c r="R77" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="AA77" t="str">
         <f t="shared" si="3"/>
         <v>phone: +7 9135391973 surname: Березин name: Олег patronymic: Викторович,</v>
       </c>
       <c r="AB77" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.25">
@@ -9454,7 +9484,7 @@
         <v>281</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C78" t="s">
         <v>283</v>
@@ -9470,14 +9500,14 @@
         <v>,Номер телефона: +7 9135391974 Фамилия: Блувштейн Имя: Денис Отчество: Вячеславович</v>
       </c>
       <c r="R78" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="AA78" t="str">
         <f t="shared" si="3"/>
         <v>phone: +7 9135391974 surname: Блувштейн name: Денис patronymic: Вячеславович,</v>
       </c>
       <c r="AB78" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.25">
@@ -9485,7 +9515,7 @@
         <v>285</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C79" t="s">
         <v>287</v>
@@ -9501,14 +9531,14 @@
         <v>,Номер телефона: +7 9135391975 Фамилия: Чижов Имя: Андрей Отчество: Александрович</v>
       </c>
       <c r="R79" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="AA79" t="str">
         <f t="shared" si="3"/>
         <v>phone: +7 9135391975 surname: Чижов name: Андрей patronymic: Александрович,</v>
       </c>
       <c r="AB79" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.25">
@@ -9516,7 +9546,7 @@
         <v>288</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C80" t="s">
         <v>290</v>
@@ -9532,14 +9562,14 @@
         <v>,Номер телефона: +7 9135391970 Фамилия: Соколов Имя: Вадим Отчество: Владимирович</v>
       </c>
       <c r="R80" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="AA80" t="str">
         <f t="shared" si="3"/>
         <v>phone: +7 9135391970 surname: Соколов name: Вадим patronymic: Владимирович,</v>
       </c>
       <c r="AB80" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="81" spans="1:28" x14ac:dyDescent="0.25">
@@ -9547,7 +9577,7 @@
         <v>292</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C81" t="s">
         <v>294</v>
@@ -9563,14 +9593,14 @@
         <v>,Номер телефона: +7 9135391976 Фамилия: Кузнецов Имя: Михаил Отчество: Тимофеевич</v>
       </c>
       <c r="R81" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="AA81" t="str">
         <f t="shared" si="3"/>
         <v>phone: +7 9135391976 surname: Кузнецов name: Михаил patronymic: Тимофеевич,</v>
       </c>
       <c r="AB81" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="82" spans="1:28" x14ac:dyDescent="0.25">
@@ -9578,7 +9608,7 @@
         <v>296</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C82" t="s">
         <v>298</v>
@@ -9594,14 +9624,14 @@
         <v>,Номер телефона: +7 9135391977 Фамилия: Муравьёв Имя: Александр Отчество: Владимирович</v>
       </c>
       <c r="R82" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="AA82" t="str">
         <f t="shared" si="3"/>
         <v>phone: +7 9135391977 surname: Муравьёв name: Александр patronymic: Владимирович,</v>
       </c>
       <c r="AB82" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="83" spans="1:28" x14ac:dyDescent="0.25">
@@ -9609,7 +9639,7 @@
         <v>299</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C83" t="s">
         <v>225</v>
@@ -9625,14 +9655,14 @@
         <v>,Номер телефона: +7 9135391979 Фамилия: Николаев Имя: Евгений Отчество: Михайлович</v>
       </c>
       <c r="R83" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="AA83" t="str">
         <f t="shared" si="3"/>
         <v>phone: +7 9135391979 surname: Николаев name: Евгений patronymic: Михайлович,</v>
       </c>
       <c r="AB83" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="84" spans="1:28" x14ac:dyDescent="0.25">
@@ -9640,7 +9670,7 @@
         <v>302</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C84" t="s">
         <v>304</v>
@@ -9656,14 +9686,14 @@
         <v>,Номер телефона: +7 9135391978 Фамилия: Бобылев Имя: Алексей Отчество: Васильевич</v>
       </c>
       <c r="R84" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="AA84" t="str">
         <f t="shared" si="3"/>
         <v>phone: +7 9135391978 surname: Бобылев name: Алексей patronymic: Васильевич,</v>
       </c>
       <c r="AB84" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="85" spans="1:28" x14ac:dyDescent="0.25">
@@ -9671,7 +9701,7 @@
         <v>307</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C85" t="s">
         <v>309</v>
@@ -9687,14 +9717,14 @@
         <v>,Номер телефона: +7 9135391981 Фамилия: Маркова Имя: Елена Отчество: Борисовна</v>
       </c>
       <c r="R85" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="AA85" t="str">
         <f t="shared" si="3"/>
         <v>phone: +7 9135391981 surname: Маркова name: Елена patronymic: Борисовна,</v>
       </c>
       <c r="AB85" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="86" spans="1:28" x14ac:dyDescent="0.25">
@@ -9702,7 +9732,7 @@
         <v>310</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C86" t="s">
         <v>312</v>
@@ -9718,14 +9748,14 @@
         <v>,Номер телефона: +7 9135391918 Фамилия: Загвозкина Имя: Евгения Отчество: Юрьевна</v>
       </c>
       <c r="R86" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="AA86" t="str">
         <f t="shared" si="3"/>
         <v>phone: +7 9135391918 surname: Загвозкина name: Евгения patronymic: Юрьевна,</v>
       </c>
       <c r="AB86" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="87" spans="1:28" x14ac:dyDescent="0.25">
@@ -9733,7 +9763,7 @@
         <v>314</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C87" t="s">
         <v>316</v>
@@ -9749,14 +9779,14 @@
         <v>,Номер телефона: +7 9135391982 Фамилия: Вершинина Имя: Любовь Отчество: Александровна</v>
       </c>
       <c r="R87" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="AA87" t="str">
         <f t="shared" si="3"/>
         <v>phone: +7 9135391982 surname: Вершинина name: Любовь patronymic: Александровна,</v>
       </c>
       <c r="AB87" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.25">
@@ -9764,7 +9794,7 @@
         <v>318</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C88" t="s">
         <v>319</v>
@@ -9780,14 +9810,14 @@
         <v>,Номер телефона: +7 9135391982 Фамилия: Малинина Имя: Наталья Отчество: Евгеньевна</v>
       </c>
       <c r="R88" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="AA88" t="str">
         <f t="shared" si="3"/>
         <v>phone: +7 9135391982 surname: Малинина name: Наталья patronymic: Евгеньевна,</v>
       </c>
       <c r="AB88" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="89" spans="1:28" x14ac:dyDescent="0.25">
@@ -9795,7 +9825,7 @@
         <v>320</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C89" t="s">
         <v>321</v>
@@ -9811,14 +9841,14 @@
         <v>,Номер телефона: +7 9135391987 Фамилия: Пуговкина Имя: Анна Отчество: Викторовна</v>
       </c>
       <c r="R89" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="AA89" t="str">
         <f t="shared" si="3"/>
         <v>phone: +7 9135391987 surname: Пуговкина name: Анна patronymic: Викторовна,</v>
       </c>
       <c r="AB89" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="90" spans="1:28" x14ac:dyDescent="0.25">
@@ -9826,7 +9856,7 @@
         <v>322</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C90" t="s">
         <v>324</v>
@@ -9842,14 +9872,14 @@
         <v>,Номер телефона: +7 9135391983 Фамилия: Зинцова Имя: Светлана Отчество: Олеговна</v>
       </c>
       <c r="R90" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="AA90" t="str">
         <f t="shared" si="3"/>
         <v>phone: +7 9135391983 surname: Зинцова name: Светлана patronymic: Олеговна,</v>
       </c>
       <c r="AB90" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="91" spans="1:28" x14ac:dyDescent="0.25">
@@ -9857,7 +9887,7 @@
         <v>326</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C91" t="s">
         <v>328</v>
@@ -9873,14 +9903,14 @@
         <v>,Номер телефона: +7 9135391984 Фамилия: Калинина Имя: Надежда Отчество: Николаевна</v>
       </c>
       <c r="R91" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="AA91" t="str">
         <f t="shared" si="3"/>
         <v>phone: +7 9135391984 surname: Калинина name: Надежда patronymic: Николаевна,</v>
       </c>
       <c r="AB91" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="92" spans="1:28" x14ac:dyDescent="0.25">
@@ -9888,7 +9918,7 @@
         <v>329</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C92" t="s">
         <v>331</v>
@@ -9904,14 +9934,14 @@
         <v>,Номер телефона: +7 9135391985 Фамилия: Красилова Имя: Елена Отчество: Витальевна</v>
       </c>
       <c r="R92" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="AA92" t="str">
         <f t="shared" si="3"/>
         <v>phone: +7 9135391985 surname: Красилова name: Елена patronymic: Витальевна,</v>
       </c>
       <c r="AB92" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="93" spans="1:28" x14ac:dyDescent="0.25">
@@ -9919,7 +9949,7 @@
         <v>332</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C93" t="s">
         <v>334</v>
@@ -9935,14 +9965,14 @@
         <v>,Номер телефона: +7 9135391986 Фамилия: Старжинская Имя: Екатерина Отчество: Николаевна</v>
       </c>
       <c r="R93" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="AA93" t="str">
         <f t="shared" si="3"/>
         <v>phone: +7 9135391986 surname: Старжинская name: Екатерина patronymic: Николаевна,</v>
       </c>
       <c r="AB93" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="94" spans="1:28" x14ac:dyDescent="0.25">
@@ -9950,7 +9980,7 @@
         <v>336</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C94" t="s">
         <v>9</v>
@@ -9966,14 +9996,14 @@
         <v>,Номер телефона: +7 9135625401 Фамилия: Ложников Имя: Михаил Отчество: Михайлович</v>
       </c>
       <c r="R94" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="AA94" t="str">
         <f t="shared" si="3"/>
         <v>phone: +7 9135625401 surname: Ложников name: Михаил patronymic: Михайлович,</v>
       </c>
       <c r="AB94" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="95" spans="1:28" x14ac:dyDescent="0.25">
@@ -9981,7 +10011,7 @@
         <v>338</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C95" t="s">
         <v>18</v>
@@ -9997,14 +10027,14 @@
         <v>,Номер телефона: +7 9135625402 Фамилия: Соловьева Имя: Елена Отчество: Николаевна</v>
       </c>
       <c r="R95" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="AA95" t="str">
         <f t="shared" si="3"/>
         <v>phone: +7 9135625402 surname: Соловьева name: Елена patronymic: Николаевна,</v>
       </c>
       <c r="AB95" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="96" spans="1:28" x14ac:dyDescent="0.25">
@@ -10012,7 +10042,7 @@
         <v>340</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C96" t="s">
         <v>14</v>
@@ -10028,14 +10058,14 @@
         <v>,Номер телефона: +7 9135625403 Фамилия: Чувиляев Имя: Сергей Отчество: Валерьевич</v>
       </c>
       <c r="R96" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="AA96" t="str">
         <f t="shared" si="3"/>
         <v>phone: +7 9135625403 surname: Чувиляев name: Сергей patronymic: Валерьевич,</v>
       </c>
       <c r="AB96" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="97" spans="1:28" x14ac:dyDescent="0.25">
@@ -10043,7 +10073,7 @@
         <v>342</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C97" t="s">
         <v>344</v>
@@ -10059,14 +10089,14 @@
         <v>,Номер телефона: +7 9135625404 Фамилия: Попова Имя: Гузалия Отчество: Минулловна</v>
       </c>
       <c r="R97" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="AA97" t="str">
         <f t="shared" si="3"/>
         <v>phone: +7 9135625404 surname: Попова name: Гузалия patronymic: Минулловна,</v>
       </c>
       <c r="AB97" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="98" spans="1:28" x14ac:dyDescent="0.25">
@@ -10074,7 +10104,7 @@
         <v>347</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C98" t="s">
         <v>349</v>
@@ -10090,14 +10120,14 @@
         <v>,Номер телефона: +7 9135625405 Фамилия: Боровикова Имя: Ольга Отчество: Константиновна</v>
       </c>
       <c r="R98" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="AA98" t="str">
         <f t="shared" si="3"/>
         <v>phone: +7 9135625405 surname: Боровикова name: Ольга patronymic: Константиновна,</v>
       </c>
       <c r="AB98" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="99" spans="1:28" x14ac:dyDescent="0.25">
@@ -10105,7 +10135,7 @@
         <v>351</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C99" t="s">
         <v>353</v>
@@ -10121,14 +10151,14 @@
         <v>,Номер телефона: +7 9135625400 Фамилия: Гусева Имя: Светлана Отчество: Дмитриевна</v>
       </c>
       <c r="R99" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="AA99" t="str">
         <f t="shared" si="3"/>
         <v>phone: +7 9135625400 surname: Гусева name: Светлана patronymic: Дмитриевна,</v>
       </c>
       <c r="AB99" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="100" spans="1:28" x14ac:dyDescent="0.25">
@@ -10136,7 +10166,7 @@
         <v>354</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C100" t="s">
         <v>356</v>
@@ -10152,14 +10182,14 @@
         <v>,Номер телефона: +7 9135625410 Фамилия: Тощакова Имя: Ольга Отчество: Владимировна</v>
       </c>
       <c r="R100" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="AA100" t="str">
         <f t="shared" si="3"/>
         <v>phone: +7 9135625410 surname: Тощакова name: Ольга patronymic: Владимировна,</v>
       </c>
       <c r="AB100" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="101" spans="1:28" x14ac:dyDescent="0.25">
@@ -10167,7 +10197,7 @@
         <v>357</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C101" t="s">
         <v>359</v>
@@ -10183,14 +10213,14 @@
         <v>,Номер телефона: +7 9135625411 Фамилия: Лукьяненкова Имя: Елена Отчество: Анатольевна</v>
       </c>
       <c r="R101" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="AA101" t="str">
         <f t="shared" si="3"/>
         <v>phone: +7 9135625411 surname: Лукьяненкова name: Елена patronymic: Анатольевна,</v>
       </c>
       <c r="AB101" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="102" spans="1:28" x14ac:dyDescent="0.25">
@@ -10198,7 +10228,7 @@
         <v>360</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C102" t="s">
         <v>362</v>
@@ -10214,14 +10244,14 @@
         <v>,Номер телефона: +7 9135625412 Фамилия: Новикова Имя: Екатерина Отчество: Николаевна</v>
       </c>
       <c r="R102" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="AA102" t="str">
         <f t="shared" si="3"/>
         <v>phone: +7 9135625412 surname: Новикова name: Екатерина patronymic: Николаевна,</v>
       </c>
       <c r="AB102" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="103" spans="1:28" x14ac:dyDescent="0.25">
@@ -10229,7 +10259,7 @@
         <v>363</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C103" t="s">
         <v>365</v>
@@ -10245,14 +10275,14 @@
         <v>,Номер телефона: +7 9135625413 Фамилия: Медведева Имя: Елена Отчество: Петровна</v>
       </c>
       <c r="R103" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="AA103" t="str">
         <f t="shared" si="3"/>
         <v>phone: +7 9135625413 surname: Медведева name: Елена patronymic: Петровна,</v>
       </c>
       <c r="AB103" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="104" spans="1:28" x14ac:dyDescent="0.25">
@@ -10260,7 +10290,7 @@
         <v>366</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C104" t="s">
         <v>115</v>
@@ -10276,14 +10306,14 @@
         <v>,Номер телефона: +7 9135625414 Фамилия: Смирнова Имя: Светлана Отчество: Владимировна</v>
       </c>
       <c r="R104" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="AA104" t="str">
         <f t="shared" si="3"/>
         <v>phone: +7 9135625414 surname: Смирнова name: Светлана patronymic: Владимировна,</v>
       </c>
       <c r="AB104" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="105" spans="1:28" x14ac:dyDescent="0.25">
@@ -10291,7 +10321,7 @@
         <v>368</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C105" t="s">
         <v>353</v>
@@ -10307,14 +10337,14 @@
         <v>,Номер телефона: +7 9135625415 Фамилия: Гусева Имя: Наталья Отчество: Львовна</v>
       </c>
       <c r="R105" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="AA105" t="str">
         <f t="shared" si="3"/>
         <v>phone: +7 9135625415 surname: Гусева name: Наталья patronymic: Львовна,</v>
       </c>
       <c r="AB105" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="106" spans="1:28" x14ac:dyDescent="0.25">
@@ -10322,7 +10352,7 @@
         <v>370</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C106" t="s">
         <v>372</v>
@@ -10338,14 +10368,14 @@
         <v>,Номер телефона: +7 9135625416 Фамилия: Тихомирова Имя: Наталья Отчество: Владимировна</v>
       </c>
       <c r="R106" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="AA106" t="str">
         <f t="shared" si="3"/>
         <v>phone: +7 9135625416 surname: Тихомирова name: Наталья patronymic: Владимировна,</v>
       </c>
       <c r="AB106" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="107" spans="1:28" x14ac:dyDescent="0.25">
@@ -10353,7 +10383,7 @@
         <v>373</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C107" t="s">
         <v>375</v>
@@ -10369,14 +10399,14 @@
         <v>,Номер телефона: +7 9135625417 Фамилия: Салова Имя: Светлана Отчество: Ивановна</v>
       </c>
       <c r="R107" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="AA107" t="str">
         <f t="shared" si="3"/>
         <v>phone: +7 9135625417 surname: Салова name: Светлана patronymic: Ивановна,</v>
       </c>
       <c r="AB107" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="108" spans="1:28" x14ac:dyDescent="0.25">
@@ -10384,7 +10414,7 @@
         <v>377</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C108" t="s">
         <v>379</v>
@@ -10400,14 +10430,14 @@
         <v>,Номер телефона: +7 9135625418 Фамилия: Исаева Имя: Ирина Отчество: Евгеньевна</v>
       </c>
       <c r="R108" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="AA108" t="str">
         <f t="shared" si="3"/>
         <v>phone: +7 9135625418 surname: Исаева name: Ирина patronymic: Евгеньевна,</v>
       </c>
       <c r="AB108" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="109" spans="1:28" x14ac:dyDescent="0.25">
@@ -10415,7 +10445,7 @@
         <v>380</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C109" t="s">
         <v>382</v>
@@ -10431,14 +10461,14 @@
         <v>,Номер телефона: +7 9135625419 Фамилия: Антонова Имя: Галина Отчество: Ремовна</v>
       </c>
       <c r="R109" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="AA109" t="str">
         <f t="shared" si="3"/>
         <v>phone: +7 9135625419 surname: Антонова name: Галина patronymic: Ремовна,</v>
       </c>
       <c r="AB109" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="110" spans="1:28" x14ac:dyDescent="0.25">
@@ -10446,7 +10476,7 @@
         <v>384</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C110" t="s">
         <v>386</v>
@@ -10462,14 +10492,14 @@
         <v>,Номер телефона: +7 9135625406 Фамилия: Карпова Имя: Галина Отчество: Валентиновна</v>
       </c>
       <c r="R110" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="AA110" t="str">
         <f t="shared" si="3"/>
         <v>phone: +7 9135625406 surname: Карпова name: Галина patronymic: Валентиновна,</v>
       </c>
       <c r="AB110" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="111" spans="1:28" x14ac:dyDescent="0.25">
@@ -10477,7 +10507,7 @@
         <v>387</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C111" t="s">
         <v>115</v>
@@ -10493,14 +10523,14 @@
         <v>,Номер телефона: +7 9135625407 Фамилия: Смирнова Имя: Наталья Отчество: Дмитриевна</v>
       </c>
       <c r="R111" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="AA111" t="str">
         <f t="shared" si="3"/>
         <v>phone: +7 9135625407 surname: Смирнова name: Наталья patronymic: Дмитриевна,</v>
       </c>
       <c r="AB111" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="112" spans="1:28" x14ac:dyDescent="0.25">
@@ -10508,7 +10538,7 @@
         <v>389</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C112" t="s">
         <v>391</v>
@@ -10524,14 +10554,14 @@
         <v>,Номер телефона: +7 9135625408 Фамилия: Королева Имя: Галина Отчество: Владимировна</v>
       </c>
       <c r="R112" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="AA112" t="str">
         <f t="shared" si="3"/>
         <v>phone: +7 9135625408 surname: Королева name: Галина patronymic: Владимировна,</v>
       </c>
       <c r="AB112" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="113" spans="1:28" x14ac:dyDescent="0.25">
@@ -10539,7 +10569,7 @@
         <v>392</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C113" t="s">
         <v>394</v>
@@ -10555,14 +10585,14 @@
         <v>,Номер телефона: +7 9135625409 Фамилия: Бахарева Имя: Ольга Отчество: Дмитриевна</v>
       </c>
       <c r="R113" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="AA113" t="str">
         <f t="shared" si="3"/>
         <v>phone: +7 9135625409 surname: Бахарева name: Ольга patronymic: Дмитриевна,</v>
       </c>
       <c r="AB113" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="114" spans="1:28" x14ac:dyDescent="0.25">
@@ -10570,7 +10600,7 @@
         <v>395</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C114" t="s">
         <v>397</v>
@@ -10586,14 +10616,14 @@
         <v>,Номер телефона: +7 9135625450 Фамилия: Оськина Имя: Наталья Отчество: Андреевна</v>
       </c>
       <c r="R114" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="AA114" t="str">
         <f t="shared" si="3"/>
         <v>phone: +7 9135625450 surname: Оськина name: Наталья patronymic: Андреевна,</v>
       </c>
       <c r="AB114" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="115" spans="1:28" x14ac:dyDescent="0.25">
@@ -10601,7 +10631,7 @@
         <v>398</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C115" t="s">
         <v>400</v>
@@ -10617,14 +10647,14 @@
         <v>,Номер телефона: +7 9135625451 Фамилия: Рыжова Имя: Татьяна Отчество: Сергеевна</v>
       </c>
       <c r="R115" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="AA115" t="str">
         <f t="shared" si="3"/>
         <v>phone: +7 9135625451 surname: Рыжова name: Татьяна patronymic: Сергеевна,</v>
       </c>
       <c r="AB115" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="116" spans="1:28" x14ac:dyDescent="0.25">
@@ -10632,7 +10662,7 @@
         <v>401</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C116" t="s">
         <v>403</v>
@@ -10648,14 +10678,14 @@
         <v>,Номер телефона: +7 9135625456 Фамилия: Костенко Имя: Оксана Отчество: Сергеевна</v>
       </c>
       <c r="R116" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="AA116" t="str">
         <f t="shared" si="3"/>
         <v>phone: +7 9135625456 surname: Костенко name: Оксана patronymic: Сергеевна,</v>
       </c>
       <c r="AB116" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="117" spans="1:28" x14ac:dyDescent="0.25">
@@ -10663,7 +10693,7 @@
         <v>405</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C117" t="s">
         <v>407</v>
@@ -10679,14 +10709,14 @@
         <v>,Номер телефона: +7 9135625458 Фамилия: Кевина Имя: Людмила Отчество: Васильевна</v>
       </c>
       <c r="R117" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="AA117" t="str">
         <f t="shared" si="3"/>
         <v>phone: +7 9135625458 surname: Кевина name: Людмила patronymic: Васильевна,</v>
       </c>
       <c r="AB117" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="118" spans="1:28" x14ac:dyDescent="0.25">
@@ -10694,7 +10724,7 @@
         <v>409</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C118" t="s">
         <v>411</v>
@@ -10710,14 +10740,14 @@
         <v>,Номер телефона: +7 9135625459 Фамилия: Ермолаева Имя: Татьяна Отчество: Юрьевна</v>
       </c>
       <c r="R118" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="AA118" t="str">
         <f t="shared" si="3"/>
         <v>phone: +7 9135625459 surname: Ермолаева name: Татьяна patronymic: Юрьевна,</v>
       </c>
       <c r="AB118" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="119" spans="1:28" x14ac:dyDescent="0.25">
@@ -10725,7 +10755,7 @@
         <v>412</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C119" t="s">
         <v>414</v>
@@ -10741,14 +10771,14 @@
         <v>,Номер телефона: +7 9135625420 Фамилия: Зорина Имя: Светлана Отчество: Юрьевна</v>
       </c>
       <c r="R119" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="AA119" t="str">
         <f t="shared" si="3"/>
         <v>phone: +7 9135625420 surname: Зорина name: Светлана patronymic: Юрьевна,</v>
       </c>
       <c r="AB119" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="120" spans="1:28" x14ac:dyDescent="0.25">
@@ -10756,7 +10786,7 @@
         <v>415</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C120" t="s">
         <v>386</v>
@@ -10772,14 +10802,14 @@
         <v>,Номер телефона: +7 9135625421 Фамилия: Карпова Имя: Ирина Отчество: Владимировна</v>
       </c>
       <c r="R120" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="AA120" t="str">
         <f t="shared" si="3"/>
         <v>phone: +7 9135625421 surname: Карпова name: Ирина patronymic: Владимировна,</v>
       </c>
       <c r="AB120" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="121" spans="1:28" x14ac:dyDescent="0.25">
@@ -10787,7 +10817,7 @@
         <v>417</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C121" t="s">
         <v>400</v>
@@ -10803,14 +10833,14 @@
         <v>,Номер телефона: +7 9135625422 Фамилия: Рыжова Имя: Мария Отчество: Станиславовна</v>
       </c>
       <c r="R121" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="AA121" t="str">
         <f t="shared" si="3"/>
         <v>phone: +7 9135625422 surname: Рыжова name: Мария patronymic: Станиславовна,</v>
       </c>
       <c r="AB121" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="122" spans="1:28" x14ac:dyDescent="0.25">
@@ -10818,7 +10848,7 @@
         <v>420</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C122" t="s">
         <v>382</v>
@@ -10834,14 +10864,14 @@
         <v>,Номер телефона: +7 9135625423 Фамилия: Антонова Имя: Светлана Отчество: Аюповна</v>
       </c>
       <c r="R122" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="AA122" t="str">
         <f t="shared" si="3"/>
         <v>phone: +7 9135625423 surname: Антонова name: Светлана patronymic: Аюповна,</v>
       </c>
       <c r="AB122" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="123" spans="1:28" x14ac:dyDescent="0.25">
@@ -10849,7 +10879,7 @@
         <v>423</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C123" t="s">
         <v>425</v>
@@ -10865,14 +10895,14 @@
         <v>,Номер телефона: +7 9135625424 Фамилия: Решетникова Имя: Юлия Отчество: Вячеславовна</v>
       </c>
       <c r="R123" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="AA123" t="str">
         <f t="shared" si="3"/>
         <v>phone: +7 9135625424 surname: Решетникова name: Юлия patronymic: Вячеславовна,</v>
       </c>
       <c r="AB123" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="124" spans="1:28" x14ac:dyDescent="0.25">
@@ -10880,7 +10910,7 @@
         <v>427</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C124" t="s">
         <v>429</v>
@@ -10896,14 +10926,14 @@
         <v>,Номер телефона: +7 9135625425 Фамилия: Алифанова Имя: Наталия Отчество: Владимировна</v>
       </c>
       <c r="R124" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="AA124" t="str">
         <f t="shared" si="3"/>
         <v>phone: +7 9135625425 surname: Алифанова name: Наталия patronymic: Владимировна,</v>
       </c>
       <c r="AB124" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="125" spans="1:28" x14ac:dyDescent="0.25">
@@ -10911,7 +10941,7 @@
         <v>430</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C125" t="s">
         <v>432</v>
@@ -10927,14 +10957,14 @@
         <v>,Номер телефона: +7 9135625426 Фамилия: Дунаев Имя: Илья Отчество: Владимирович</v>
       </c>
       <c r="R125" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="AA125" t="str">
         <f t="shared" si="3"/>
         <v>phone: +7 9135625426 surname: Дунаев name: Илья patronymic: Владимирович,</v>
       </c>
       <c r="AB125" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="126" spans="1:28" x14ac:dyDescent="0.25">
@@ -10942,7 +10972,7 @@
         <v>434</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C126" t="s">
         <v>436</v>
@@ -10958,14 +10988,14 @@
         <v>,Номер телефона: +7 9135625430 Фамилия: Бородина Имя: Ирина Отчество: Борисовна</v>
       </c>
       <c r="R126" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="AA126" t="str">
         <f t="shared" si="3"/>
         <v>phone: +7 9135625430 surname: Бородина name: Ирина patronymic: Борисовна,</v>
       </c>
       <c r="AB126" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="127" spans="1:28" x14ac:dyDescent="0.25">
@@ -10973,7 +11003,7 @@
         <v>437</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C127" t="s">
         <v>439</v>
@@ -10989,14 +11019,14 @@
         <v>,Номер телефона: +7 9135625431 Фамилия: Мемнонова Имя: Ольга Отчество: Вячеславовна</v>
       </c>
       <c r="R127" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="AA127" t="str">
         <f t="shared" si="3"/>
         <v>phone: +7 9135625431 surname: Мемнонова name: Ольга patronymic: Вячеславовна,</v>
       </c>
       <c r="AB127" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="128" spans="1:28" x14ac:dyDescent="0.25">
@@ -11004,7 +11034,7 @@
         <v>440</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C128" t="s">
         <v>442</v>
@@ -11020,14 +11050,14 @@
         <v>,Номер телефона: +7 9135625432 Фамилия: Зарубина Имя: Валентина Отчество: Сергеевна</v>
       </c>
       <c r="R128" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="AA128" t="str">
         <f t="shared" si="3"/>
         <v>phone: +7 9135625432 surname: Зарубина name: Валентина patronymic: Сергеевна,</v>
       </c>
       <c r="AB128" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="129" spans="1:28" x14ac:dyDescent="0.25">
@@ -11035,7 +11065,7 @@
         <v>444</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C129" t="s">
         <v>446</v>
@@ -11051,14 +11081,14 @@
         <v>,Номер телефона: +7 9135625433 Фамилия: Горчакова Имя: Татьяна Отчество: Валерьевна</v>
       </c>
       <c r="R129" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="AA129" t="str">
         <f t="shared" si="3"/>
         <v>phone: +7 9135625433 surname: Горчакова name: Татьяна patronymic: Валерьевна,</v>
       </c>
       <c r="AB129" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="130" spans="1:28" x14ac:dyDescent="0.25">
@@ -11066,7 +11096,7 @@
         <v>447</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C130" t="s">
         <v>449</v>
@@ -11082,14 +11112,14 @@
         <v>,Номер телефона: +7 9135625434 Фамилия: Девятых Имя: Елена Отчество: Борисовна</v>
       </c>
       <c r="R130" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="AA130" t="str">
         <f t="shared" si="3"/>
         <v>phone: +7 9135625434 surname: Девятых name: Елена patronymic: Борисовна,</v>
       </c>
       <c r="AB130" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="131" spans="1:28" x14ac:dyDescent="0.25">
@@ -11097,7 +11127,7 @@
         <v>450</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C131" t="s">
         <v>452</v>
@@ -11113,14 +11143,14 @@
         <v>,Номер телефона: +7 9135625435 Фамилия: Серова Имя: Любовь Отчество: Николаевна</v>
       </c>
       <c r="R131" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="AA131" t="str">
         <f t="shared" si="3"/>
         <v>phone: +7 9135625435 surname: Серова name: Любовь patronymic: Николаевна,</v>
       </c>
       <c r="AB131" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="132" spans="1:28" x14ac:dyDescent="0.25">
@@ -11128,7 +11158,7 @@
         <v>453</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C132" t="s">
         <v>455</v>
@@ -11144,14 +11174,14 @@
         <v>,Номер телефона: +7 9135625436 Фамилия: Егорова Имя: Галина Отчество: Александровна</v>
       </c>
       <c r="R132" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="AA132" t="str">
         <f t="shared" si="3"/>
         <v>phone: +7 9135625436 surname: Егорова name: Галина patronymic: Александровна,</v>
       </c>
       <c r="AB132" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="133" spans="1:28" x14ac:dyDescent="0.25">
@@ -11159,7 +11189,7 @@
         <v>456</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C133" t="s">
         <v>458</v>
@@ -11175,14 +11205,14 @@
         <v>,Номер телефона: +7 9135625437 Фамилия: Родионова Имя: Надежда Отчество: Юрьевна</v>
       </c>
       <c r="R133" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="AA133" t="str">
         <f t="shared" si="3"/>
         <v>phone: +7 9135625437 surname: Родионова name: Надежда patronymic: Юрьевна,</v>
       </c>
       <c r="AB133" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="134" spans="1:28" x14ac:dyDescent="0.25">
@@ -11190,7 +11220,7 @@
         <v>459</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C134" t="s">
         <v>461</v>
@@ -11206,14 +11236,14 @@
         <v>,Номер телефона: +7 9135625440 Фамилия: Батенова Имя: Наталья Отчество: Михайловна</v>
       </c>
       <c r="R134" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="AA134" t="str">
         <f t="shared" si="3"/>
         <v>phone: +7 9135625440 surname: Батенова name: Наталья patronymic: Михайловна,</v>
       </c>
       <c r="AB134" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="135" spans="1:28" x14ac:dyDescent="0.25">
@@ -11221,7 +11251,7 @@
         <v>463</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C135" t="s">
         <v>465</v>
@@ -11237,14 +11267,14 @@
         <v>,Номер телефона: +7 9135625441 Фамилия: Белова Имя: Ольга Отчество: Михайловна</v>
       </c>
       <c r="R135" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="AA135" t="str">
-        <f t="shared" ref="AA135:AB194" si="5">CONCATENATE(R135,",")</f>
+        <f t="shared" ref="AA135:AA194" si="5">CONCATENATE(R135,",")</f>
         <v>phone: +7 9135625441 surname: Белова name: Ольга patronymic: Михайловна,</v>
       </c>
       <c r="AB135" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="136" spans="1:28" x14ac:dyDescent="0.25">
@@ -11252,7 +11282,7 @@
         <v>466</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C136" t="s">
         <v>468</v>
@@ -11268,14 +11298,14 @@
         <v>,Номер телефона: +7 9135625442 Фамилия: Тютюнова Имя: Ирина Отчество: Евгеньевна</v>
       </c>
       <c r="R136" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="AA136" t="str">
         <f t="shared" si="5"/>
         <v>phone: +7 9135625442 surname: Тютюнова name: Ирина patronymic: Евгеньевна,</v>
       </c>
       <c r="AB136" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="137" spans="1:28" x14ac:dyDescent="0.25">
@@ -11283,7 +11313,7 @@
         <v>469</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C137" t="s">
         <v>107</v>
@@ -11299,14 +11329,14 @@
         <v>,Номер телефона: +7 9135625443 Фамилия: Суворова Имя: Марина Отчество: Владимировна</v>
       </c>
       <c r="R137" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="AA137" t="str">
         <f t="shared" si="5"/>
         <v>phone: +7 9135625443 surname: Суворова name: Марина patronymic: Владимировна,</v>
       </c>
       <c r="AB137" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="138" spans="1:28" x14ac:dyDescent="0.25">
@@ -11314,7 +11344,7 @@
         <v>472</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C138" t="s">
         <v>474</v>
@@ -11330,14 +11360,14 @@
         <v>,Номер телефона: +7 9135625444 Фамилия: Королькова Имя: Елена Отчество: Валерьевна</v>
       </c>
       <c r="R138" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="AA138" t="str">
         <f t="shared" si="5"/>
         <v>phone: +7 9135625444 surname: Королькова name: Елена patronymic: Валерьевна,</v>
       </c>
       <c r="AB138" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="139" spans="1:28" x14ac:dyDescent="0.25">
@@ -11345,7 +11375,7 @@
         <v>475</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C139" t="s">
         <v>100</v>
@@ -11361,14 +11391,14 @@
         <v>,Номер телефона: +7 9135625445 Фамилия: Фролова Имя: Юлия Отчество: Александровна</v>
       </c>
       <c r="R139" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="AA139" t="str">
         <f t="shared" si="5"/>
         <v>phone: +7 9135625445 surname: Фролова name: Юлия patronymic: Александровна,</v>
       </c>
       <c r="AB139" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="140" spans="1:28" x14ac:dyDescent="0.25">
@@ -11376,7 +11406,7 @@
         <v>477</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C140" t="s">
         <v>479</v>
@@ -11392,14 +11422,14 @@
         <v>,Номер телефона: +7 9135625446 Фамилия: Воронова Имя: Анна Отчество: Николаевна</v>
       </c>
       <c r="R140" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="AA140" t="str">
         <f t="shared" si="5"/>
         <v>phone: +7 9135625446 surname: Воронова name: Анна patronymic: Николаевна,</v>
       </c>
       <c r="AB140" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="141" spans="1:28" x14ac:dyDescent="0.25">
@@ -11407,7 +11437,7 @@
         <v>480</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C141" t="s">
         <v>482</v>
@@ -11423,14 +11453,14 @@
         <v>,Номер телефона: +7 9135625447 Фамилия: Зимина Имя: Анастасия Отчество: Анатольевна</v>
       </c>
       <c r="R141" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="AA141" t="str">
         <f t="shared" si="5"/>
         <v>phone: +7 9135625447 surname: Зимина name: Анастасия patronymic: Анатольевна,</v>
       </c>
       <c r="AB141" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="142" spans="1:28" x14ac:dyDescent="0.25">
@@ -11438,7 +11468,7 @@
         <v>484</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C142" t="s">
         <v>486</v>
@@ -11454,14 +11484,14 @@
         <v>,Номер телефона: +7 9135625448 Фамилия: Апалько Имя: Оксана Отчество: Владимировна</v>
       </c>
       <c r="R142" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="AA142" t="str">
         <f t="shared" si="5"/>
         <v>phone: +7 9135625448 surname: Апалько name: Оксана patronymic: Владимировна,</v>
       </c>
       <c r="AB142" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="143" spans="1:28" x14ac:dyDescent="0.25">
@@ -11469,7 +11499,7 @@
         <v>487</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C143" t="s">
         <v>115</v>
@@ -11485,14 +11515,14 @@
         <v>,Номер телефона: +7 9135625449 Фамилия: Смирнова Имя: Ирина Отчество: Александровна</v>
       </c>
       <c r="R143" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="AA143" t="str">
         <f t="shared" si="5"/>
         <v>phone: +7 9135625449 surname: Смирнова name: Ирина patronymic: Александровна,</v>
       </c>
       <c r="AB143" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="144" spans="1:28" x14ac:dyDescent="0.25">
@@ -11500,7 +11530,7 @@
         <v>489</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C144" t="s">
         <v>491</v>
@@ -11516,14 +11546,14 @@
         <v>,Номер телефона: +7 9135625453 Фамилия: Ляпугин Имя: Алексей Отчество: Николаевич</v>
       </c>
       <c r="R144" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="AA144" t="str">
         <f t="shared" si="5"/>
         <v>phone: +7 9135625453 surname: Ляпугин name: Алексей patronymic: Николаевич,</v>
       </c>
       <c r="AB144" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="145" spans="1:28" x14ac:dyDescent="0.25">
@@ -11531,7 +11561,7 @@
         <v>492</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C145" t="s">
         <v>494</v>
@@ -11547,14 +11577,14 @@
         <v>,Номер телефона: +7 9135625454 Фамилия: Калинин Имя: Сергей Отчество: Николаевич</v>
       </c>
       <c r="R145" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="AA145" t="str">
         <f t="shared" si="5"/>
         <v>phone: +7 9135625454 surname: Калинин name: Сергей patronymic: Николаевич,</v>
       </c>
       <c r="AB145" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="146" spans="1:28" x14ac:dyDescent="0.25">
@@ -11562,7 +11592,7 @@
         <v>495</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C146" t="s">
         <v>497</v>
@@ -11578,14 +11608,14 @@
         <v>,Номер телефона: +7 9135625455 Фамилия: Решетова Имя: Светлана Отчество: Владимировна</v>
       </c>
       <c r="R146" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="AA146" t="str">
         <f t="shared" si="5"/>
         <v>phone: +7 9135625455 surname: Решетова name: Светлана patronymic: Владимировна,</v>
       </c>
       <c r="AB146" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="147" spans="1:28" x14ac:dyDescent="0.25">
@@ -11593,7 +11623,7 @@
         <v>498</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C147" t="s">
         <v>115</v>
@@ -11609,14 +11639,14 @@
         <v>,Номер телефона: +7 9135625460 Фамилия: Смирнова Имя: Ирина Отчество: Александровна</v>
       </c>
       <c r="R147" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="AA147" t="str">
         <f t="shared" si="5"/>
         <v>phone: +7 9135625460 surname: Смирнова name: Ирина patronymic: Александровна,</v>
       </c>
       <c r="AB147" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="148" spans="1:28" x14ac:dyDescent="0.25">
@@ -11624,7 +11654,7 @@
         <v>500</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C148" t="s">
         <v>502</v>
@@ -11640,14 +11670,14 @@
         <v>,Номер телефона: +7 9135625461 Фамилия: Тимонина Имя: Елена Отчество: Анатольевна</v>
       </c>
       <c r="R148" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="AA148" t="str">
         <f t="shared" si="5"/>
         <v>phone: +7 9135625461 surname: Тимонина name: Елена patronymic: Анатольевна,</v>
       </c>
       <c r="AB148" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="149" spans="1:28" x14ac:dyDescent="0.25">
@@ -11655,7 +11685,7 @@
         <v>503</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C149" t="s">
         <v>505</v>
@@ -11671,14 +11701,14 @@
         <v>,Номер телефона: +7 9135625462 Фамилия: Базанкова Имя: Марина Отчество: Владимировна</v>
       </c>
       <c r="R149" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="AA149" t="str">
         <f t="shared" si="5"/>
         <v>phone: +7 9135625462 surname: Базанкова name: Марина patronymic: Владимировна,</v>
       </c>
       <c r="AB149" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="150" spans="1:28" x14ac:dyDescent="0.25">
@@ -11686,7 +11716,7 @@
         <v>506</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C150" t="s">
         <v>508</v>
@@ -11702,14 +11732,14 @@
         <v>,Номер телефона: +7 9135625463 Фамилия: Криволуцкая Имя: Наталья Отчество: Анатольевна</v>
       </c>
       <c r="R150" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="AA150" t="str">
         <f t="shared" si="5"/>
         <v>phone: +7 9135625463 surname: Криволуцкая name: Наталья patronymic: Анатольевна,</v>
       </c>
       <c r="AB150" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="151" spans="1:28" x14ac:dyDescent="0.25">
@@ -11717,7 +11747,7 @@
         <v>509</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C151" t="s">
         <v>511</v>
@@ -11733,14 +11763,14 @@
         <v>,Номер телефона: +7 9135625464 Фамилия: Федосеева Имя: Светлана Отчество: Константиновна</v>
       </c>
       <c r="R151" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="AA151" t="str">
         <f t="shared" si="5"/>
         <v>phone: +7 9135625464 surname: Федосеева name: Светлана patronymic: Константиновна,</v>
       </c>
       <c r="AB151" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="152" spans="1:28" x14ac:dyDescent="0.25">
@@ -11748,7 +11778,7 @@
         <v>512</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C152" t="s">
         <v>514</v>
@@ -11764,14 +11794,14 @@
         <v>,Номер телефона: +7 9135625465 Фамилия: Исакова Имя: Елена Отчество: Васильевна</v>
       </c>
       <c r="R152" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="AA152" t="str">
         <f t="shared" si="5"/>
         <v>phone: +7 9135625465 surname: Исакова name: Елена patronymic: Васильевна,</v>
       </c>
       <c r="AB152" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="153" spans="1:28" x14ac:dyDescent="0.25">
@@ -11779,7 +11809,7 @@
         <v>515</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C153" t="s">
         <v>517</v>
@@ -11795,14 +11825,14 @@
         <v>,Номер телефона: +7 9135625466 Фамилия: Соболева Имя: Татьяна Отчество: Ивановна</v>
       </c>
       <c r="R153" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="AA153" t="str">
         <f t="shared" si="5"/>
         <v>phone: +7 9135625466 surname: Соболева name: Татьяна patronymic: Ивановна,</v>
       </c>
       <c r="AB153" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="154" spans="1:28" x14ac:dyDescent="0.25">
@@ -11810,7 +11840,7 @@
         <v>518</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C154" t="s">
         <v>520</v>
@@ -11826,14 +11856,14 @@
         <v>,Номер телефона: +7 9135625467 Фамилия: Асекритова Имя: Марина Отчество: Андреевна</v>
       </c>
       <c r="R154" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="AA154" t="str">
         <f t="shared" si="5"/>
         <v>phone: +7 9135625467 surname: Асекритова name: Марина patronymic: Андреевна,</v>
       </c>
       <c r="AB154" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="155" spans="1:28" x14ac:dyDescent="0.25">
@@ -11841,7 +11871,7 @@
         <v>521</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C155" t="s">
         <v>523</v>
@@ -11857,14 +11887,14 @@
         <v>,Номер телефона: +7 9135625468 Фамилия: Коротаева Имя: Алла Отчество: Николаевна</v>
       </c>
       <c r="R155" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="AA155" t="str">
         <f t="shared" si="5"/>
         <v>phone: +7 9135625468 surname: Коротаева name: Алла patronymic: Николаевна,</v>
       </c>
       <c r="AB155" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="156" spans="1:28" x14ac:dyDescent="0.25">
@@ -11872,7 +11902,7 @@
         <v>525</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C156" t="s">
         <v>527</v>
@@ -11888,14 +11918,14 @@
         <v>,Номер телефона: +7 9135625470 Фамилия: Козлов Имя: Александр Отчество: Анатольевич</v>
       </c>
       <c r="R156" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="AA156" t="str">
         <f t="shared" si="5"/>
         <v>phone: +7 9135625470 surname: Козлов name: Александр patronymic: Анатольевич,</v>
       </c>
       <c r="AB156" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="157" spans="1:28" x14ac:dyDescent="0.25">
@@ -11903,7 +11933,7 @@
         <v>529</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C157" t="s">
         <v>531</v>
@@ -11919,14 +11949,14 @@
         <v>,Номер телефона: +7 9135625471 Фамилия: Крылов Имя: Олег Отчество: Витальевич</v>
       </c>
       <c r="R157" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="AA157" t="str">
         <f t="shared" si="5"/>
         <v>phone: +7 9135625471 surname: Крылов name: Олег patronymic: Витальевич,</v>
       </c>
       <c r="AB157" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="158" spans="1:28" x14ac:dyDescent="0.25">
@@ -11934,7 +11964,7 @@
         <v>533</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C158" t="s">
         <v>535</v>
@@ -11950,14 +11980,14 @@
         <v>,Номер телефона: +7 9135625472 Фамилия: Малый Имя: Николай Отчество: Александрович</v>
       </c>
       <c r="R158" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="AA158" t="str">
         <f t="shared" si="5"/>
         <v>phone: +7 9135625472 surname: Малый name: Николай patronymic: Александрович,</v>
       </c>
       <c r="AB158" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="159" spans="1:28" x14ac:dyDescent="0.25">
@@ -11965,7 +11995,7 @@
         <v>537</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C159" t="s">
         <v>539</v>
@@ -11981,14 +12011,14 @@
         <v>,Номер телефона: +7 9135625473 Фамилия: Киселева Имя: Ольга Отчество: Борисовна</v>
       </c>
       <c r="R159" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="AA159" t="str">
         <f t="shared" si="5"/>
         <v>phone: +7 9135625473 surname: Киселева name: Ольга patronymic: Борисовна,</v>
       </c>
       <c r="AB159" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="160" spans="1:28" x14ac:dyDescent="0.25">
@@ -11996,7 +12026,7 @@
         <v>540</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C160" t="s">
         <v>542</v>
@@ -12012,14 +12042,14 @@
         <v>,Номер телефона: +7 9135625474 Фамилия: Лошкина Имя: Анна Отчество: Викторовна</v>
       </c>
       <c r="R160" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="AA160" t="str">
         <f t="shared" si="5"/>
         <v>phone: +7 9135625474 surname: Лошкина name: Анна patronymic: Викторовна,</v>
       </c>
       <c r="AB160" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="161" spans="1:28" x14ac:dyDescent="0.25">
@@ -12027,7 +12057,7 @@
         <v>543</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C161" t="s">
         <v>545</v>
@@ -12043,14 +12073,14 @@
         <v>,Номер телефона: +7 9135625475 Фамилия: Тряскина Имя: Елена Отчество: Борисовна</v>
       </c>
       <c r="R161" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="AA161" t="str">
         <f t="shared" si="5"/>
         <v>phone: +7 9135625475 surname: Тряскина name: Елена patronymic: Борисовна,</v>
       </c>
       <c r="AB161" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="162" spans="1:28" x14ac:dyDescent="0.25">
@@ -12058,7 +12088,7 @@
         <v>546</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C162" t="s">
         <v>548</v>
@@ -12074,14 +12104,14 @@
         <v>,Номер телефона: +7 9135625476 Фамилия: Синяк Имя: Борис Отчество: Николаевич</v>
       </c>
       <c r="R162" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="AA162" t="str">
         <f t="shared" si="5"/>
         <v>phone: +7 9135625476 surname: Синяк name: Борис patronymic: Николаевич,</v>
       </c>
       <c r="AB162" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="163" spans="1:28" x14ac:dyDescent="0.25">
@@ -12089,7 +12119,7 @@
         <v>550</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C163" t="s">
         <v>552</v>
@@ -12105,14 +12135,14 @@
         <v>,Номер телефона: +7 9135625477 Фамилия: Егорычева Имя: Нина Отчество: Михайловна</v>
       </c>
       <c r="R163" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="AA163" t="str">
         <f t="shared" si="5"/>
         <v>phone: +7 9135625477 surname: Егорычева name: Нина patronymic: Михайловна,</v>
       </c>
       <c r="AB163" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="164" spans="1:28" x14ac:dyDescent="0.25">
@@ -12120,7 +12150,7 @@
         <v>554</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C164" t="s">
         <v>556</v>
@@ -12136,14 +12166,14 @@
         <v>,Номер телефона: +7 9135625478 Фамилия: Рогова Имя: Ирина Отчество: Федоровна</v>
       </c>
       <c r="R164" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="AA164" t="str">
         <f t="shared" si="5"/>
         <v>phone: +7 9135625478 surname: Рогова name: Ирина patronymic: Федоровна,</v>
       </c>
       <c r="AB164" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="165" spans="1:28" x14ac:dyDescent="0.25">
@@ -12151,7 +12181,7 @@
         <v>557</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C165" t="s">
         <v>539</v>
@@ -12167,14 +12197,14 @@
         <v>,Номер телефона: +7 9135625479 Фамилия: Киселева Имя: Ксения Отчество: Александровна</v>
       </c>
       <c r="R165" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="AA165" t="str">
         <f t="shared" si="5"/>
         <v>phone: +7 9135625479 surname: Киселева name: Ксения patronymic: Александровна,</v>
       </c>
       <c r="AB165" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="166" spans="1:28" x14ac:dyDescent="0.25">
@@ -12182,7 +12212,7 @@
         <v>560</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C166" t="s">
         <v>562</v>
@@ -12198,14 +12228,14 @@
         <v>,Номер телефона: +7 9135625480 Фамилия: Козина Имя: Ирина Отчество: Владимировна</v>
       </c>
       <c r="R166" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="AA166" t="str">
         <f t="shared" si="5"/>
         <v>phone: +7 9135625480 surname: Козина name: Ирина patronymic: Владимировна,</v>
       </c>
       <c r="AB166" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="167" spans="1:28" x14ac:dyDescent="0.25">
@@ -12213,7 +12243,7 @@
         <v>563</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C167" t="s">
         <v>565</v>
@@ -12229,14 +12259,14 @@
         <v>,Номер телефона: +7 9135625481 Фамилия: Розанова Имя: Марина Отчество: Анатольевна</v>
       </c>
       <c r="R167" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="AA167" t="str">
         <f t="shared" si="5"/>
         <v>phone: +7 9135625481 surname: Розанова name: Марина patronymic: Анатольевна,</v>
       </c>
       <c r="AB167" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="168" spans="1:28" x14ac:dyDescent="0.25">
@@ -12244,7 +12274,7 @@
         <v>566</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C168" t="s">
         <v>372</v>
@@ -12260,14 +12290,14 @@
         <v>,Номер телефона: +7 9135625482 Фамилия: Тихомирова Имя: Светлана Отчество: Валентиновна</v>
       </c>
       <c r="R168" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="AA168" t="str">
         <f t="shared" si="5"/>
         <v>phone: +7 9135625482 surname: Тихомирова name: Светлана patronymic: Валентиновна,</v>
       </c>
       <c r="AB168" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="169" spans="1:28" x14ac:dyDescent="0.25">
@@ -12275,7 +12305,7 @@
         <v>568</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C169" t="s">
         <v>542</v>
@@ -12291,25 +12321,25 @@
         <v>,Номер телефона: +7 9135626482 Фамилия: Лошкина Имя: Ирина Отчество: Анатольевна</v>
       </c>
       <c r="R169" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="AA169" t="str">
         <f t="shared" si="5"/>
         <v>phone: +7 9135626482 surname: Лошкина name: Ирина patronymic: Анатольевна,</v>
       </c>
       <c r="AB169" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="170" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C170" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D170" t="s">
         <v>19</v>
@@ -12322,53 +12352,53 @@
         <v>,Номер телефона: +7 9135625483 Фамилия: Дмитриева Имя: Елена Отчество: Владимировна</v>
       </c>
       <c r="R170" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="AA170" t="str">
         <f t="shared" si="5"/>
         <v>phone: +7 9135625483 surname: Дмитриева name: Елена patronymic: Владимировна,</v>
       </c>
       <c r="AB170" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="171" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C171" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D171" t="s">
         <v>120</v>
       </c>
       <c r="E171" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H171" t="str">
         <f t="shared" si="4"/>
         <v>,Номер телефона: +7 9135625484 Фамилия: Шумкова Имя: Наталья Отчество: Жоржевна</v>
       </c>
       <c r="R171" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="AA171" t="str">
         <f t="shared" si="5"/>
         <v>phone: +7 9135625484 surname: Шумкова name: Наталья patronymic: Жоржевна,</v>
       </c>
       <c r="AB171" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="172" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C172" t="s">
         <v>100</v>
@@ -12384,22 +12414,22 @@
         <v>,Номер телефона: +7 9135625485 Фамилия: Фролова Имя: Светлана Отчество: Андреевна</v>
       </c>
       <c r="R172" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="AA172" t="str">
         <f t="shared" si="5"/>
         <v>phone: +7 9135625485 surname: Фролова name: Светлана patronymic: Андреевна,</v>
       </c>
       <c r="AB172" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="173" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C173" t="s">
         <v>344</v>
@@ -12415,25 +12445,25 @@
         <v>,Номер телефона: +7 9135455331 Фамилия: Попова Имя: Гузалия Отчество: Минулловна</v>
       </c>
       <c r="R173" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="AA173" t="str">
         <f t="shared" si="5"/>
         <v>phone: +7 9135455331 surname: Попова name: Гузалия patronymic: Минулловна,</v>
       </c>
       <c r="AB173" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="174" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C174" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D174" t="s">
         <v>549</v>
@@ -12446,25 +12476,25 @@
         <v>,Номер телефона: +7 9135455411 Фамилия: Колотильщикова Имя: Борис Отчество: Александрович</v>
       </c>
       <c r="R174" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="AA174" t="str">
         <f t="shared" si="5"/>
         <v>phone: +7 9135455411 surname: Колотильщикова name: Борис patronymic: Александрович,</v>
       </c>
       <c r="AB174" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="175" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C175" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D175" t="s">
         <v>151</v>
@@ -12477,25 +12507,25 @@
         <v>,Номер телефона: +7 9135465411 Фамилия: Сомикова Имя: Светлана Отчество: Владимировна</v>
       </c>
       <c r="R175" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="AA175" t="str">
         <f t="shared" si="5"/>
         <v>phone: +7 9135465411 surname: Сомикова name: Светлана patronymic: Владимировна,</v>
       </c>
       <c r="AB175" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="176" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C176" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D176" t="s">
         <v>426</v>
@@ -12508,56 +12538,56 @@
         <v>,Номер телефона: +7 9135473411 Фамилия: Михайловская Имя: Юлия Отчество: Викторовна</v>
       </c>
       <c r="R176" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="AA176" t="str">
         <f t="shared" si="5"/>
         <v>phone: +7 9135473411 surname: Михайловская name: Юлия patronymic: Викторовна,</v>
       </c>
       <c r="AB176" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="177" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C177" t="s">
+        <v>589</v>
+      </c>
+      <c r="D177" t="s">
         <v>590</v>
       </c>
-      <c r="D177" t="s">
+      <c r="E177" t="s">
         <v>591</v>
-      </c>
-      <c r="E177" t="s">
-        <v>592</v>
       </c>
       <c r="H177" t="str">
         <f t="shared" si="4"/>
         <v>,Номер телефона: +7 9135455481 Фамилия: Никитина Имя: Гамиля Отчество: Хаджимуратовна</v>
       </c>
       <c r="R177" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AA177" t="str">
         <f t="shared" si="5"/>
         <v>phone: +7 9135455481 surname: Никитина name: Гамиля patronymic: Хаджимуратовна,</v>
       </c>
       <c r="AB177" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="178" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C178" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D178" t="s">
         <v>190</v>
@@ -12570,22 +12600,22 @@
         <v>,Номер телефона: +7 9135455421 Фамилия: Фунтова Имя: Надежда Отчество: Анатольевна</v>
       </c>
       <c r="R178" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="AA178" t="str">
         <f t="shared" si="5"/>
         <v>phone: +7 9135455421 surname: Фунтова name: Надежда patronymic: Анатольевна,</v>
       </c>
       <c r="AB178" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="179" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C179" t="s">
         <v>18</v>
@@ -12601,22 +12631,22 @@
         <v>,Номер телефона: +7 9135455381 Фамилия: Соловьева Имя: Наталья Отчество: Анатольевна</v>
       </c>
       <c r="R179" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AA179" t="str">
         <f t="shared" si="5"/>
         <v>phone: +7 9135455381 surname: Соловьева name: Наталья patronymic: Анатольевна,</v>
       </c>
       <c r="AB179" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="180" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C180" t="s">
         <v>452</v>
@@ -12632,25 +12662,25 @@
         <v>,Номер телефона: +7 9135455311 Фамилия: Серова Имя: Елена Отчество: Николаевна</v>
       </c>
       <c r="R180" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="AA180" t="str">
         <f t="shared" si="5"/>
         <v>phone: +7 9135455311 surname: Серова name: Елена patronymic: Николаевна,</v>
       </c>
       <c r="AB180" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="181" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
+        <v>599</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="C181" t="s">
         <v>600</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>806</v>
-      </c>
-      <c r="C181" t="s">
-        <v>601</v>
       </c>
       <c r="D181" t="s">
         <v>408</v>
@@ -12663,22 +12693,22 @@
         <v>,Номер телефона: +7 9135455481 Фамилия: Шемягина Имя: Людмила Отчество: Анатольевна</v>
       </c>
       <c r="R181" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="AA181" t="str">
         <f t="shared" si="5"/>
         <v>phone: +7 9135455481 surname: Шемягина name: Людмила patronymic: Анатольевна,</v>
       </c>
       <c r="AB181" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="182" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C182" t="s">
         <v>141</v>
@@ -12694,25 +12724,25 @@
         <v>,Номер телефона: +7 9135455481 Фамилия: Дружинина Имя: Ольга Отчество: Николаевна</v>
       </c>
       <c r="R182" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="AA182" t="str">
         <f t="shared" si="5"/>
         <v>phone: +7 9135455481 surname: Дружинина name: Ольга patronymic: Николаевна,</v>
       </c>
       <c r="AB182" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="183" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C183" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D183" t="s">
         <v>190</v>
@@ -12725,25 +12755,25 @@
         <v>,Номер телефона: +7 9135455431 Фамилия: Золянова Имя: Надежда Отчество: Олеговна</v>
       </c>
       <c r="R183" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AA183" t="str">
         <f t="shared" si="5"/>
         <v>phone: +7 9135455431 surname: Золянова name: Надежда patronymic: Олеговна,</v>
       </c>
       <c r="AB183" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="184" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
+        <v>605</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="C184" t="s">
         <v>606</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="C184" t="s">
-        <v>607</v>
       </c>
       <c r="D184" t="s">
         <v>426</v>
@@ -12756,28 +12786,28 @@
         <v>,Номер телефона: +7 9135455431 Фамилия: Никифорова Имя: Юлия Отчество: Сергеевна</v>
       </c>
       <c r="R184" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="AA184" t="str">
         <f t="shared" si="5"/>
         <v>phone: +7 9135455431 surname: Никифорова name: Юлия patronymic: Сергеевна,</v>
       </c>
       <c r="AB184" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="185" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C185" t="s">
+        <v>609</v>
+      </c>
+      <c r="D185" t="s">
         <v>610</v>
-      </c>
-      <c r="D185" t="s">
-        <v>611</v>
       </c>
       <c r="E185" t="s">
         <v>376</v>
@@ -12787,25 +12817,25 @@
         <v>,Номер телефона: +7 9135455402 Фамилия: Махова Имя: Лидия Отчество: Ивановна</v>
       </c>
       <c r="R185" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="AA185" t="str">
         <f t="shared" si="5"/>
         <v>phone: +7 9135455402 surname: Махова name: Лидия patronymic: Ивановна,</v>
       </c>
       <c r="AB185" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="186" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C186" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D186" t="s">
         <v>19</v>
@@ -12818,25 +12848,25 @@
         <v>,Номер телефона: +7 9135642238 Фамилия: Антонюк Имя: Елена Отчество: Юрьевна</v>
       </c>
       <c r="R186" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="AA186" t="str">
         <f t="shared" si="5"/>
         <v>phone: +7 9135642238 surname: Антонюк name: Елена patronymic: Юрьевна,</v>
       </c>
       <c r="AB186" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="187" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C187" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D187" t="s">
         <v>186</v>
@@ -12849,25 +12879,25 @@
         <v>,Номер телефона: +7 9135642237 Фамилия: Лукоянова Имя: Виктория Отчество: Владимировна</v>
       </c>
       <c r="R187" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="AA187" t="str">
         <f t="shared" si="5"/>
         <v>phone: +7 9135642237 surname: Лукоянова name: Виктория patronymic: Владимировна,</v>
       </c>
       <c r="AB187" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="188" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C188" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D188" t="s">
         <v>55</v>
@@ -12880,22 +12910,22 @@
         <v>,Номер телефона: +7 9135642240 Фамилия: Молчанова Имя: Александр Отчество: Николаевич</v>
       </c>
       <c r="R188" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="AA188" t="str">
         <f t="shared" si="5"/>
         <v>phone: +7 9135642240 surname: Молчанова name: Александр patronymic: Николаевич,</v>
       </c>
       <c r="AB188" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="189" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C189" t="s">
         <v>511</v>
@@ -12911,25 +12941,25 @@
         <v>,Номер телефона: +7 9135642237 Фамилия: Федосеева Имя: Ольга Отчество: Игоревна</v>
       </c>
       <c r="R189" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="AA189" t="str">
         <f t="shared" si="5"/>
         <v>phone: +7 9135642237 surname: Федосеева name: Ольга patronymic: Игоревна,</v>
       </c>
       <c r="AB189" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="190" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C190" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D190" t="s">
         <v>301</v>
@@ -12942,25 +12972,25 @@
         <v>,Номер телефона: +7 9135642237 Фамилия: Антонюк Имя: Евгений Отчество: Валерьевич</v>
       </c>
       <c r="R190" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="AA190" t="str">
         <f t="shared" si="5"/>
         <v>phone: +7 9135642237 surname: Антонюк name: Евгений patronymic: Валерьевич,</v>
       </c>
       <c r="AB190" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="191" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C191" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D191" t="s">
         <v>101</v>
@@ -12973,59 +13003,59 @@
         <v>,Номер телефона: +7 9135625491 Фамилия: Сомикова Имя: Мария Отчество: Александровна</v>
       </c>
       <c r="R191" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="AA191" t="str">
         <f t="shared" si="5"/>
         <v>phone: +7 9135625491 surname: Сомикова name: Мария patronymic: Александровна,</v>
       </c>
       <c r="AB191" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="192" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C192" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D192" t="s">
         <v>6</v>
       </c>
       <c r="E192" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H192" t="str">
         <f t="shared" si="4"/>
         <v>,Номер телефона: +7 9135642239 Фамилия: Горшенин Имя: Сергей Отчество: Валентинович</v>
       </c>
       <c r="R192" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="AA192" t="str">
         <f t="shared" si="5"/>
         <v>phone: +7 9135642239 surname: Горшенин name: Сергей patronymic: Валентинович,</v>
       </c>
       <c r="AB192" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="193" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
+        <v>629</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="C193" t="s">
         <v>630</v>
       </c>
-      <c r="B193" s="1" t="s">
-        <v>816</v>
-      </c>
-      <c r="C193" t="s">
+      <c r="D193" t="s">
         <v>631</v>
-      </c>
-      <c r="D193" t="s">
-        <v>632</v>
       </c>
       <c r="E193" t="s">
         <v>56</v>
@@ -13035,25 +13065,25 @@
         <v>,Номер телефона: +7 9135642239 Фамилия: Балашов Имя: Павел Отчество: Александрович</v>
       </c>
       <c r="R193" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="AA193" t="str">
         <f t="shared" si="5"/>
         <v>phone: +7 9135642239 surname: Балашов name: Павел patronymic: Александрович,</v>
       </c>
       <c r="AB193" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="194" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C194" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D194" t="s">
         <v>120</v>
@@ -13066,14 +13096,14 @@
         <v>,Номер телефона: +79135625492 Фамилия: Палибина Имя: Наталья Отчество: Николаевна</v>
       </c>
       <c r="R194" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="AA194" t="str">
         <f t="shared" si="5"/>
         <v>phone: +79135625492 surname: Палибина name: Наталья patronymic: Николаевна,</v>
       </c>
       <c r="AB194" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
   </sheetData>
